--- a/Projekt1/Hipotezy.xlsx
+++ b/Projekt1/Hipotezy.xlsx
@@ -1,33 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/safurynm/Desktop/StudiaUG/AlgNum/Algorytmy-Numeryczne/Projekt1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD13B3CE-0BA4-6149-93B6-64A28B72AED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACD549B-D7C2-D242-AA51-962B76FB5C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{856EA640-2464-1B47-824C-F5A41D343910}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{856EA640-2464-1B47-824C-F5A41D343910}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Arkusz1!$T$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Arkusz1!$T$2:$T$75</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Arkusz1!$V$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Arkusz1!$V$2:$V$75</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Arkusz1!$U$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Arkusz1!$U$2:$U$75</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Arkusz1!$V$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Arkusz1!$V$2:$V$75</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Arkusz1!$T$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Arkusz1!$T$2:$T$75</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Arkusz1!$U$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Arkusz1!$U$2:$U$75</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Arkusz1!$S$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Arkusz1!$S$2:$S$52</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Arkusz1!$T$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Arkusz1!$T$2:$T$52</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Arkusz1!$U$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Arkusz1!$U$2:$U$52</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Arkusz1!$V$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Arkusz1!$V$2:$V$52</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Arkusz1!$T$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Arkusz1!$T$2:$T$52</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Arkusz1!$U$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Arkusz1!$U$2:$U$52</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Arkusz1!$V$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Arkusz1!$V$2:$V$52</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Arkusz1!$S$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Arkusz1!$S$2:$S$52</definedName>
     <definedName name="monte_carlo" localSheetId="0">Arkusz1!$L$3:$N$22</definedName>
     <definedName name="pkt_konc" localSheetId="0">Arkusz1!$G$2:$H$34</definedName>
     <definedName name="test" localSheetId="0">Arkusz1!$A$2:$C$52</definedName>
@@ -36,7 +40,7 @@
     <definedName name="test_3" localSheetId="0">Arkusz1!$J$2:$K$52</definedName>
     <definedName name="test_4" localSheetId="0">Arkusz1!$M$2:$P$52</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,6 +52,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -126,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>n</t>
   </si>
@@ -193,12 +198,18 @@
   <si>
     <t>Różnica</t>
   </si>
+  <si>
+    <t>Jak widać metoda sumowania jest bardziej dokładna niż monte carlo</t>
+  </si>
+  <si>
+    <t>Czyli TAK jest mniej efektywne</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -232,13 +243,26 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -250,18 +274,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Dobry" xfId="2" builtinId="26"/>
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -325,577 +352,6 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Arkusz1!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Błąd</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Arkusz1!$A$2:$A$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5992</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7988</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9984</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11980</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13976</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15972</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17968</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19964</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21960</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>23956</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25952</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>27948</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>29944</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>31940</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>33936</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>35932</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>37928</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>39924</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>41920</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43916</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>45912</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>47908</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>49904</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>51900</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>53896</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>55892</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>57888</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>59884</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>61880</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>63876</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>65872</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>67868</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>69864</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>71860</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>73856</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>75852</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>77848</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>79844</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>81840</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>83836</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>85832</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>87828</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>89824</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>91820</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>93816</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>95812</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>97808</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>99804</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Arkusz1!$I$2:$I$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>2.0405500000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2800000000001717E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.9200000000001438E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2199999999999989E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.2000000000032003E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.9999999999883471E-5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0300000000000864E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.5000000000007248E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5800000000000267E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.2200000000003328E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.6400000000001995E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.5300000000002569E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-2.0199999999999108E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2.5100000000000122E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.0000000000061107E-4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-2.1199999999996777E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.0000000000524096E-5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-3.3199999999995455E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-4.4499999999993989E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.1000000000042149E-4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.5700000000000713E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.1000000000018844E-4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.7000000000066962E-4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.0300000000000864E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.0500000000002174E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-2.1699999999995612E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-4.9099999999997479E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-4.2999999999997485E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-3.0799999999997496E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.1000000000001009E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-1.4899999999995472E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.460000000000683E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.1200000000002319E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.0299999999998661E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-3.0399999999994876E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2.4700000000006384E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.9600000000001856E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-1.4599999999997948E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>9.9000000000071253E-4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.1499999999999844E-3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.4000000000045105E-4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.4400000000006656E-3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-6.6399999999999793E-3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.180000000000625E-3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-2.5199999999996336E-3</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-7.5899999999995416E-3</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6.3100000000000378E-3</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-7.0199999999998042E-3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-1.7399999999998528E-3</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.2800000000003919E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A5BA-8249-8F14-3D83A748F686}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="162889007"/>
-        <c:axId val="162890735"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="162889007"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="162890735"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="162890735"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="162889007"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1470,10 +926,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$2:$C$60</c:f>
+              <c:f>Arkusz1!$C$2:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>4.2426399999999997</c:v>
                 </c:pt>
@@ -1848,7 +1304,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
@@ -1926,10 +1382,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$F$2:$F$60</c:f>
+              <c:f>Arkusz1!$F$2:$F$55</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>-1.78814E-7</c:v>
                 </c:pt>
@@ -1981,106 +1437,106 @@
                 <c:pt idx="16">
                   <c:v>6.2263900000000003E-4</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="General">
+                <c:pt idx="17">
                   <c:v>5.8675600000000002E-4</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="18">
                   <c:v>5.4021400000000002E-4</c:v>
                 </c:pt>
-                <c:pt idx="19" formatCode="General">
+                <c:pt idx="19">
                   <c:v>5.1409399999999999E-4</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="General">
+                <c:pt idx="20">
                   <c:v>5.0215199999999996E-4</c:v>
                 </c:pt>
-                <c:pt idx="21" formatCode="General">
+                <c:pt idx="21">
                   <c:v>4.7470699999999999E-4</c:v>
                 </c:pt>
-                <c:pt idx="22" formatCode="General">
+                <c:pt idx="22">
                   <c:v>4.52111E-4</c:v>
                 </c:pt>
-                <c:pt idx="23" formatCode="General">
+                <c:pt idx="23">
                   <c:v>4.2474500000000003E-4</c:v>
                 </c:pt>
-                <c:pt idx="24" formatCode="General">
+                <c:pt idx="24">
                   <c:v>4.1385400000000001E-4</c:v>
                 </c:pt>
-                <c:pt idx="25" formatCode="General">
+                <c:pt idx="25">
                   <c:v>3.9437499999999998E-4</c:v>
                 </c:pt>
-                <c:pt idx="26" formatCode="General">
+                <c:pt idx="26">
                   <c:v>3.8168300000000001E-4</c:v>
                 </c:pt>
-                <c:pt idx="27" formatCode="General">
+                <c:pt idx="27">
                   <c:v>3.5952500000000002E-4</c:v>
                 </c:pt>
-                <c:pt idx="28" formatCode="General">
+                <c:pt idx="28">
                   <c:v>3.4879300000000002E-4</c:v>
                 </c:pt>
-                <c:pt idx="29" formatCode="General">
+                <c:pt idx="29">
                   <c:v>3.4409399999999998E-4</c:v>
                 </c:pt>
-                <c:pt idx="30" formatCode="General">
+                <c:pt idx="30">
                   <c:v>3.31405E-4</c:v>
                 </c:pt>
-                <c:pt idx="31" formatCode="General">
+                <c:pt idx="31">
                   <c:v>3.1897300000000001E-4</c:v>
                 </c:pt>
-                <c:pt idx="32" formatCode="General">
+                <c:pt idx="32">
                   <c:v>3.0676800000000001E-4</c:v>
                 </c:pt>
-                <c:pt idx="33" formatCode="General">
+                <c:pt idx="33">
                   <c:v>2.9760799999999999E-4</c:v>
                 </c:pt>
-                <c:pt idx="34" formatCode="General">
+                <c:pt idx="34">
                   <c:v>2.9270300000000001E-4</c:v>
                 </c:pt>
-                <c:pt idx="35" formatCode="General">
+                <c:pt idx="35">
                   <c:v>2.9816400000000001E-4</c:v>
                 </c:pt>
-                <c:pt idx="36" formatCode="General">
+                <c:pt idx="36">
                   <c:v>2.80673E-4</c:v>
                 </c:pt>
-                <c:pt idx="37" formatCode="General">
+                <c:pt idx="37">
                   <c:v>2.74238E-4</c:v>
                 </c:pt>
-                <c:pt idx="38" formatCode="General">
+                <c:pt idx="38">
                   <c:v>2.5681400000000001E-4</c:v>
                 </c:pt>
-                <c:pt idx="39" formatCode="General">
+                <c:pt idx="39">
                   <c:v>2.4485099999999998E-4</c:v>
                 </c:pt>
-                <c:pt idx="40" formatCode="General">
+                <c:pt idx="40">
                   <c:v>2.3855600000000001E-4</c:v>
                 </c:pt>
-                <c:pt idx="41" formatCode="General">
+                <c:pt idx="41">
                   <c:v>2.3490300000000001E-4</c:v>
                 </c:pt>
-                <c:pt idx="42" formatCode="General">
+                <c:pt idx="42">
                   <c:v>2.43689E-4</c:v>
                 </c:pt>
-                <c:pt idx="43" formatCode="General">
+                <c:pt idx="43">
                   <c:v>2.2261899999999999E-4</c:v>
                 </c:pt>
-                <c:pt idx="44" formatCode="General">
+                <c:pt idx="44">
                   <c:v>2.1862199999999999E-4</c:v>
                 </c:pt>
-                <c:pt idx="45" formatCode="General">
+                <c:pt idx="45">
                   <c:v>2.2159400000000001E-4</c:v>
                 </c:pt>
-                <c:pt idx="46" formatCode="General">
+                <c:pt idx="46">
                   <c:v>2.12389E-4</c:v>
                 </c:pt>
-                <c:pt idx="47" formatCode="General">
+                <c:pt idx="47">
                   <c:v>2.0679300000000001E-4</c:v>
                 </c:pt>
-                <c:pt idx="48" formatCode="General">
+                <c:pt idx="48">
                   <c:v>2.0009699999999999E-4</c:v>
                 </c:pt>
-                <c:pt idx="49" formatCode="General">
+                <c:pt idx="49">
                   <c:v>1.9968899999999999E-4</c:v>
                 </c:pt>
-                <c:pt idx="50" formatCode="General">
+                <c:pt idx="50">
                   <c:v>1.93461E-4</c:v>
                 </c:pt>
               </c:numCache>
@@ -2121,10 +1577,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$G$2:$G$60</c:f>
+              <c:f>Arkusz1!$G$2:$G$55</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>1.1920900000000001E-7</c:v>
                 </c:pt>
@@ -2372,7 +1828,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2404,6 +1860,641 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="186607311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$J$2:$J$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>-2.3841900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.64645E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.0347400000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.15395E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.82013E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.1498400000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7642999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.6784699999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.4795500000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.9999700000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.52206E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.6779199999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.96919E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.2310500000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.54631E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.9035300000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.12915E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.7765500000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7547600000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.2560999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0528600000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4457700000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2697400000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.6817299999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.0136099999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.3836399999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.7536599999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.2381299999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.5280499999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.8255900000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.5618300000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.9318499999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.3095099999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.46155E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.7133200000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.9956100000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.2015999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.3923299999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.6364700000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.9797999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.1323900000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.3231200000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.5596299999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.8724399999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.0024999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.0200499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.03836E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.0589599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.08795E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.10168E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.1184700000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FAD8-EB46-A3F3-8FE9F4FE2217}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$K$2:$K$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>1.1920900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.76837E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3841900000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8610199999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.7220499999999997E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.8610199999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.5830700000000005E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.6212500000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-7.6293900000000003E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.2888199999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.6239599999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-7.4386600000000004E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.90735E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.1444099999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.8610199999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.0517600000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.4332300000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6.8664600000000007E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-8.0108600000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-8.3923299999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-8.0108600000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-7.6293900000000005E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.6403199999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.4495799999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.37329E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.2970000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.2588500000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.33514E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.2207E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.33514E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.02179E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.2125199999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.2888199999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-3.4332299999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-3.2806399999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3.3569300000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-3.0517599999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-3.0517599999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-3.1280499999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-3.0517599999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-3.1280499999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-3.1280499999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-3.0517599999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.89917E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.89917E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2.74658E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-2.6702900000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2.74658E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2.74658E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2.74658E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2.8228800000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FAD8-EB46-A3F3-8FE9F4FE2217}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="186426927"/>
+        <c:axId val="186428655"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="186426927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="186428655"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="186428655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="186426927"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2536,17 +2627,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Arkusz1!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SX</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2559,164 +2639,320 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$A$3:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11980</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15972</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17968</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19964</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21960</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23956</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25952</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27948</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29944</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31940</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33936</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35932</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37928</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39924</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41920</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45912</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>47908</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>49904</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>51900</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>53896</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55892</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>57888</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>59884</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>61880</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>63876</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>65872</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>67868</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>69864</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>71860</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>73856</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>75852</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>77848</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>79844</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>81840</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>83836</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>85832</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>87828</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>89824</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>91820</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>93816</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>95812</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>97808</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>99804</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$J$2:$J$60</c:f>
+              <c:f>Arkusz1!$I$3:$I$52</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>-2.3841900000000001E-7</c:v>
+                  <c:v>3.2800000000001717E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.64645E-5</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>-1.0347400000000001E-4</c:v>
+                  <c:v>1.9200000000001438E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2199999999999989E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.15395E-4</c:v>
+                  <c:v>3.2000000000032003E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7.82013E-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.1498400000000001E-5</c:v>
+                  <c:v>4.9999999999883471E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7642999999999999E-4</c:v>
+                  <c:v>1.0300000000000864E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.6784699999999999E-4</c:v>
+                  <c:v>3.5000000000007248E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.4795500000000001E-4</c:v>
+                  <c:v>2.5800000000000267E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-6.9999700000000005E-4</c:v>
+                  <c:v>2.2200000000003328E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.52206E-3</c:v>
+                  <c:v>4.6400000000001995E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.6779199999999999E-3</c:v>
+                  <c:v>5.5300000000002569E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3.96919E-3</c:v>
+                  <c:v>-2.0199999999999108E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3.2310500000000001E-3</c:v>
+                  <c:v>-2.5100000000000122E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2.54631E-3</c:v>
+                  <c:v>5.0000000000061107E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.9035300000000001E-3</c:v>
+                  <c:v>-2.1199999999996777E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.12915E-3</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="General">
-                  <c:v>-3.7765500000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="General">
-                  <c:v>1.7547600000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>6.2560999999999997E-4</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>1.0528600000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>1.4457700000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>2.2697400000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="General">
-                  <c:v>2.6817299999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>3.0136099999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="General">
-                  <c:v>3.3836399999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="General">
-                  <c:v>3.7536599999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="General">
-                  <c:v>4.2381299999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="General">
-                  <c:v>4.5280499999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="General">
-                  <c:v>4.8255900000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="General">
-                  <c:v>5.5618300000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="General">
-                  <c:v>5.9318499999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="General">
-                  <c:v>6.3095099999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="General">
-                  <c:v>7.46155E-3</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="General">
-                  <c:v>7.7133200000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="General">
-                  <c:v>7.9956100000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="General">
-                  <c:v>8.2015999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="General">
-                  <c:v>8.3923299999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="General">
-                  <c:v>8.6364700000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="General">
-                  <c:v>8.9797999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="General">
-                  <c:v>9.1323900000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="41" formatCode="General">
-                  <c:v>9.3231200000000007E-3</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="General">
-                  <c:v>9.5596299999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="General">
-                  <c:v>9.8724399999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="44" formatCode="General">
-                  <c:v>1.0024999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="General">
-                  <c:v>1.0200499999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="General">
-                  <c:v>1.03836E-2</c:v>
-                </c:pt>
-                <c:pt idx="47" formatCode="General">
-                  <c:v>1.0589599999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="General">
-                  <c:v>1.08795E-2</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="General">
-                  <c:v>1.10168E-2</c:v>
-                </c:pt>
-                <c:pt idx="50" formatCode="General">
-                  <c:v>1.1184700000000001E-2</c:v>
+                  <c:v>8.0000000000524096E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.3199999999995455E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.4499999999993989E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.1000000000042149E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5700000000000713E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.1000000000018844E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7000000000066962E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0300000000000864E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0500000000002174E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.1699999999995612E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4.9099999999997479E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4.2999999999997485E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3.0799999999997496E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1000000000001009E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.4899999999995472E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.460000000000683E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1200000000002319E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.0299999999998661E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-3.0399999999994876E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.4700000000006384E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.9600000000001856E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.4599999999997948E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.9000000000071253E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.1499999999999844E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.4000000000045105E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.4400000000006656E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-6.6399999999999793E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.180000000000625E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.5199999999996336E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-7.5899999999995416E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.3100000000000378E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-7.0199999999998042E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.7399999999998528E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2800000000003919E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2724,202 +2960,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FAD8-EB46-A3F3-8FE9F4FE2217}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Arkusz1!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SY</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Arkusz1!$K$2:$K$60</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="59"/>
-                <c:pt idx="0">
-                  <c:v>1.1920900000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.76837E-7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.3841900000000001E-6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.8610199999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-5.7220499999999997E-6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2.8610199999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-8.5830700000000005E-6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.6212500000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-7.6293900000000003E-6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2.2888199999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-3.6239599999999998E-5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-7.4386600000000004E-5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-1.90735E-6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-1.1444099999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2.8610199999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-3.0517600000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-3.4332300000000003E-5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-6.8664600000000007E-5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-8.0108600000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-8.3923299999999997E-5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-8.0108600000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-7.6293900000000005E-5</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>-1.6403199999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="General">
-                  <c:v>-1.4495799999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>-1.37329E-4</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="General">
-                  <c:v>-1.2970000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="General">
-                  <c:v>-1.2588500000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="General">
-                  <c:v>-1.33514E-4</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="General">
-                  <c:v>-1.2207E-4</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="General">
-                  <c:v>-1.33514E-4</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="General">
-                  <c:v>-2.02179E-4</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="General">
-                  <c:v>-2.2125199999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="General">
-                  <c:v>-2.2888199999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="General">
-                  <c:v>-3.4332299999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="General">
-                  <c:v>-3.2806399999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="General">
-                  <c:v>-3.3569300000000003E-4</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="General">
-                  <c:v>-3.0517599999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="General">
-                  <c:v>-3.0517599999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="General">
-                  <c:v>-3.1280499999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="General">
-                  <c:v>-3.0517599999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="General">
-                  <c:v>-3.1280499999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="41" formatCode="General">
-                  <c:v>-3.1280499999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="General">
-                  <c:v>-3.0517599999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="General">
-                  <c:v>-2.89917E-4</c:v>
-                </c:pt>
-                <c:pt idx="44" formatCode="General">
-                  <c:v>-2.89917E-4</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="General">
-                  <c:v>-2.74658E-4</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="General">
-                  <c:v>-2.6702900000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="47" formatCode="General">
-                  <c:v>-2.74658E-4</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="General">
-                  <c:v>-2.74658E-4</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="General">
-                  <c:v>-2.74658E-4</c:v>
-                </c:pt>
-                <c:pt idx="50" formatCode="General">
-                  <c:v>-2.8228800000000001E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FAD8-EB46-A3F3-8FE9F4FE2217}"/>
+              <c16:uniqueId val="{00000000-71DC-2F48-B1B5-8E33E9D9B9E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2932,11 +2973,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="186426927"/>
-        <c:axId val="186428655"/>
+        <c:axId val="674051503"/>
+        <c:axId val="471349328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="186426927"/>
+        <c:axId val="674051503"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2979,7 +3020,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186428655"/>
+        <c:crossAx val="471349328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2987,7 +3028,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186428655"/>
+        <c:axId val="471349328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3007,7 +3048,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3038,7 +3079,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186426927"/>
+        <c:crossAx val="674051503"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3050,37 +3091,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3521,7 +3531,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1371-3949-9038-FE2820B48AD3}"/>
+              <c16:uniqueId val="{00000000-E11A-874F-9ACC-CD805D7A1E7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3878,7 +3888,364 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1371-3949-9038-FE2820B48AD3}"/>
+              <c16:uniqueId val="{00000001-E11A-874F-9ACC-CD805D7A1E7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$S$2:$S$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7988</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9984</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11980</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13976</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15972</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17968</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19964</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21960</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23956</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25952</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27948</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29944</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31940</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33936</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35932</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37928</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39924</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41920</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45912</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>47908</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>49904</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>51900</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>53896</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>55892</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>57888</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>59884</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>61880</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>63876</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>65872</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>67868</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>69864</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>71860</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>73856</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>75852</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>77848</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>79844</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>81840</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>83836</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>85832</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>87828</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>89824</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>91820</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>93816</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>95812</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>97808</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>99804</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$V$2:$V$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E11A-874F-9ACC-CD805D7A1E7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3891,11 +4258,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="163359839"/>
-        <c:axId val="163257839"/>
+        <c:axId val="1870367696"/>
+        <c:axId val="1870490832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163359839"/>
+        <c:axId val="1870367696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3938,7 +4305,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163257839"/>
+        <c:crossAx val="1870490832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3946,9 +4313,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163257839"/>
+        <c:axId val="1870490832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="3.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3997,9 +4365,10 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163359839"/>
+        <c:crossAx val="1870367696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.01"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4278,7 +4647,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4305,8 +4674,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4386,11 +4755,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4401,11 +4765,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4417,7 +4776,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4437,9 +4796,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4452,10 +4808,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4495,22 +4851,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4615,8 +4972,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4748,19 +5105,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4774,6 +5132,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4794,7 +5163,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4821,8 +5190,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4902,6 +5271,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4912,6 +5286,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4923,7 +5302,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4943,6 +5322,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4955,10 +5337,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4998,23 +5380,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5119,8 +5500,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5252,20 +5633,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5279,17 +5659,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6861,23 +7230,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>14357</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>55217</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>819547</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>27384</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>65157</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>156817</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53579</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>190896</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Wykres 1">
+        <xdr:cNvPr id="3" name="Wykres 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{643351B7-E168-3700-8FAB-2E1B1C03BD5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{255BF375-2752-6F6B-D6AE-D41ED3BC446C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6897,23 +7266,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>819547</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>27384</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5952</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>7540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>53579</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>190896</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>410765</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>171052</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Wykres 2">
+        <xdr:cNvPr id="4" name="Wykres 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{255BF375-2752-6F6B-D6AE-D41ED3BC446C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF65BB5F-2751-B444-8751-4F6A7CD56A41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6933,23 +7302,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>5952</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>7540</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>779860</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>126603</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>410765</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>171052</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>13892</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>91678</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Wykres 3">
+        <xdr:cNvPr id="5" name="Wykres 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF65BB5F-2751-B444-8751-4F6A7CD56A41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97B670A5-ADDC-2512-D640-7B1D2B8346EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6969,23 +7338,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>779860</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>126603</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>13892</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>91678</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619760</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>116840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Wykres 4">
+        <xdr:cNvPr id="7" name="Wykres 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97B670A5-ADDC-2512-D640-7B1D2B8346EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D921D90E-E1E9-D486-99B7-F0E4A9748D3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7006,22 +7375,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>5953</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186134</xdr:rowOff>
+      <xdr:colOff>814641</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>410765</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>409714</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>151209</xdr:rowOff>
+      <xdr:rowOff>110988</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Wykres 5">
+        <xdr:cNvPr id="9" name="Wykres 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{734F1C2C-1618-455B-8AAF-9B9A4F7F1903}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68A73B99-D499-C550-D2A6-29A834AA7360}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7043,23 +7412,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_4" connectionId="7" xr16:uid="{8B2ADFA5-5EA0-FF43-AB0B-0863C1D612F7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="pkt_konc" connectionId="2" xr16:uid="{CAA4F7F9-5C8B-F347-BA87-D5B657132048}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_3" connectionId="6" xr16:uid="{DA59792E-8EE7-824C-8032-13B401A10CE5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_2" connectionId="5" xr16:uid="{E83F0B21-BF21-2B4B-BE95-329F74AB2E36}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_2" connectionId="5" xr16:uid="{E83F0B21-BF21-2B4B-BE95-329F74AB2E36}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_1" connectionId="4" xr16:uid="{717306AC-2797-B54C-A69F-D4681AF5D7B6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_1" connectionId="4" xr16:uid="{717306AC-2797-B54C-A69F-D4681AF5D7B6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test" connectionId="3" xr16:uid="{8B62D681-966C-5549-8945-8D5D805837D4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test" connectionId="3" xr16:uid="{8B62D681-966C-5549-8945-8D5D805837D4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_4" connectionId="7" xr16:uid="{8B2ADFA5-5EA0-FF43-AB0B-0863C1D612F7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7067,7 +7436,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="pkt_konc" connectionId="2" xr16:uid="{CAA4F7F9-5C8B-F347-BA87-D5B657132048}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_3" connectionId="6" xr16:uid="{DA59792E-8EE7-824C-8032-13B401A10CE5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7387,10 +7756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6287C271-BA6E-5246-853E-184B17EA6509}">
-  <dimension ref="A1:AG60"/>
+  <dimension ref="A1:AE87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V1" sqref="T1:V1048576"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7414,16 +7783,17 @@
     <col min="17" max="17" width="10.83203125" customWidth="1"/>
     <col min="20" max="20" width="14.6640625" customWidth="1"/>
     <col min="21" max="21" width="11.6640625" customWidth="1"/>
+    <col min="22" max="22" width="11.83203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D1" t="s">
@@ -7450,7 +7820,7 @@
       <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="N1" t="s">
@@ -7474,3231 +7844,3567 @@
       <c r="U1" t="s">
         <v>10</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>4.2426399999999997</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>1.1920900000000001E-7</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>-1.78814E-7</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <v>1.1920900000000001E-7</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <f>C2/2</f>
         <v>2.1213199999999999</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <f>B2-C2</f>
         <v>2.0405500000000005</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="3">
         <v>-2.3841900000000001E-7</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="3">
         <v>1.1920900000000001E-7</v>
       </c>
-      <c r="M2">
+      <c r="L2" s="3"/>
+      <c r="M2" s="5">
         <v>4</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>3</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>3</v>
       </c>
-      <c r="S2">
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="5">
         <v>4</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="3">
         <v>2.1213199999999999</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="3">
         <v>3</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W2" s="3">
         <f>T2-U2</f>
         <v>-0.87868000000000013</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>2000</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>6.2799100000000001</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>0.99997100000000005</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>-9.9418699999999995E-8</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>-2.89827E-5</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>-9.9418699999999995E-8</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <f t="shared" ref="H3:H52" si="0">C3/2</f>
         <v>3.1399550000000001</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <f t="shared" ref="I3:I52" si="1">B3-C3</f>
         <v>3.2800000000001717E-3</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="3">
         <v>-2.64645E-5</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="3">
         <v>4.76837E-7</v>
       </c>
-      <c r="M3">
+      <c r="L3" s="3"/>
+      <c r="M3" s="5">
         <v>2000</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>1577</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <v>3.1539999999999999</v>
       </c>
-      <c r="S3">
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="5">
         <v>2000</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="3">
         <v>3.1399550000000001</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="3">
         <v>3.1539999999999999</v>
       </c>
-      <c r="V3">
-        <f t="shared" ref="V3:V52" si="2">T3-U3</f>
+      <c r="V3" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W3" s="3">
+        <f>T3-U3</f>
         <v>-1.4044999999999863E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>3996</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>6.2812700000000001</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>0.99992499999999995</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>-3.1833800000000002E-6</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>-7.69436E-5</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>-3.1833800000000002E-6</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <f t="shared" si="0"/>
         <v>3.1406350000000001</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <f t="shared" si="1"/>
         <v>1.9200000000001438E-3</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>-1.0347400000000001E-4</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="3">
         <v>2.3841900000000001E-6</v>
       </c>
-      <c r="M4">
+      <c r="L4" s="3"/>
+      <c r="M4" s="5">
         <v>3996</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>3128</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
         <v>3.1311300000000002</v>
       </c>
-      <c r="S4">
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="5">
         <v>3996</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="3">
         <v>3.1406350000000001</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="3">
         <v>3.1311300000000002</v>
       </c>
-      <c r="V4">
-        <f t="shared" si="2"/>
+      <c r="V4" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W4" s="3">
+        <f>T4-U4</f>
         <v>9.5049999999998747E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>5992</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>6.2819700000000003</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>0.99998799999999999</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>-1.74763E-6</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>-1.40968E-5</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <v>-1.74763E-6</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <f t="shared" si="0"/>
         <v>3.1409850000000001</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <f t="shared" si="1"/>
         <v>1.2199999999999989E-3</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="3">
         <v>-1.15395E-4</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="3">
         <v>2.8610199999999999E-6</v>
       </c>
-      <c r="M5">
+      <c r="L5" s="3"/>
+      <c r="M5" s="5">
         <v>5992</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>4685</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="3">
         <v>3.1274999999999999</v>
       </c>
-      <c r="S5">
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="5">
         <v>5992</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="3">
         <v>3.1409850000000001</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="3">
         <v>3.1274999999999999</v>
       </c>
-      <c r="V5">
-        <f t="shared" si="2"/>
+      <c r="V5" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W5" s="3">
+        <f>T5-U5</f>
         <v>1.3485000000000191E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>7988</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>6.28287</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>1.0000500000000001</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>5.4627900000000002E-7</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>4.6815499999999999E-5</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>5.4627900000000002E-7</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <f t="shared" si="0"/>
         <v>3.141435</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <f t="shared" si="1"/>
         <v>3.2000000000032003E-4</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="3">
         <v>-7.82013E-5</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="3">
         <v>-5.7220499999999997E-6</v>
       </c>
-      <c r="M6">
+      <c r="L6" s="3"/>
+      <c r="M6" s="5">
         <v>7988</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>6230</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="3">
         <v>3.1196799999999998</v>
       </c>
-      <c r="S6">
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="5">
         <v>7988</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="3">
         <v>3.141435</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="3">
         <v>3.1196799999999998</v>
       </c>
-      <c r="V6">
-        <f t="shared" si="2"/>
+      <c r="V6" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W6" s="3">
+        <f>T6-U6</f>
         <v>2.1755000000000191E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>9984</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>1.0000199999999999</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>-2.4883799999999999E-7</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>2.18069E-5</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <v>-2.4883799999999999E-7</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <f t="shared" si="0"/>
         <v>3.1415950000000001</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="3">
         <v>-5.1498400000000001E-5</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="3">
         <v>-2.8610199999999999E-6</v>
       </c>
-      <c r="M7">
+      <c r="L7" s="3"/>
+      <c r="M7" s="5">
         <v>9984</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="3">
         <v>7830</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="3">
         <v>3.1370200000000001</v>
       </c>
-      <c r="S7">
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="5">
         <v>9984</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="3">
         <v>3.1415950000000001</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="3">
         <v>3.1370200000000001</v>
       </c>
-      <c r="V7">
-        <f t="shared" si="2"/>
+      <c r="V7" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W7" s="3">
+        <f>T7-U7</f>
         <v>4.5749999999999957E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>11980</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>6.2831400000000004</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>1.0002200000000001</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <v>1.59029E-6</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3">
         <v>2.29755E-4</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="3">
         <v>1.59029E-6</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>3.1415700000000002</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <f>B8-C8</f>
         <v>4.9999999999883471E-5</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="3">
         <v>1.7642999999999999E-4</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="3">
         <v>-8.5830700000000005E-6</v>
       </c>
-      <c r="M8">
+      <c r="L8" s="3"/>
+      <c r="M8" s="5">
         <v>11980</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <v>9310</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="3">
         <v>3.1085099999999999</v>
       </c>
-      <c r="S8">
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="5">
         <v>11980</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="3">
         <v>3.1415700000000002</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="3">
         <v>3.1085099999999999</v>
       </c>
-      <c r="V8">
-        <f t="shared" si="2"/>
+      <c r="V8" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W8" s="3">
+        <f>T8-U8</f>
         <v>3.3060000000000311E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>13976</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>6.2821600000000002</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>0.99965000000000004</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="3">
         <v>-2.0576999999999998E-6</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="3">
         <v>-3.5300499999999999E-4</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="3">
         <v>-2.0576999999999998E-6</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <f t="shared" si="0"/>
         <v>3.1410800000000001</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <f t="shared" si="1"/>
         <v>1.0300000000000864E-3</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="3">
         <v>-1.6784699999999999E-4</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="3">
         <v>-1.6212500000000001E-5</v>
       </c>
-      <c r="M9">
+      <c r="L9" s="3"/>
+      <c r="M9" s="5">
         <v>13976</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <v>10961</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="3">
         <v>3.1370900000000002</v>
       </c>
-      <c r="S9">
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="5">
         <v>13976</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="3">
         <v>3.1410800000000001</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="3">
         <v>3.1370900000000002</v>
       </c>
-      <c r="V9">
-        <f t="shared" si="2"/>
+      <c r="V9" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W9" s="3">
+        <f>T9-U9</f>
         <v>3.989999999999938E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>15972</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>6.2828400000000002</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>0.99990699999999999</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="3">
         <v>7.6799199999999999E-7</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="3">
         <v>-9.26924E-5</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="3">
         <v>7.6799199999999999E-7</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <f t="shared" si="0"/>
         <v>3.1414200000000001</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <f t="shared" si="1"/>
         <v>3.5000000000007248E-4</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="3">
         <v>-2.4795500000000001E-4</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="3">
         <v>-7.6293900000000003E-6</v>
       </c>
-      <c r="M10">
+      <c r="L10" s="3"/>
+      <c r="M10" s="5">
         <v>15972</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>12477</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="3">
         <v>3.1247199999999999</v>
       </c>
-      <c r="S10">
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="5">
         <v>15972</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="3">
         <v>3.1414200000000001</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="3">
         <v>3.1247199999999999</v>
       </c>
-      <c r="V10">
-        <f t="shared" si="2"/>
+      <c r="V10" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W10" s="3">
+        <f>T10-U10</f>
         <v>1.6700000000000159E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>17968</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>6.2806100000000002</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>0.99949399999999999</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <v>4.6857199999999998E-9</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="3">
         <v>-5.0276599999999998E-4</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="3">
         <v>4.6857199999999998E-9</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <f t="shared" si="0"/>
         <v>3.1403050000000001</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <f t="shared" si="1"/>
         <v>2.5800000000000267E-3</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="3">
         <v>-6.9999700000000005E-4</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="3">
         <v>-2.2888199999999999E-5</v>
       </c>
-      <c r="M11">
+      <c r="L11" s="3"/>
+      <c r="M11" s="5">
         <v>17968</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="3">
         <v>14089</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="3">
         <v>3.13646</v>
       </c>
-      <c r="S11">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="5">
         <v>17968</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="3">
         <v>3.1403050000000001</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="3">
         <v>3.13646</v>
       </c>
-      <c r="V11">
-        <f t="shared" si="2"/>
+      <c r="V11" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W11" s="3">
+        <f>T11-U11</f>
         <v>3.8450000000000983E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>19964</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>6.2809699999999999</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>0.99912699999999999</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="3">
         <v>-4.8872899999999999E-6</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="3">
         <v>-8.6971200000000002E-4</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="3">
         <v>-4.8872899999999999E-6</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <f t="shared" si="0"/>
         <v>3.140485</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <f t="shared" si="1"/>
         <v>2.2200000000003328E-3</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="3">
         <v>-1.52206E-3</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="3">
         <v>-3.6239599999999998E-5</v>
       </c>
-      <c r="M12">
+      <c r="L12" s="3"/>
+      <c r="M12" s="5">
         <v>19964</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="3">
         <v>15683</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="3">
         <v>3.1422599999999998</v>
       </c>
-      <c r="S12">
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="5">
         <v>19964</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="3">
         <v>3.140485</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="3">
         <v>3.1422599999999998</v>
       </c>
-      <c r="V12">
-        <f t="shared" si="2"/>
+      <c r="V12" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W12" s="3">
+        <f>T12-U12</f>
         <v>-1.77499999999986E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
         <v>21960</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>6.2785500000000001</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>0.99881200000000003</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <v>1.3217800000000001E-6</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="3">
         <v>-1.1841600000000001E-3</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="3">
         <v>1.3217800000000001E-6</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <f t="shared" si="0"/>
         <v>3.139275</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <f t="shared" si="1"/>
         <v>4.6400000000001995E-3</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="3">
         <v>-2.6779199999999999E-3</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="3">
         <v>-7.4386600000000004E-5</v>
       </c>
-      <c r="M13">
+      <c r="L13" s="3"/>
+      <c r="M13" s="5">
         <v>21960</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="3">
         <v>17332</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="3">
         <v>3.1570100000000001</v>
       </c>
-      <c r="S13">
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="5">
         <v>21960</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="3">
         <v>3.139275</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="3">
         <v>3.1570100000000001</v>
       </c>
-      <c r="V13">
-        <f t="shared" si="2"/>
+      <c r="V13" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W13" s="3">
+        <f>T13-U13</f>
         <v>-1.7735000000000056E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>23956</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>6.27766</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>0.99863100000000005</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="3">
         <v>-7.8585600000000002E-6</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="3">
         <v>-1.36936E-3</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="3">
         <v>-7.8585600000000002E-6</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <f t="shared" si="0"/>
         <v>3.13883</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <f t="shared" si="1"/>
         <v>5.5300000000002569E-3</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="3">
         <v>-3.96919E-3</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="3">
         <v>-1.90735E-6</v>
       </c>
-      <c r="M14">
+      <c r="L14" s="3"/>
+      <c r="M14" s="5">
         <v>23956</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="3">
         <v>18774</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="3">
         <v>3.1347499999999999</v>
       </c>
-      <c r="S14">
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="5">
         <v>23956</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="3">
         <v>3.13883</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="3">
         <v>3.1347499999999999</v>
       </c>
-      <c r="V14">
-        <f t="shared" si="2"/>
+      <c r="V14" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W14" s="3">
+        <f>T14-U14</f>
         <v>4.0800000000000836E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
         <v>25952</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>6.2852100000000002</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>1.0007600000000001</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="3">
         <v>2.96606E-6</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="3">
         <v>7.6183700000000002E-4</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="3">
         <v>2.96606E-6</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <f t="shared" si="0"/>
         <v>3.1426050000000001</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <f t="shared" si="1"/>
         <v>-2.0199999999999108E-3</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="3">
         <v>-3.2310500000000001E-3</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="3">
         <v>-1.1444099999999999E-5</v>
       </c>
-      <c r="M15">
+      <c r="L15" s="3"/>
+      <c r="M15" s="5">
         <v>25952</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="3">
         <v>20288</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="3">
         <v>3.1269999999999998</v>
       </c>
-      <c r="S15">
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="5">
         <v>25952</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="3">
         <v>3.1426050000000001</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="3">
         <v>3.1269999999999998</v>
       </c>
-      <c r="V15">
-        <f t="shared" si="2"/>
+      <c r="V15" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W15" s="3">
+        <f>T15-U15</f>
         <v>1.5605000000000313E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
         <v>27948</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>6.2857000000000003</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>1.00071</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="3">
         <v>-1.34704E-6</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="3">
         <v>7.1210999999999996E-4</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="3">
         <v>-1.34704E-6</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <f t="shared" si="0"/>
         <v>3.1428500000000001</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <f t="shared" si="1"/>
         <v>-2.5100000000000122E-3</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="3">
         <v>-2.54631E-3</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="3">
         <v>-2.8610199999999999E-5</v>
       </c>
-      <c r="M16">
+      <c r="L16" s="3"/>
+      <c r="M16" s="5">
         <v>27948</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="3">
         <v>21817</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="3">
         <v>3.1225100000000001</v>
       </c>
-      <c r="S16">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="5">
         <v>27948</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="3">
         <v>3.1428500000000001</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="3">
         <v>3.1225100000000001</v>
       </c>
-      <c r="V16">
-        <f t="shared" si="2"/>
+      <c r="V16" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W16" s="3">
+        <f>T16-U16</f>
         <v>2.0340000000000025E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
         <v>29944</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>6.2826899999999997</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>1.00065</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="3">
         <v>1.9795E-7</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="3">
         <v>6.6070099999999997E-4</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="3">
         <v>1.9795E-7</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <f t="shared" si="0"/>
         <v>3.1413449999999998</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <f t="shared" si="1"/>
         <v>5.0000000000061107E-4</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="3">
         <v>-1.9035300000000001E-3</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="3">
         <v>-3.0517600000000001E-5</v>
       </c>
-      <c r="M17">
+      <c r="L17" s="3"/>
+      <c r="M17" s="5">
         <v>29944</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="3">
         <v>23434</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="3">
         <v>3.1303800000000002</v>
       </c>
-      <c r="S17">
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="5">
         <v>29944</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="3">
         <v>3.1413449999999998</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="3">
         <v>3.1303800000000002</v>
       </c>
-      <c r="V17">
-        <f t="shared" si="2"/>
+      <c r="V17" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W17" s="3">
+        <f>T17-U17</f>
         <v>1.0964999999999669E-2</v>
       </c>
+      <c r="Y17" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
         <v>31940</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>6.28531</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>1.0006200000000001</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="3">
         <v>7.6021700000000003E-6</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="3">
         <v>6.2263900000000003E-4</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="3">
         <v>7.6021700000000003E-6</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="3">
         <f t="shared" si="0"/>
         <v>3.142655</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <f t="shared" si="1"/>
         <v>-2.1199999999996777E-3</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="3">
         <v>-1.12915E-3</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="3">
         <v>-3.4332300000000003E-5</v>
       </c>
-      <c r="M18">
+      <c r="L18" s="3"/>
+      <c r="M18" s="5">
         <v>31940</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="3">
         <v>25144</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="3">
         <v>3.1488999999999998</v>
       </c>
-      <c r="S18">
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="5">
         <v>31940</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="3">
         <v>3.142655</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="3">
         <v>3.1488999999999998</v>
       </c>
-      <c r="V18">
-        <f t="shared" si="2"/>
+      <c r="V18" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W18" s="3">
+        <f>T18-U18</f>
         <v>-6.244999999999834E-3</v>
       </c>
+      <c r="Y18" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
         <v>33936</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>6.2831099999999998</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>1.00058</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="3">
         <v>-2.2929000000000001E-6</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>5.8675600000000002E-4</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="3">
         <v>-2.2929000000000001E-6</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <f t="shared" si="0"/>
         <v>3.1415549999999999</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <f t="shared" si="1"/>
         <v>8.0000000000524096E-5</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <v>-3.7765500000000002E-4</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="3">
         <v>-6.8664600000000007E-5</v>
       </c>
-      <c r="M19">
+      <c r="L19" s="3"/>
+      <c r="M19" s="5">
         <v>33936</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="3">
         <v>26725</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="3">
         <v>3.1500499999999998</v>
       </c>
-      <c r="S19">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="5">
         <v>33936</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="3">
         <v>3.1415549999999999</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="3">
         <v>3.1500499999999998</v>
       </c>
-      <c r="V19">
-        <f t="shared" si="2"/>
+      <c r="V19" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W19" s="3">
+        <f>T19-U19</f>
         <v>-8.4949999999999193E-3</v>
       </c>
-      <c r="AE19" s="2"/>
+      <c r="AE19" s="1"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
         <v>35932</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>6.2865099999999998</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>1.0005500000000001</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="3">
         <v>-2.69308E-6</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>5.4021400000000002E-4</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="3">
         <v>-2.69308E-6</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <f t="shared" si="0"/>
         <v>3.1432549999999999</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <f t="shared" si="1"/>
         <v>-3.3199999999995455E-3</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <v>1.7547600000000001E-4</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="3">
         <v>-8.0108600000000001E-5</v>
       </c>
-      <c r="M20">
+      <c r="L20" s="3"/>
+      <c r="M20" s="5">
         <v>35932</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="3">
         <v>28183</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="3">
         <v>3.1373700000000002</v>
       </c>
-      <c r="S20">
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="5">
         <v>35932</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="3">
         <v>3.1432549999999999</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="3">
         <v>3.1373700000000002</v>
       </c>
-      <c r="V20">
-        <f t="shared" si="2"/>
+      <c r="V20" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W20" s="3">
+        <f>T20-U20</f>
         <v>5.884999999999696E-3</v>
       </c>
-      <c r="Z20" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE20" s="2"/>
-      <c r="AG20" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
         <v>37928</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>6.2876399999999997</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>1.0005200000000001</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="3">
         <v>1.3872299999999999E-7</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>5.1409399999999999E-4</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="3">
         <v>1.3872299999999999E-7</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <f t="shared" si="0"/>
         <v>3.1438199999999998</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <f t="shared" si="1"/>
         <v>-4.4499999999993989E-3</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="3">
         <v>6.2560999999999997E-4</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="3">
         <v>-8.3923299999999997E-5</v>
       </c>
-      <c r="M21">
+      <c r="L21" s="3"/>
+      <c r="M21" s="5">
         <v>37928</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="3">
         <v>29724</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="3">
         <v>3.1347800000000001</v>
       </c>
-      <c r="S21">
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="5">
         <v>37928</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="3">
         <v>3.1438199999999998</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="3">
         <v>3.1347800000000001</v>
       </c>
-      <c r="V21">
-        <f t="shared" si="2"/>
+      <c r="V21" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W21" s="3">
+        <f>T21-U21</f>
         <v>9.0399999999997149E-3</v>
       </c>
-      <c r="Z21" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE21" s="2"/>
-      <c r="AG21" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
         <v>39924</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>6.2823799999999999</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>1.0004999999999999</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="3">
         <v>-1.6773E-6</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>5.0215199999999996E-4</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="3">
         <v>-1.6773E-6</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <f t="shared" si="0"/>
         <v>3.1411899999999999</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <f t="shared" si="1"/>
         <v>8.1000000000042149E-4</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="3">
         <v>1.0528600000000001E-3</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="3">
         <v>-8.0108600000000001E-5</v>
       </c>
-      <c r="M22">
+      <c r="L22" s="3"/>
+      <c r="M22" s="5">
         <v>39924</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="3">
         <v>31384</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="3">
         <v>3.1443699999999999</v>
       </c>
-      <c r="S22">
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="5">
         <v>39924</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="3">
         <v>3.1411899999999999</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="3">
         <v>3.1443699999999999</v>
       </c>
-      <c r="V22">
-        <f t="shared" si="2"/>
+      <c r="V22" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W22" s="3">
+        <f>T22-U22</f>
         <v>-3.1799999999999606E-3</v>
       </c>
-      <c r="AE22" s="2"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
         <v>41920</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>6.2816200000000002</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>1.00047</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="3">
         <v>-3.61231E-6</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>4.7470699999999999E-4</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="3">
         <v>-3.61231E-6</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="3">
         <f t="shared" si="0"/>
         <v>3.1408100000000001</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="3">
         <f t="shared" si="1"/>
         <v>1.5700000000000713E-3</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="3">
         <v>1.4457700000000001E-3</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="3">
         <v>-7.6293900000000005E-5</v>
       </c>
-      <c r="M23">
+      <c r="L23" s="3"/>
+      <c r="M23" s="5">
         <v>41920</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="3">
         <v>32841</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="3">
         <v>3.13368</v>
       </c>
-      <c r="S23">
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="5">
         <v>41920</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="3">
         <v>3.1408100000000001</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="3">
         <v>3.13368</v>
       </c>
-      <c r="V23">
-        <f t="shared" si="2"/>
+      <c r="V23" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W23" s="3">
+        <f>T23-U23</f>
         <v>7.1300000000000807E-3</v>
       </c>
-      <c r="AE23" s="2"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
         <v>43916</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>6.2822800000000001</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>1.0004500000000001</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="3">
         <v>1.30059E-6</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>4.52111E-4</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="3">
         <v>1.30059E-6</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="3">
         <f t="shared" si="0"/>
         <v>3.14114</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="3">
         <f t="shared" si="1"/>
         <v>9.1000000000018844E-4</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="3">
         <v>2.2697400000000001E-3</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="3">
         <v>-1.6403199999999999E-4</v>
       </c>
-      <c r="M24">
+      <c r="L24" s="3"/>
+      <c r="M24" s="5">
         <v>43916</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="3">
         <v>34543</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="3">
         <v>3.14628</v>
       </c>
-      <c r="S24">
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="5">
         <v>43916</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="3">
         <v>3.14114</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="3">
         <v>3.14628</v>
       </c>
-      <c r="V24">
-        <f t="shared" si="2"/>
+      <c r="V24" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W24" s="3">
+        <f>T24-U24</f>
         <v>-5.1399999999999224E-3</v>
       </c>
-      <c r="AE24" s="2"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <v>45912</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>6.2830199999999996</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>1.0004299999999999</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="3">
         <v>-2.8753100000000001E-6</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>4.2474500000000003E-4</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="3">
         <v>-2.8753100000000001E-6</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <f t="shared" si="0"/>
         <v>3.1415099999999998</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="3">
         <f t="shared" si="1"/>
         <v>1.7000000000066962E-4</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="3">
         <v>2.6817299999999998E-3</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="3">
         <v>-1.4495799999999999E-4</v>
       </c>
-      <c r="M25" s="1">
+      <c r="L25" s="3"/>
+      <c r="M25" s="5">
         <v>45912</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N25" s="3">
         <v>36061</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="3">
         <v>3.14175</v>
       </c>
-      <c r="S25">
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="5">
         <v>45912</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="3">
         <v>3.1415099999999998</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="3">
         <v>3.14175</v>
       </c>
-      <c r="V25">
-        <f t="shared" si="2"/>
+      <c r="V25" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W25" s="3">
+        <f>T25-U25</f>
         <v>-2.4000000000024002E-4</v>
       </c>
-      <c r="AE25" s="2"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
         <v>47908</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>6.2821600000000002</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>1.00041</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="3">
         <v>-2.1577600000000001E-6</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>4.1385400000000001E-4</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="3">
         <v>-2.1577600000000001E-6</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <f t="shared" si="0"/>
         <v>3.1410800000000001</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="3">
         <f t="shared" si="1"/>
         <v>1.0300000000000864E-3</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="3">
         <v>3.0136099999999999E-3</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="3">
         <v>-1.37329E-4</v>
       </c>
-      <c r="M26" s="1">
+      <c r="L26" s="3"/>
+      <c r="M26" s="5">
         <v>47908</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N26" s="3">
         <v>37621</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="3">
         <v>3.1410999999999998</v>
       </c>
-      <c r="S26">
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="5">
         <v>47908</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="3">
         <v>3.1410800000000001</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="3">
         <v>3.1410999999999998</v>
       </c>
-      <c r="V26">
-        <f t="shared" si="2"/>
+      <c r="V26" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W26" s="3">
+        <f>T26-U26</f>
         <v>-1.9999999999686935E-5</v>
       </c>
-      <c r="AE26" s="2"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
         <v>49904</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>6.2821400000000001</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>1.0004</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="3">
         <v>1.8626500000000001E-7</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>3.9437499999999998E-4</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="3">
         <v>1.8626500000000001E-7</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="3">
         <f t="shared" si="0"/>
         <v>3.14107</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="3">
         <f t="shared" si="1"/>
         <v>1.0500000000002174E-3</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="3">
         <v>3.3836399999999998E-3</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="3">
         <v>-1.2970000000000001E-4</v>
       </c>
-      <c r="M27" s="1">
+      <c r="L27" s="3"/>
+      <c r="M27" s="5">
         <v>49904</v>
       </c>
-      <c r="N27" s="1">
+      <c r="N27" s="3">
         <v>39122</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="3">
         <v>3.13578</v>
       </c>
-      <c r="S27">
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="5">
         <v>49904</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="3">
         <v>3.14107</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="3">
         <v>3.13578</v>
       </c>
-      <c r="V27">
-        <f t="shared" si="2"/>
+      <c r="V27" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W27" s="3">
+        <f>T27-U27</f>
         <v>5.2900000000000169E-3</v>
       </c>
-      <c r="AE27" s="2"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
         <v>51900</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>6.2853599999999998</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>1.00038</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="3">
         <v>1.6412400000000001E-6</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>3.8168300000000001E-4</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="3">
         <v>1.6412400000000001E-6</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="3">
         <f t="shared" si="0"/>
         <v>3.1426799999999999</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="3">
         <f t="shared" si="1"/>
         <v>-2.1699999999995612E-3</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="3">
         <v>3.7536599999999998E-3</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="3">
         <v>-1.2588500000000001E-4</v>
       </c>
-      <c r="M28" s="1">
+      <c r="L28" s="3"/>
+      <c r="M28" s="5">
         <v>51900</v>
       </c>
-      <c r="N28" s="1">
+      <c r="N28" s="3">
         <v>40841</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="3">
         <v>3.1476700000000002</v>
       </c>
-      <c r="S28">
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="5">
         <v>51900</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="3">
         <v>3.1426799999999999</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="3">
         <v>3.1476700000000002</v>
       </c>
-      <c r="V28">
-        <f t="shared" si="2"/>
+      <c r="V28" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W28" s="3">
+        <f>T28-U28</f>
         <v>-4.990000000000272E-3</v>
       </c>
-      <c r="AE28" s="2"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
         <v>53896</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>6.2881</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>1.00037</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="3">
         <v>8.2925499999999997E-7</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>3.5952500000000002E-4</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="3">
         <v>8.2925499999999997E-7</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="3">
         <f t="shared" si="0"/>
         <v>3.14405</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="3">
         <f t="shared" si="1"/>
         <v>-4.9099999999997479E-3</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="3">
         <v>4.2381299999999997E-3</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="3">
         <v>-1.33514E-4</v>
       </c>
-      <c r="M29" s="1">
+      <c r="L29" s="3"/>
+      <c r="M29" s="5">
         <v>53896</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N29" s="3">
         <v>42483</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="3">
         <v>3.1529600000000002</v>
       </c>
-      <c r="S29">
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="5">
         <v>53896</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="3">
         <v>3.14405</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="3">
         <v>3.1529600000000002</v>
       </c>
-      <c r="V29">
-        <f t="shared" si="2"/>
+      <c r="V29" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W29" s="3">
+        <f>T29-U29</f>
         <v>-8.9100000000001955E-3</v>
       </c>
-      <c r="AE29" s="2"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
         <v>55892</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>6.28749</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>1.0003500000000001</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="3">
         <v>2.2538599999999999E-6</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>3.4879300000000002E-4</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="3">
         <v>2.2538599999999999E-6</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="3">
         <f t="shared" si="0"/>
         <v>3.143745</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="3">
         <f t="shared" si="1"/>
         <v>-4.2999999999997485E-3</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="3">
         <v>4.5280499999999996E-3</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="3">
         <v>-1.2207E-4</v>
       </c>
-      <c r="M30" s="1">
+      <c r="L30" s="3"/>
+      <c r="M30" s="5">
         <v>55892</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N30" s="3">
         <v>43856</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="3">
         <v>3.13862</v>
       </c>
-      <c r="S30">
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="5">
         <v>55892</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="3">
         <v>3.143745</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="3">
         <v>3.13862</v>
       </c>
-      <c r="V30">
-        <f t="shared" si="2"/>
+      <c r="V30" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W30" s="3">
+        <f>T30-U30</f>
         <v>5.1250000000000462E-3</v>
       </c>
-      <c r="AE30" s="2"/>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
         <v>57888</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>6.28627</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>1.00034</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="3">
         <v>2.7855299999999998E-6</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>3.4409399999999998E-4</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="3">
         <v>2.7855299999999998E-6</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="3">
         <f t="shared" si="0"/>
         <v>3.143135</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="3">
         <f t="shared" si="1"/>
         <v>-3.0799999999997496E-3</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="3">
         <v>4.8255900000000003E-3</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="3">
         <v>-1.33514E-4</v>
       </c>
-      <c r="M31" s="1">
+      <c r="L31" s="3"/>
+      <c r="M31" s="5">
         <v>57888</v>
       </c>
-      <c r="N31" s="1">
+      <c r="N31" s="3">
         <v>45680</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="3">
         <v>3.1564399999999999</v>
       </c>
-      <c r="S31">
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="5">
         <v>57888</v>
       </c>
-      <c r="T31">
+      <c r="T31" s="3">
         <v>3.143135</v>
       </c>
-      <c r="U31">
+      <c r="U31" s="3">
         <v>3.1564399999999999</v>
       </c>
-      <c r="V31">
-        <f t="shared" si="2"/>
+      <c r="V31" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W31" s="3">
+        <f>T31-U31</f>
         <v>-1.33049999999999E-2</v>
       </c>
-      <c r="AE31" s="2"/>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
         <v>59884</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>6.2820900000000002</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>1.0003299999999999</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="3">
         <v>-7.8360599999999996E-7</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>3.31405E-4</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="3">
         <v>-7.8360599999999996E-7</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="3">
         <f t="shared" si="0"/>
         <v>3.1410450000000001</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="3">
         <f t="shared" si="1"/>
         <v>1.1000000000001009E-3</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="3">
         <v>5.5618300000000002E-3</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="3">
         <v>-2.02179E-4</v>
       </c>
-      <c r="M32" s="1">
+      <c r="L32" s="3"/>
+      <c r="M32" s="5">
         <v>59884</v>
       </c>
-      <c r="N32" s="1">
+      <c r="N32" s="3">
         <v>47013</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="3">
         <v>3.1402700000000001</v>
       </c>
-      <c r="S32">
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="5">
         <v>59884</v>
       </c>
-      <c r="T32">
+      <c r="T32" s="3">
         <v>3.1410450000000001</v>
       </c>
-      <c r="U32">
+      <c r="U32" s="3">
         <v>3.1402700000000001</v>
       </c>
-      <c r="V32">
-        <f t="shared" si="2"/>
+      <c r="V32" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W32" s="3">
+        <f>T32-U32</f>
         <v>7.7499999999997016E-4</v>
       </c>
-      <c r="AE32" s="2"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
         <v>61880</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>6.2846799999999998</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>1.0003200000000001</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="3">
         <v>-1.7043600000000001E-6</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>3.1897300000000001E-4</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="3">
         <v>-1.7043600000000001E-6</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="3">
         <f t="shared" si="0"/>
         <v>3.1423399999999999</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="3">
         <f t="shared" si="1"/>
         <v>-1.4899999999995472E-3</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="3">
         <v>5.9318499999999998E-3</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="3">
         <v>-2.2125199999999999E-4</v>
       </c>
-      <c r="M33" s="1">
+      <c r="L33" s="3"/>
+      <c r="M33" s="5">
         <v>61880</v>
       </c>
-      <c r="N33" s="1">
+      <c r="N33" s="3">
         <v>48649</v>
       </c>
-      <c r="O33" s="1">
+      <c r="O33" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="3">
         <v>3.14473</v>
       </c>
-      <c r="S33">
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="5">
         <v>61880</v>
       </c>
-      <c r="T33">
+      <c r="T33" s="3">
         <v>3.1423399999999999</v>
       </c>
-      <c r="U33">
+      <c r="U33" s="3">
         <v>3.14473</v>
       </c>
-      <c r="V33">
-        <f t="shared" si="2"/>
+      <c r="V33" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W33" s="3">
+        <f>T33-U33</f>
         <v>-2.3900000000001143E-3</v>
       </c>
-      <c r="AE33" s="2"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
         <v>63876</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>6.2817299999999996</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>1.00031</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="3">
         <v>4.4136399999999998E-6</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>3.0676800000000001E-4</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="3">
         <v>4.4136399999999998E-6</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="3">
         <f t="shared" si="0"/>
         <v>3.1408649999999998</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="3">
         <f t="shared" si="1"/>
         <v>1.460000000000683E-3</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="3">
         <v>6.3095099999999999E-3</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="3">
         <v>-2.2888199999999999E-4</v>
       </c>
-      <c r="M34" s="1">
+      <c r="L34" s="3"/>
+      <c r="M34" s="5">
         <v>63876</v>
       </c>
-      <c r="N34" s="1">
+      <c r="N34" s="3">
         <v>50228</v>
       </c>
-      <c r="O34" s="1">
+      <c r="O34" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="3">
         <v>3.14534</v>
       </c>
-      <c r="S34">
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="5">
         <v>63876</v>
       </c>
-      <c r="T34">
+      <c r="T34" s="3">
         <v>3.1408649999999998</v>
       </c>
-      <c r="U34">
+      <c r="U34" s="3">
         <v>3.14534</v>
       </c>
-      <c r="V34">
-        <f t="shared" si="2"/>
+      <c r="V34" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W34" s="3">
+        <f>T34-U34</f>
         <v>-4.4750000000002288E-3</v>
       </c>
-      <c r="AE34" s="2"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
         <v>65872</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>6.28207</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>1.0003</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="3">
         <v>-9.8602299999999996E-7</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>2.9760799999999999E-4</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="3">
         <v>-9.8602299999999996E-7</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="3">
         <f t="shared" si="0"/>
         <v>3.141035</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="3">
         <f t="shared" si="1"/>
         <v>1.1200000000002319E-3</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="3">
         <v>7.46155E-3</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="3">
         <v>-3.4332299999999998E-4</v>
       </c>
-      <c r="M35" s="1">
+      <c r="L35" s="3"/>
+      <c r="M35" s="5">
         <v>65872</v>
       </c>
-      <c r="N35" s="1">
+      <c r="N35" s="3">
         <v>51650</v>
       </c>
-      <c r="O35" s="1">
+      <c r="O35" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="3">
         <v>3.13639</v>
       </c>
-      <c r="S35">
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="5">
         <v>65872</v>
       </c>
-      <c r="T35">
+      <c r="T35" s="3">
         <v>3.141035</v>
       </c>
-      <c r="U35">
+      <c r="U35" s="3">
         <v>3.13639</v>
       </c>
-      <c r="V35">
-        <f t="shared" si="2"/>
+      <c r="V35" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W35" s="3">
+        <f>T35-U35</f>
         <v>4.6450000000000102E-3</v>
       </c>
-      <c r="AE35" s="2"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A36">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
         <v>67868</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>6.2801600000000004</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <v>1.0002899999999999</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="3">
         <v>2.6113400000000001E-7</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <v>2.9270300000000001E-4</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="3">
         <v>2.6113400000000001E-7</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="3">
         <f t="shared" si="0"/>
         <v>3.1400800000000002</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="3">
         <f t="shared" si="1"/>
         <v>3.0299999999998661E-3</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="3">
         <v>7.7133200000000001E-3</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="3">
         <v>-3.2806399999999998E-4</v>
       </c>
-      <c r="M36" s="1">
+      <c r="L36" s="3"/>
+      <c r="M36" s="5">
         <v>67868</v>
       </c>
-      <c r="N36" s="1">
+      <c r="N36" s="3">
         <v>53380</v>
       </c>
-      <c r="O36" s="1">
+      <c r="O36" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="3">
         <v>3.1461100000000002</v>
       </c>
-      <c r="S36">
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="5">
         <v>67868</v>
       </c>
-      <c r="T36">
+      <c r="T36" s="3">
         <v>3.1400800000000002</v>
       </c>
-      <c r="U36">
+      <c r="U36" s="3">
         <v>3.1461100000000002</v>
       </c>
-      <c r="V36">
-        <f t="shared" si="2"/>
+      <c r="V36" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W36" s="3">
+        <f>T36-U36</f>
         <v>-6.0299999999999798E-3</v>
       </c>
-      <c r="AE36" s="2"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A37">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
         <v>69864</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>6.2862299999999998</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <v>1.0002899999999999</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="3">
         <v>-2.5676900000000001E-7</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <v>2.9816400000000001E-4</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="3">
         <v>-2.5676900000000001E-7</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="3">
         <f t="shared" si="0"/>
         <v>3.1431149999999999</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="3">
         <f t="shared" si="1"/>
         <v>-3.0399999999994876E-3</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="3">
         <v>7.9956100000000002E-3</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="3">
         <v>-3.3569300000000003E-4</v>
       </c>
-      <c r="M37" s="1">
+      <c r="L37" s="3"/>
+      <c r="M37" s="5">
         <v>69864</v>
       </c>
-      <c r="N37" s="1">
+      <c r="N37" s="3">
         <v>54733</v>
       </c>
-      <c r="O37" s="1">
+      <c r="O37" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="3">
         <v>3.1336900000000001</v>
       </c>
-      <c r="S37">
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="5">
         <v>69864</v>
       </c>
-      <c r="T37">
+      <c r="T37" s="3">
         <v>3.1431149999999999</v>
       </c>
-      <c r="U37">
+      <c r="U37" s="3">
         <v>3.1336900000000001</v>
       </c>
-      <c r="V37">
-        <f t="shared" si="2"/>
+      <c r="V37" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W37" s="3">
+        <f>T37-U37</f>
         <v>9.4249999999997947E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A38">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
         <v>71860</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>6.2807199999999996</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
         <v>1.0002800000000001</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="3">
         <v>-4.1162999999999999E-7</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
         <v>2.80673E-4</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="3">
         <v>-4.1162999999999999E-7</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="3">
         <f t="shared" si="0"/>
         <v>3.1403599999999998</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="3">
         <f t="shared" si="1"/>
         <v>2.4700000000006384E-3</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="3">
         <v>8.2015999999999999E-3</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="3">
         <v>-3.0517599999999999E-4</v>
       </c>
-      <c r="M38" s="1">
+      <c r="L38" s="3"/>
+      <c r="M38" s="5">
         <v>71860</v>
       </c>
-      <c r="N38" s="1">
+      <c r="N38" s="3">
         <v>56194</v>
       </c>
-      <c r="O38" s="1">
+      <c r="O38" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="3">
         <v>3.1279699999999999</v>
       </c>
-      <c r="S38">
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="5">
         <v>71860</v>
       </c>
-      <c r="T38">
+      <c r="T38" s="3">
         <v>3.1403599999999998</v>
       </c>
-      <c r="U38">
+      <c r="U38" s="3">
         <v>3.1279699999999999</v>
       </c>
-      <c r="V38">
-        <f t="shared" si="2"/>
+      <c r="V38" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W38" s="3">
+        <f>T38-U38</f>
         <v>1.2389999999999901E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A39">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
         <v>73856</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>6.2792300000000001</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <v>1.00027</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="3">
         <v>4.109E-6</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="3">
         <v>2.74238E-4</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="3">
         <v>4.109E-6</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="3">
         <f t="shared" si="0"/>
         <v>3.139615</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="3">
         <f t="shared" si="1"/>
         <v>3.9600000000001856E-3</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="3">
         <v>8.3923299999999999E-3</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="3">
         <v>-3.0517599999999999E-4</v>
       </c>
-      <c r="M39" s="1">
+      <c r="L39" s="3"/>
+      <c r="M39" s="5">
         <v>73856</v>
       </c>
-      <c r="N39" s="1">
+      <c r="N39" s="3">
         <v>58072</v>
       </c>
-      <c r="O39" s="1">
+      <c r="O39" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P39">
+      <c r="P39" s="3">
         <v>3.1451500000000001</v>
       </c>
-      <c r="S39">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="5">
         <v>73856</v>
       </c>
-      <c r="T39">
+      <c r="T39" s="3">
         <v>3.139615</v>
       </c>
-      <c r="U39">
+      <c r="U39" s="3">
         <v>3.1451500000000001</v>
       </c>
-      <c r="V39">
-        <f t="shared" si="2"/>
+      <c r="V39" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W39" s="3">
+        <f>T39-U39</f>
         <v>-5.5350000000000676E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A40">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
         <v>75852</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>6.2846500000000001</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
         <v>1.0002599999999999</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="3">
         <v>-2.0037599999999999E-6</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
         <v>2.5681400000000001E-4</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="3">
         <v>-2.0037599999999999E-6</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="3">
         <f t="shared" si="0"/>
         <v>3.142325</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="3">
         <f t="shared" si="1"/>
         <v>-1.4599999999997948E-3</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="3">
         <v>8.6364700000000003E-3</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="3">
         <v>-3.1280499999999998E-4</v>
       </c>
-      <c r="M40" s="1">
+      <c r="L40" s="3"/>
+      <c r="M40" s="5">
         <v>75852</v>
       </c>
-      <c r="N40" s="1">
+      <c r="N40" s="3">
         <v>59375</v>
       </c>
-      <c r="O40" s="1">
+      <c r="O40" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="3">
         <v>3.1311</v>
       </c>
-      <c r="S40">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="5">
         <v>75852</v>
       </c>
-      <c r="T40">
+      <c r="T40" s="3">
         <v>3.142325</v>
       </c>
-      <c r="U40">
+      <c r="U40" s="3">
         <v>3.1311</v>
       </c>
-      <c r="V40">
-        <f t="shared" si="2"/>
+      <c r="V40" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W40" s="3">
+        <f>T40-U40</f>
         <v>1.1225000000000041E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A41">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
         <v>77848</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>6.2821999999999996</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
         <v>1.0002500000000001</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="3">
         <v>-1.5392100000000001E-6</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="3">
         <v>2.4485099999999998E-4</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="3">
         <v>-1.5392100000000001E-6</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="3">
         <f t="shared" si="0"/>
         <v>3.1410999999999998</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="3">
         <f t="shared" si="1"/>
         <v>9.9000000000071253E-4</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="3">
         <v>8.9797999999999996E-3</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="3">
         <v>-3.0517599999999999E-4</v>
       </c>
-      <c r="M41">
+      <c r="L41" s="3"/>
+      <c r="M41" s="5">
         <v>77848</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="3">
         <v>61222</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P41">
+      <c r="P41" s="3">
         <v>3.1457199999999998</v>
       </c>
-      <c r="S41">
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="5">
         <v>77848</v>
       </c>
-      <c r="T41">
+      <c r="T41" s="3">
         <v>3.1410999999999998</v>
       </c>
-      <c r="U41">
+      <c r="U41" s="3">
         <v>3.1457199999999998</v>
       </c>
-      <c r="V41">
-        <f t="shared" si="2"/>
+      <c r="V41" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W41" s="3">
+        <f>T41-U41</f>
         <v>-4.6200000000000685E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A42">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
         <v>79844</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
         <v>6.2820400000000003</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="3">
         <v>1.0002500000000001</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="3">
         <v>-2.7804800000000002E-6</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="3">
         <v>2.3855600000000001E-4</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="3">
         <v>-2.7804800000000002E-6</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="3">
         <f t="shared" si="0"/>
         <v>3.1410200000000001</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="3">
         <f t="shared" si="1"/>
         <v>1.1499999999999844E-3</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="3">
         <v>9.1323900000000006E-3</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="3">
         <v>-3.1280499999999998E-4</v>
       </c>
-      <c r="M42">
+      <c r="L42" s="3"/>
+      <c r="M42" s="5">
         <v>79844</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="3">
         <v>62600</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P42">
+      <c r="P42" s="3">
         <v>3.13612</v>
       </c>
-      <c r="S42">
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="5">
         <v>79844</v>
       </c>
-      <c r="T42">
+      <c r="T42" s="3">
         <v>3.1410200000000001</v>
       </c>
-      <c r="U42">
+      <c r="U42" s="3">
         <v>3.13612</v>
       </c>
-      <c r="V42">
-        <f t="shared" si="2"/>
+      <c r="V42" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W42" s="3">
+        <f>T42-U42</f>
         <v>4.9000000000001265E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A43">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
         <v>81840</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <v>6.2828499999999998</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="3">
         <v>1.00024</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="4">
         <v>-1.5600399999999999E-6</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="3">
         <v>2.3490300000000001E-4</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="3">
         <v>-1.5600399999999999E-6</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="3">
         <f t="shared" si="0"/>
         <v>3.1414249999999999</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="3">
         <f t="shared" si="1"/>
         <v>3.4000000000045105E-4</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="3">
         <v>9.3231200000000007E-3</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="3">
         <v>-3.1280499999999998E-4</v>
       </c>
-      <c r="M43">
+      <c r="L43" s="3"/>
+      <c r="M43" s="5">
         <v>81840</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="3">
         <v>64401</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P43">
+      <c r="P43" s="3">
         <v>3.1476500000000001</v>
       </c>
-      <c r="S43">
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="5">
         <v>81840</v>
       </c>
-      <c r="T43">
+      <c r="T43" s="3">
         <v>3.1414249999999999</v>
       </c>
-      <c r="U43">
+      <c r="U43" s="3">
         <v>3.1476500000000001</v>
       </c>
-      <c r="V43">
-        <f t="shared" si="2"/>
+      <c r="V43" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W43" s="3">
+        <f>T43-U43</f>
         <v>-6.2250000000001471E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A44">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
         <v>83836</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="3">
         <v>6.2787499999999996</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="3">
         <v>1.00024</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="4">
         <v>1.4569200000000001E-6</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="3">
         <v>2.43689E-4</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="3">
         <v>1.4569200000000001E-6</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="3">
         <f t="shared" si="0"/>
         <v>3.1393749999999998</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="3">
         <f t="shared" si="1"/>
         <v>4.4400000000006656E-3</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="3">
         <v>9.5596299999999995E-3</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="3">
         <v>-3.0517599999999999E-4</v>
       </c>
-      <c r="M44">
+      <c r="L44" s="3"/>
+      <c r="M44" s="5">
         <v>83836</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="3">
         <v>65653</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P44">
+      <c r="P44" s="3">
         <v>3.13245</v>
       </c>
-      <c r="S44">
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="5">
         <v>83836</v>
       </c>
-      <c r="T44">
+      <c r="T44" s="3">
         <v>3.1393749999999998</v>
       </c>
-      <c r="U44">
+      <c r="U44" s="3">
         <v>3.13245</v>
       </c>
-      <c r="V44">
-        <f t="shared" si="2"/>
+      <c r="V44" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W44" s="3">
+        <f>T44-U44</f>
         <v>6.9249999999998479E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A45">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
         <v>85832</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="3">
         <v>6.2898300000000003</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="3">
         <v>1.00023</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="4">
         <v>1.9251E-6</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="3">
         <v>2.2261899999999999E-4</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="3">
         <v>1.9251E-6</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="3">
         <f t="shared" si="0"/>
         <v>3.1449150000000001</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="3">
         <f t="shared" si="1"/>
         <v>-6.6399999999999793E-3</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="3">
         <v>9.8724399999999997E-3</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="3">
         <v>-2.89917E-4</v>
       </c>
-      <c r="M45">
+      <c r="L45" s="3"/>
+      <c r="M45" s="5">
         <v>85832</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="3">
         <v>67522</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P45">
+      <c r="P45" s="3">
         <v>3.1467100000000001</v>
       </c>
-      <c r="S45">
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="5">
         <v>85832</v>
       </c>
-      <c r="T45">
+      <c r="T45" s="3">
         <v>3.1449150000000001</v>
       </c>
-      <c r="U45">
+      <c r="U45" s="3">
         <v>3.1467100000000001</v>
       </c>
-      <c r="V45">
-        <f t="shared" si="2"/>
+      <c r="V45" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W45" s="3">
+        <f>T45-U45</f>
         <v>-1.794999999999991E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A46">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
         <v>87828</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="3">
         <v>6.2820099999999996</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="3">
         <v>1.0002200000000001</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="4">
         <v>-1.14513E-6</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="3">
         <v>2.1862199999999999E-4</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="3">
         <v>-1.14513E-6</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="3">
         <f t="shared" si="0"/>
         <v>3.1410049999999998</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="3">
         <f t="shared" si="1"/>
         <v>1.180000000000625E-3</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="3">
         <v>1.0024999999999999E-2</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="3">
         <v>-2.89917E-4</v>
       </c>
-      <c r="M46">
+      <c r="L46" s="3"/>
+      <c r="M46" s="5">
         <v>87828</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="3">
         <v>69271</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P46">
+      <c r="P46" s="3">
         <v>3.1548500000000002</v>
       </c>
-      <c r="S46">
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="5">
         <v>87828</v>
       </c>
-      <c r="T46">
+      <c r="T46" s="3">
         <v>3.1410049999999998</v>
       </c>
-      <c r="U46">
+      <c r="U46" s="3">
         <v>3.1548500000000002</v>
       </c>
-      <c r="V46">
-        <f t="shared" si="2"/>
+      <c r="V46" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W46" s="3">
+        <f>T46-U46</f>
         <v>-1.3845000000000329E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A47">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
         <v>89824</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
         <v>6.2857099999999999</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="3">
         <v>1.0002200000000001</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="4">
         <v>-4.1570499999999998E-7</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="3">
         <v>2.2159400000000001E-4</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="3">
         <v>-4.1570499999999998E-7</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="3">
         <f t="shared" si="0"/>
         <v>3.142855</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="3">
         <f t="shared" si="1"/>
         <v>-2.5199999999996336E-3</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="3">
         <v>1.0200499999999999E-2</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="3">
         <v>-2.74658E-4</v>
       </c>
-      <c r="M47">
+      <c r="L47" s="3"/>
+      <c r="M47" s="5">
         <v>89824</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="3">
         <v>70638</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P47">
+      <c r="P47" s="3">
         <v>3.1456200000000001</v>
       </c>
-      <c r="S47">
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="5">
         <v>89824</v>
       </c>
-      <c r="T47">
+      <c r="T47" s="3">
         <v>3.142855</v>
       </c>
-      <c r="U47">
+      <c r="U47" s="3">
         <v>3.1456200000000001</v>
       </c>
-      <c r="V47">
-        <f t="shared" si="2"/>
+      <c r="V47" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W47" s="3">
+        <f>T47-U47</f>
         <v>-2.7650000000001285E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A48">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
         <v>91820</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="3">
         <v>6.2907799999999998</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="3">
         <v>1.0002200000000001</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="4">
         <v>1.27779E-6</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="3">
         <v>2.12389E-4</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="3">
         <v>1.27779E-6</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="3">
         <f t="shared" si="0"/>
         <v>3.1453899999999999</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="3">
         <f t="shared" si="1"/>
         <v>-7.5899999999995416E-3</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="3">
         <v>1.03836E-2</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="3">
         <v>-2.6702900000000001E-4</v>
       </c>
-      <c r="M48">
+      <c r="L48" s="3"/>
+      <c r="M48" s="5">
         <v>91820</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="3">
         <v>72122</v>
       </c>
-      <c r="O48">
+      <c r="O48" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P48">
+      <c r="P48" s="3">
         <v>3.1418900000000001</v>
       </c>
-      <c r="S48">
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="5">
         <v>91820</v>
       </c>
-      <c r="T48">
+      <c r="T48" s="3">
         <v>3.1453899999999999</v>
       </c>
-      <c r="U48">
+      <c r="U48" s="3">
         <v>3.1418900000000001</v>
       </c>
-      <c r="V48">
-        <f t="shared" si="2"/>
+      <c r="V48" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W48" s="3">
+        <f>T48-U48</f>
         <v>3.4999999999998366E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A49">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
         <v>93816</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <v>6.2768800000000002</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="3">
         <v>1.00021</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="4">
         <v>-4.1021099999999999E-6</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="3">
         <v>2.0679300000000001E-4</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="3">
         <v>-4.1021099999999999E-6</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="3">
         <f t="shared" si="0"/>
         <v>3.1384400000000001</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="3">
         <f t="shared" si="1"/>
         <v>6.3100000000000378E-3</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="3">
         <v>1.0589599999999999E-2</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="3">
         <v>-2.74658E-4</v>
       </c>
-      <c r="M49">
+      <c r="L49" s="3"/>
+      <c r="M49" s="5">
         <v>93816</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="3">
         <v>73577</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P49">
+      <c r="P49" s="3">
         <v>3.1370800000000001</v>
       </c>
-      <c r="S49">
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="5">
         <v>93816</v>
       </c>
-      <c r="T49">
+      <c r="T49" s="3">
         <v>3.1384400000000001</v>
       </c>
-      <c r="U49">
+      <c r="U49" s="3">
         <v>3.1370800000000001</v>
       </c>
-      <c r="V49">
-        <f t="shared" si="2"/>
+      <c r="V49" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W49" s="3">
+        <f>T49-U49</f>
         <v>1.3600000000000279E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A50">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
         <v>95812</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
         <v>6.2902100000000001</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="3">
         <v>1.0002</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="4">
         <v>-1.5900400000000001E-6</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="3">
         <v>2.0009699999999999E-4</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="3">
         <v>-1.5900400000000001E-6</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="3">
         <f t="shared" si="0"/>
         <v>3.145105</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="3">
         <f t="shared" si="1"/>
         <v>-7.0199999999998042E-3</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="3">
         <v>1.08795E-2</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="3">
         <v>-2.74658E-4</v>
       </c>
-      <c r="M50">
+      <c r="L50" s="3"/>
+      <c r="M50" s="5">
         <v>95812</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="3">
         <v>75234</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P50">
+      <c r="P50" s="3">
         <v>3.1408999999999998</v>
       </c>
-      <c r="S50">
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="5">
         <v>95812</v>
       </c>
-      <c r="T50">
+      <c r="T50" s="3">
         <v>3.145105</v>
       </c>
-      <c r="U50">
+      <c r="U50" s="3">
         <v>3.1408999999999998</v>
       </c>
-      <c r="V50">
-        <f t="shared" si="2"/>
+      <c r="V50" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W50" s="3">
+        <f>T50-U50</f>
         <v>4.2050000000002363E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A51">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
         <v>97808</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="3">
         <v>6.2849300000000001</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="3">
         <v>1.0002</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="4">
         <v>3.1227799999999999E-6</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="3">
         <v>1.9968899999999999E-4</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="3">
         <v>3.1227799999999999E-6</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="3">
         <f t="shared" si="0"/>
         <v>3.1424650000000001</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="3">
         <f t="shared" si="1"/>
         <v>-1.7399999999998528E-3</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="3">
         <v>1.10168E-2</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="3">
         <v>-2.74658E-4</v>
       </c>
-      <c r="M51">
+      <c r="L51" s="3"/>
+      <c r="M51" s="5">
         <v>97808</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="3">
         <v>76952</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P51">
+      <c r="P51" s="3">
         <v>3.1470600000000002</v>
       </c>
-      <c r="S51">
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="5">
         <v>97808</v>
       </c>
-      <c r="T51">
+      <c r="T51" s="3">
         <v>3.1424650000000001</v>
       </c>
-      <c r="U51">
+      <c r="U51" s="3">
         <v>3.1470600000000002</v>
       </c>
-      <c r="V51">
-        <f t="shared" si="2"/>
+      <c r="V51" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W51" s="3">
+        <f>T51-U51</f>
         <v>-4.5950000000001268E-3</v>
       </c>
-      <c r="Z51" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A52">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
         <v>99804</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="3">
         <v>6.2819099999999999</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="3">
         <v>1.0002</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="4">
         <v>2.4971100000000001E-8</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="3">
         <v>1.93461E-4</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="3">
         <v>2.4971100000000001E-8</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="3">
         <f t="shared" si="0"/>
         <v>3.1409549999999999</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="3">
         <f t="shared" si="1"/>
         <v>1.2800000000003919E-3</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="3">
         <v>1.1184700000000001E-2</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="3">
         <v>-2.8228800000000001E-4</v>
       </c>
-      <c r="M52">
+      <c r="L52" s="3"/>
+      <c r="M52" s="5">
         <v>99804</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="3">
         <v>78287</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P52">
+      <c r="P52" s="3">
         <v>3.1376300000000001</v>
       </c>
-      <c r="S52">
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="5">
         <v>99804</v>
       </c>
-      <c r="T52">
+      <c r="T52" s="3">
         <v>3.1409549999999999</v>
       </c>
-      <c r="U52">
+      <c r="U52" s="3">
         <v>3.1376300000000001</v>
       </c>
-      <c r="V52">
-        <f t="shared" si="2"/>
+      <c r="V52" s="3">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W52" s="3">
+        <f>T52-U52</f>
         <v>3.3249999999998003E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="E53" s="2"/>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="E54" s="2"/>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="E55" s="2"/>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="E56" s="2"/>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="J56" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="E57" s="2"/>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="J57" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="E58" s="2"/>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="E59" s="2"/>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="E60" s="2"/>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H72" s="1"/>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Projekt1/Hipotezy.xlsx
+++ b/Projekt1/Hipotezy.xlsx
@@ -8,30 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/safurynm/Desktop/StudiaUG/AlgNum/Algorytmy-Numeryczne/Projekt1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACD549B-D7C2-D242-AA51-962B76FB5C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC406A6-FB2A-A34F-8909-980DAE0E7C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{856EA640-2464-1B47-824C-F5A41D343910}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20300" xr2:uid="{856EA640-2464-1B47-824C-F5A41D343910}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Arkusz1!$S$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Arkusz1!$S$2:$S$52</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Arkusz1!$T$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Arkusz1!$T$2:$T$52</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Arkusz1!$U$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Arkusz1!$U$2:$U$52</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Arkusz1!$V$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Arkusz1!$V$2:$V$52</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Arkusz1!$T$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Arkusz1!$T$2:$T$52</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Arkusz1!$U$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Arkusz1!$U$2:$U$52</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Arkusz1!$V$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Arkusz1!$V$2:$V$52</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Arkusz1!$S$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Arkusz1!$S$2:$S$52</definedName>
     <definedName name="monte_carlo" localSheetId="0">Arkusz1!$L$3:$N$22</definedName>
     <definedName name="pkt_konc" localSheetId="0">Arkusz1!$G$2:$H$34</definedName>
     <definedName name="test" localSheetId="0">Arkusz1!$A$2:$C$52</definedName>
@@ -279,12 +263,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -7416,27 +7398,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="monte_carlo" connectionId="1" xr16:uid="{CE64FFCE-2E2B-734B-BEE2-84FCDAE7B753}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_2" connectionId="5" xr16:uid="{E83F0B21-BF21-2B4B-BE95-329F74AB2E36}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_3" connectionId="6" xr16:uid="{DA59792E-8EE7-824C-8032-13B401A10CE5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_1" connectionId="4" xr16:uid="{717306AC-2797-B54C-A69F-D4681AF5D7B6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test" connectionId="3" xr16:uid="{8B62D681-966C-5549-8945-8D5D805837D4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_4" connectionId="7" xr16:uid="{8B2ADFA5-5EA0-FF43-AB0B-0863C1D612F7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="monte_carlo" connectionId="1" xr16:uid="{CE64FFCE-2E2B-734B-BEE2-84FCDAE7B753}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_3" connectionId="6" xr16:uid="{DA59792E-8EE7-824C-8032-13B401A10CE5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7758,8 +7740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6287C271-BA6E-5246-853E-184B17EA6509}">
   <dimension ref="A1:AE87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AB24" sqref="AB24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7783,7 +7765,7 @@
     <col min="17" max="17" width="10.83203125" customWidth="1"/>
     <col min="20" max="20" width="14.6640625" customWidth="1"/>
     <col min="21" max="21" width="11.6640625" customWidth="1"/>
-    <col min="22" max="22" width="11.83203125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
@@ -7820,7 +7802,7 @@
       <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" t="s">
         <v>0</v>
       </c>
       <c r="N1" t="s">
@@ -7844,7 +7826,7 @@
       <c r="U1" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" t="s">
         <v>5</v>
       </c>
       <c r="W1" t="s">
@@ -7852,1090 +7834,1042 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
         <v>4.2426399999999997</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>1.1920900000000001E-7</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
         <v>-1.78814E-7</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2">
         <v>1.1920900000000001E-7</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2">
         <f>C2/2</f>
         <v>2.1213199999999999</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2">
         <f>B2-C2</f>
         <v>2.0405500000000005</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2">
         <v>-2.3841900000000001E-7</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2">
         <v>1.1920900000000001E-7</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="5">
+      <c r="M2" s="3">
         <v>4</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2">
         <v>3</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2">
         <v>3</v>
       </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="5">
+      <c r="S2" s="3">
         <v>4</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2">
         <v>2.1213199999999999</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2">
         <v>3</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W2" s="3">
-        <f>T2-U2</f>
+      <c r="W2">
+        <f t="shared" ref="W2:W33" si="0">T2-U2</f>
         <v>-0.87868000000000013</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>2000</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>6.2799100000000001</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>0.99997100000000005</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>-9.9418699999999995E-8</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3">
         <v>-2.89827E-5</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3">
         <v>-9.9418699999999995E-8</v>
       </c>
-      <c r="H3" s="3">
-        <f t="shared" ref="H3:H52" si="0">C3/2</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H52" si="1">C3/2</f>
         <v>3.1399550000000001</v>
       </c>
-      <c r="I3" s="3">
-        <f t="shared" ref="I3:I52" si="1">B3-C3</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I52" si="2">B3-C3</f>
         <v>3.2800000000001717E-3</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3">
         <v>-2.64645E-5</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3">
         <v>4.76837E-7</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="5">
+      <c r="M3" s="3">
         <v>2000</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3">
         <v>1577</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3">
         <v>3.1539999999999999</v>
       </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="5">
+      <c r="S3" s="3">
         <v>2000</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3">
         <v>3.1399550000000001</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3">
         <v>3.1539999999999999</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W3" s="3">
-        <f>T3-U3</f>
+      <c r="W3">
+        <f t="shared" si="0"/>
         <v>-1.4044999999999863E-2</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>3996</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>6.2812700000000001</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>0.99992499999999995</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>-3.1833800000000002E-6</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>-7.69436E-5</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
         <v>-3.1833800000000002E-6</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>3.1406350000000001</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>1.9200000000001438E-3</v>
+      </c>
+      <c r="J4">
+        <v>-1.0347400000000001E-4</v>
+      </c>
+      <c r="K4">
+        <v>2.3841900000000001E-6</v>
+      </c>
+      <c r="M4" s="3">
+        <v>3996</v>
+      </c>
+      <c r="N4">
+        <v>3128</v>
+      </c>
+      <c r="O4">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="P4">
+        <v>3.1311300000000002</v>
+      </c>
+      <c r="S4" s="3">
+        <v>3996</v>
+      </c>
+      <c r="T4">
+        <v>3.1406350000000001</v>
+      </c>
+      <c r="U4">
+        <v>3.1311300000000002</v>
+      </c>
+      <c r="V4">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W4">
         <f t="shared" si="0"/>
-        <v>3.1406350000000001</v>
-      </c>
-      <c r="I4" s="3">
-        <f t="shared" si="1"/>
-        <v>1.9200000000001438E-3</v>
-      </c>
-      <c r="J4" s="3">
-        <v>-1.0347400000000001E-4</v>
-      </c>
-      <c r="K4" s="3">
-        <v>2.3841900000000001E-6</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="5">
-        <v>3996</v>
-      </c>
-      <c r="N4" s="3">
-        <v>3128</v>
-      </c>
-      <c r="O4" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="P4" s="3">
-        <v>3.1311300000000002</v>
-      </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="5">
-        <v>3996</v>
-      </c>
-      <c r="T4" s="3">
-        <v>3.1406350000000001</v>
-      </c>
-      <c r="U4" s="3">
-        <v>3.1311300000000002</v>
-      </c>
-      <c r="V4" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="W4" s="3">
-        <f>T4-U4</f>
         <v>9.5049999999998747E-3</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>5992</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>6.2819700000000003</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>0.99998799999999999</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>-1.74763E-6</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>-1.40968E-5</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <v>-1.74763E-6</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>3.1409850000000001</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>1.2199999999999989E-3</v>
+      </c>
+      <c r="J5">
+        <v>-1.15395E-4</v>
+      </c>
+      <c r="K5">
+        <v>2.8610199999999999E-6</v>
+      </c>
+      <c r="M5" s="3">
+        <v>5992</v>
+      </c>
+      <c r="N5">
+        <v>4685</v>
+      </c>
+      <c r="O5">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="P5">
+        <v>3.1274999999999999</v>
+      </c>
+      <c r="S5" s="3">
+        <v>5992</v>
+      </c>
+      <c r="T5">
+        <v>3.1409850000000001</v>
+      </c>
+      <c r="U5">
+        <v>3.1274999999999999</v>
+      </c>
+      <c r="V5">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W5">
         <f t="shared" si="0"/>
-        <v>3.1409850000000001</v>
-      </c>
-      <c r="I5" s="3">
-        <f t="shared" si="1"/>
-        <v>1.2199999999999989E-3</v>
-      </c>
-      <c r="J5" s="3">
-        <v>-1.15395E-4</v>
-      </c>
-      <c r="K5" s="3">
-        <v>2.8610199999999999E-6</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="5">
-        <v>5992</v>
-      </c>
-      <c r="N5" s="3">
-        <v>4685</v>
-      </c>
-      <c r="O5" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="P5" s="3">
-        <v>3.1274999999999999</v>
-      </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="5">
-        <v>5992</v>
-      </c>
-      <c r="T5" s="3">
-        <v>3.1409850000000001</v>
-      </c>
-      <c r="U5" s="3">
-        <v>3.1274999999999999</v>
-      </c>
-      <c r="V5" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="W5" s="3">
-        <f>T5-U5</f>
         <v>1.3485000000000191E-2</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>7988</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>6.28287</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>1.0000500000000001</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>5.4627900000000002E-7</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>4.6815499999999999E-5</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6">
         <v>5.4627900000000002E-7</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>3.141435</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>3.2000000000032003E-4</v>
+      </c>
+      <c r="J6">
+        <v>-7.82013E-5</v>
+      </c>
+      <c r="K6">
+        <v>-5.7220499999999997E-6</v>
+      </c>
+      <c r="M6" s="3">
+        <v>7988</v>
+      </c>
+      <c r="N6">
+        <v>6230</v>
+      </c>
+      <c r="O6">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="P6">
+        <v>3.1196799999999998</v>
+      </c>
+      <c r="S6" s="3">
+        <v>7988</v>
+      </c>
+      <c r="T6">
+        <v>3.141435</v>
+      </c>
+      <c r="U6">
+        <v>3.1196799999999998</v>
+      </c>
+      <c r="V6">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W6">
         <f t="shared" si="0"/>
-        <v>3.141435</v>
-      </c>
-      <c r="I6" s="3">
-        <f t="shared" si="1"/>
-        <v>3.2000000000032003E-4</v>
-      </c>
-      <c r="J6" s="3">
-        <v>-7.82013E-5</v>
-      </c>
-      <c r="K6" s="3">
-        <v>-5.7220499999999997E-6</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="5">
-        <v>7988</v>
-      </c>
-      <c r="N6" s="3">
-        <v>6230</v>
-      </c>
-      <c r="O6" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="P6" s="3">
-        <v>3.1196799999999998</v>
-      </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="5">
-        <v>7988</v>
-      </c>
-      <c r="T6" s="3">
-        <v>3.141435</v>
-      </c>
-      <c r="U6" s="3">
-        <v>3.1196799999999998</v>
-      </c>
-      <c r="V6" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="W6" s="3">
-        <f>T6-U6</f>
         <v>2.1755000000000191E-2</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>9984</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>6.2831900000000003</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>1.0000199999999999</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>-2.4883799999999999E-7</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>2.18069E-5</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7">
         <v>-2.4883799999999999E-7</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>3.1415950000000001</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>-5.1498400000000001E-5</v>
+      </c>
+      <c r="K7">
+        <v>-2.8610199999999999E-6</v>
+      </c>
+      <c r="M7" s="3">
+        <v>9984</v>
+      </c>
+      <c r="N7">
+        <v>7830</v>
+      </c>
+      <c r="O7">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="P7">
+        <v>3.1370200000000001</v>
+      </c>
+      <c r="S7" s="3">
+        <v>9984</v>
+      </c>
+      <c r="T7">
+        <v>3.1415950000000001</v>
+      </c>
+      <c r="U7">
+        <v>3.1370200000000001</v>
+      </c>
+      <c r="V7">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W7">
         <f t="shared" si="0"/>
-        <v>3.1415950000000001</v>
-      </c>
-      <c r="I7" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>-5.1498400000000001E-5</v>
-      </c>
-      <c r="K7" s="3">
-        <v>-2.8610199999999999E-6</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="5">
-        <v>9984</v>
-      </c>
-      <c r="N7" s="3">
-        <v>7830</v>
-      </c>
-      <c r="O7" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="P7" s="3">
-        <v>3.1370200000000001</v>
-      </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="5">
-        <v>9984</v>
-      </c>
-      <c r="T7" s="3">
-        <v>3.1415950000000001</v>
-      </c>
-      <c r="U7" s="3">
-        <v>3.1370200000000001</v>
-      </c>
-      <c r="V7" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="W7" s="3">
-        <f>T7-U7</f>
         <v>4.5749999999999957E-3</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>11980</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>6.2831400000000004</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>1.0002200000000001</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>1.59029E-6</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8">
         <v>2.29755E-4</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8">
         <v>1.59029E-6</v>
       </c>
-      <c r="H8" s="3">
-        <f t="shared" si="0"/>
+      <c r="H8">
+        <f t="shared" si="1"/>
         <v>3.1415700000000002</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8">
         <f>B8-C8</f>
         <v>4.9999999999883471E-5</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8">
         <v>1.7642999999999999E-4</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8">
         <v>-8.5830700000000005E-6</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="5">
+      <c r="M8" s="3">
         <v>11980</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8">
         <v>9310</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8">
         <v>3.1085099999999999</v>
       </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="5">
+      <c r="S8" s="3">
         <v>11980</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8">
         <v>3.1415700000000002</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8">
         <v>3.1085099999999999</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W8" s="3">
-        <f>T8-U8</f>
+      <c r="W8">
+        <f t="shared" si="0"/>
         <v>3.3060000000000311E-2</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>13976</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>6.2821600000000002</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>0.99965000000000004</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>-2.0576999999999998E-6</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9">
         <v>-3.5300499999999999E-4</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9">
         <v>-2.0576999999999998E-6</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>3.1410800000000001</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>1.0300000000000864E-3</v>
+      </c>
+      <c r="J9">
+        <v>-1.6784699999999999E-4</v>
+      </c>
+      <c r="K9">
+        <v>-1.6212500000000001E-5</v>
+      </c>
+      <c r="M9" s="3">
+        <v>13976</v>
+      </c>
+      <c r="N9">
+        <v>10961</v>
+      </c>
+      <c r="O9">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="P9">
+        <v>3.1370900000000002</v>
+      </c>
+      <c r="S9" s="3">
+        <v>13976</v>
+      </c>
+      <c r="T9">
+        <v>3.1410800000000001</v>
+      </c>
+      <c r="U9">
+        <v>3.1370900000000002</v>
+      </c>
+      <c r="V9">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W9">
         <f t="shared" si="0"/>
-        <v>3.1410800000000001</v>
-      </c>
-      <c r="I9" s="3">
-        <f t="shared" si="1"/>
-        <v>1.0300000000000864E-3</v>
-      </c>
-      <c r="J9" s="3">
-        <v>-1.6784699999999999E-4</v>
-      </c>
-      <c r="K9" s="3">
-        <v>-1.6212500000000001E-5</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="5">
-        <v>13976</v>
-      </c>
-      <c r="N9" s="3">
-        <v>10961</v>
-      </c>
-      <c r="O9" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="P9" s="3">
-        <v>3.1370900000000002</v>
-      </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="5">
-        <v>13976</v>
-      </c>
-      <c r="T9" s="3">
-        <v>3.1410800000000001</v>
-      </c>
-      <c r="U9" s="3">
-        <v>3.1370900000000002</v>
-      </c>
-      <c r="V9" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="W9" s="3">
-        <f>T9-U9</f>
         <v>3.989999999999938E-3</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>15972</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>6.2828400000000002</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>0.99990699999999999</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <v>7.6799199999999999E-7</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10">
         <v>-9.26924E-5</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10">
         <v>7.6799199999999999E-7</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>3.1414200000000001</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>3.5000000000007248E-4</v>
+      </c>
+      <c r="J10">
+        <v>-2.4795500000000001E-4</v>
+      </c>
+      <c r="K10">
+        <v>-7.6293900000000003E-6</v>
+      </c>
+      <c r="M10" s="3">
+        <v>15972</v>
+      </c>
+      <c r="N10">
+        <v>12477</v>
+      </c>
+      <c r="O10">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="P10">
+        <v>3.1247199999999999</v>
+      </c>
+      <c r="S10" s="3">
+        <v>15972</v>
+      </c>
+      <c r="T10">
+        <v>3.1414200000000001</v>
+      </c>
+      <c r="U10">
+        <v>3.1247199999999999</v>
+      </c>
+      <c r="V10">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W10">
         <f t="shared" si="0"/>
-        <v>3.1414200000000001</v>
-      </c>
-      <c r="I10" s="3">
-        <f t="shared" si="1"/>
-        <v>3.5000000000007248E-4</v>
-      </c>
-      <c r="J10" s="3">
-        <v>-2.4795500000000001E-4</v>
-      </c>
-      <c r="K10" s="3">
-        <v>-7.6293900000000003E-6</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="5">
-        <v>15972</v>
-      </c>
-      <c r="N10" s="3">
-        <v>12477</v>
-      </c>
-      <c r="O10" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="P10" s="3">
-        <v>3.1247199999999999</v>
-      </c>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="5">
-        <v>15972</v>
-      </c>
-      <c r="T10" s="3">
-        <v>3.1414200000000001</v>
-      </c>
-      <c r="U10" s="3">
-        <v>3.1247199999999999</v>
-      </c>
-      <c r="V10" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="W10" s="3">
-        <f>T10-U10</f>
         <v>1.6700000000000159E-2</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>17968</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>6.2806100000000002</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>0.99949399999999999</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11">
         <v>4.6857199999999998E-9</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11">
         <v>-5.0276599999999998E-4</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11">
         <v>4.6857199999999998E-9</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>3.1403050000000001</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>2.5800000000000267E-3</v>
+      </c>
+      <c r="J11">
+        <v>-6.9999700000000005E-4</v>
+      </c>
+      <c r="K11">
+        <v>-2.2888199999999999E-5</v>
+      </c>
+      <c r="M11" s="3">
+        <v>17968</v>
+      </c>
+      <c r="N11">
+        <v>14089</v>
+      </c>
+      <c r="O11">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="P11">
+        <v>3.13646</v>
+      </c>
+      <c r="S11" s="3">
+        <v>17968</v>
+      </c>
+      <c r="T11">
+        <v>3.1403050000000001</v>
+      </c>
+      <c r="U11">
+        <v>3.13646</v>
+      </c>
+      <c r="V11">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W11">
         <f t="shared" si="0"/>
-        <v>3.1403050000000001</v>
-      </c>
-      <c r="I11" s="3">
-        <f t="shared" si="1"/>
-        <v>2.5800000000000267E-3</v>
-      </c>
-      <c r="J11" s="3">
-        <v>-6.9999700000000005E-4</v>
-      </c>
-      <c r="K11" s="3">
-        <v>-2.2888199999999999E-5</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="5">
-        <v>17968</v>
-      </c>
-      <c r="N11" s="3">
-        <v>14089</v>
-      </c>
-      <c r="O11" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="P11" s="3">
-        <v>3.13646</v>
-      </c>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="5">
-        <v>17968</v>
-      </c>
-      <c r="T11" s="3">
-        <v>3.1403050000000001</v>
-      </c>
-      <c r="U11" s="3">
-        <v>3.13646</v>
-      </c>
-      <c r="V11" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="W11" s="3">
-        <f>T11-U11</f>
         <v>3.8450000000000983E-3</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>19964</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>6.2809699999999999</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>0.99912699999999999</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12">
         <v>-4.8872899999999999E-6</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12">
         <v>-8.6971200000000002E-4</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12">
         <v>-4.8872899999999999E-6</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>3.140485</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>2.2200000000003328E-3</v>
+      </c>
+      <c r="J12">
+        <v>-1.52206E-3</v>
+      </c>
+      <c r="K12">
+        <v>-3.6239599999999998E-5</v>
+      </c>
+      <c r="M12" s="3">
+        <v>19964</v>
+      </c>
+      <c r="N12">
+        <v>15683</v>
+      </c>
+      <c r="O12">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="P12">
+        <v>3.1422599999999998</v>
+      </c>
+      <c r="S12" s="3">
+        <v>19964</v>
+      </c>
+      <c r="T12">
+        <v>3.140485</v>
+      </c>
+      <c r="U12">
+        <v>3.1422599999999998</v>
+      </c>
+      <c r="V12">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W12">
         <f t="shared" si="0"/>
-        <v>3.140485</v>
-      </c>
-      <c r="I12" s="3">
-        <f t="shared" si="1"/>
-        <v>2.2200000000003328E-3</v>
-      </c>
-      <c r="J12" s="3">
-        <v>-1.52206E-3</v>
-      </c>
-      <c r="K12" s="3">
-        <v>-3.6239599999999998E-5</v>
-      </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="5">
-        <v>19964</v>
-      </c>
-      <c r="N12" s="3">
-        <v>15683</v>
-      </c>
-      <c r="O12" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="P12" s="3">
-        <v>3.1422599999999998</v>
-      </c>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="5">
-        <v>19964</v>
-      </c>
-      <c r="T12" s="3">
-        <v>3.140485</v>
-      </c>
-      <c r="U12" s="3">
-        <v>3.1422599999999998</v>
-      </c>
-      <c r="V12" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="W12" s="3">
-        <f>T12-U12</f>
         <v>-1.77499999999986E-3</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>21960</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>6.2785500000000001</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>0.99881200000000003</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13">
         <v>1.3217800000000001E-6</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13">
         <v>-1.1841600000000001E-3</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13">
         <v>1.3217800000000001E-6</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>3.139275</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>4.6400000000001995E-3</v>
+      </c>
+      <c r="J13">
+        <v>-2.6779199999999999E-3</v>
+      </c>
+      <c r="K13">
+        <v>-7.4386600000000004E-5</v>
+      </c>
+      <c r="M13" s="3">
+        <v>21960</v>
+      </c>
+      <c r="N13">
+        <v>17332</v>
+      </c>
+      <c r="O13">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="P13">
+        <v>3.1570100000000001</v>
+      </c>
+      <c r="S13" s="3">
+        <v>21960</v>
+      </c>
+      <c r="T13">
+        <v>3.139275</v>
+      </c>
+      <c r="U13">
+        <v>3.1570100000000001</v>
+      </c>
+      <c r="V13">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W13">
         <f t="shared" si="0"/>
-        <v>3.139275</v>
-      </c>
-      <c r="I13" s="3">
-        <f t="shared" si="1"/>
-        <v>4.6400000000001995E-3</v>
-      </c>
-      <c r="J13" s="3">
-        <v>-2.6779199999999999E-3</v>
-      </c>
-      <c r="K13" s="3">
-        <v>-7.4386600000000004E-5</v>
-      </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="5">
-        <v>21960</v>
-      </c>
-      <c r="N13" s="3">
-        <v>17332</v>
-      </c>
-      <c r="O13" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="P13" s="3">
-        <v>3.1570100000000001</v>
-      </c>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="5">
-        <v>21960</v>
-      </c>
-      <c r="T13" s="3">
-        <v>3.139275</v>
-      </c>
-      <c r="U13" s="3">
-        <v>3.1570100000000001</v>
-      </c>
-      <c r="V13" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="W13" s="3">
-        <f>T13-U13</f>
         <v>-1.7735000000000056E-2</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>23956</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>6.27766</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>0.99863100000000005</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14">
         <v>-7.8585600000000002E-6</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14">
         <v>-1.36936E-3</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14">
         <v>-7.8585600000000002E-6</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>3.13883</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>5.5300000000002569E-3</v>
+      </c>
+      <c r="J14">
+        <v>-3.96919E-3</v>
+      </c>
+      <c r="K14">
+        <v>-1.90735E-6</v>
+      </c>
+      <c r="M14" s="3">
+        <v>23956</v>
+      </c>
+      <c r="N14">
+        <v>18774</v>
+      </c>
+      <c r="O14">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="P14">
+        <v>3.1347499999999999</v>
+      </c>
+      <c r="S14" s="3">
+        <v>23956</v>
+      </c>
+      <c r="T14">
+        <v>3.13883</v>
+      </c>
+      <c r="U14">
+        <v>3.1347499999999999</v>
+      </c>
+      <c r="V14">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W14">
         <f t="shared" si="0"/>
-        <v>3.13883</v>
-      </c>
-      <c r="I14" s="3">
-        <f t="shared" si="1"/>
-        <v>5.5300000000002569E-3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>-3.96919E-3</v>
-      </c>
-      <c r="K14" s="3">
-        <v>-1.90735E-6</v>
-      </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="5">
-        <v>23956</v>
-      </c>
-      <c r="N14" s="3">
-        <v>18774</v>
-      </c>
-      <c r="O14" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="P14" s="3">
-        <v>3.1347499999999999</v>
-      </c>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="5">
-        <v>23956</v>
-      </c>
-      <c r="T14" s="3">
-        <v>3.13883</v>
-      </c>
-      <c r="U14" s="3">
-        <v>3.1347499999999999</v>
-      </c>
-      <c r="V14" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="W14" s="3">
-        <f>T14-U14</f>
         <v>4.0800000000000836E-3</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>25952</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>6.2852100000000002</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>1.0007600000000001</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15">
         <v>2.96606E-6</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15">
         <v>7.6183700000000002E-4</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15">
         <v>2.96606E-6</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>3.1426050000000001</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>-2.0199999999999108E-3</v>
+      </c>
+      <c r="J15">
+        <v>-3.2310500000000001E-3</v>
+      </c>
+      <c r="K15">
+        <v>-1.1444099999999999E-5</v>
+      </c>
+      <c r="M15" s="3">
+        <v>25952</v>
+      </c>
+      <c r="N15">
+        <v>20288</v>
+      </c>
+      <c r="O15">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="P15">
+        <v>3.1269999999999998</v>
+      </c>
+      <c r="S15" s="3">
+        <v>25952</v>
+      </c>
+      <c r="T15">
+        <v>3.1426050000000001</v>
+      </c>
+      <c r="U15">
+        <v>3.1269999999999998</v>
+      </c>
+      <c r="V15">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W15">
         <f t="shared" si="0"/>
-        <v>3.1426050000000001</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="1"/>
-        <v>-2.0199999999999108E-3</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-3.2310500000000001E-3</v>
-      </c>
-      <c r="K15" s="3">
-        <v>-1.1444099999999999E-5</v>
-      </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="5">
-        <v>25952</v>
-      </c>
-      <c r="N15" s="3">
-        <v>20288</v>
-      </c>
-      <c r="O15" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="P15" s="3">
-        <v>3.1269999999999998</v>
-      </c>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="5">
-        <v>25952</v>
-      </c>
-      <c r="T15" s="3">
-        <v>3.1426050000000001</v>
-      </c>
-      <c r="U15" s="3">
-        <v>3.1269999999999998</v>
-      </c>
-      <c r="V15" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="W15" s="3">
-        <f>T15-U15</f>
         <v>1.5605000000000313E-2</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>27948</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>6.2857000000000003</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>1.00071</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16">
         <v>-1.34704E-6</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16">
         <v>7.1210999999999996E-4</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16">
         <v>-1.34704E-6</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>3.1428500000000001</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>-2.5100000000000122E-3</v>
+      </c>
+      <c r="J16">
+        <v>-2.54631E-3</v>
+      </c>
+      <c r="K16">
+        <v>-2.8610199999999999E-5</v>
+      </c>
+      <c r="M16" s="3">
+        <v>27948</v>
+      </c>
+      <c r="N16">
+        <v>21817</v>
+      </c>
+      <c r="O16">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="P16">
+        <v>3.1225100000000001</v>
+      </c>
+      <c r="S16" s="3">
+        <v>27948</v>
+      </c>
+      <c r="T16">
+        <v>3.1428500000000001</v>
+      </c>
+      <c r="U16">
+        <v>3.1225100000000001</v>
+      </c>
+      <c r="V16">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W16">
         <f t="shared" si="0"/>
-        <v>3.1428500000000001</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" si="1"/>
-        <v>-2.5100000000000122E-3</v>
-      </c>
-      <c r="J16" s="3">
-        <v>-2.54631E-3</v>
-      </c>
-      <c r="K16" s="3">
-        <v>-2.8610199999999999E-5</v>
-      </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="5">
-        <v>27948</v>
-      </c>
-      <c r="N16" s="3">
-        <v>21817</v>
-      </c>
-      <c r="O16" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="P16" s="3">
-        <v>3.1225100000000001</v>
-      </c>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="5">
-        <v>27948</v>
-      </c>
-      <c r="T16" s="3">
-        <v>3.1428500000000001</v>
-      </c>
-      <c r="U16" s="3">
-        <v>3.1225100000000001</v>
-      </c>
-      <c r="V16" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="W16" s="3">
-        <f>T16-U16</f>
         <v>2.0340000000000025E-2</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>29944</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <v>6.2826899999999997</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>1.00065</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17">
         <v>1.9795E-7</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17">
         <v>6.6070099999999997E-4</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17">
         <v>1.9795E-7</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>3.1413449999999998</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>5.0000000000061107E-4</v>
+      </c>
+      <c r="J17">
+        <v>-1.9035300000000001E-3</v>
+      </c>
+      <c r="K17">
+        <v>-3.0517600000000001E-5</v>
+      </c>
+      <c r="M17" s="3">
+        <v>29944</v>
+      </c>
+      <c r="N17">
+        <v>23434</v>
+      </c>
+      <c r="O17">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="P17">
+        <v>3.1303800000000002</v>
+      </c>
+      <c r="S17" s="3">
+        <v>29944</v>
+      </c>
+      <c r="T17">
+        <v>3.1413449999999998</v>
+      </c>
+      <c r="U17">
+        <v>3.1303800000000002</v>
+      </c>
+      <c r="V17">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W17">
         <f t="shared" si="0"/>
-        <v>3.1413449999999998</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" si="1"/>
-        <v>5.0000000000061107E-4</v>
-      </c>
-      <c r="J17" s="3">
-        <v>-1.9035300000000001E-3</v>
-      </c>
-      <c r="K17" s="3">
-        <v>-3.0517600000000001E-5</v>
-      </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="5">
-        <v>29944</v>
-      </c>
-      <c r="N17" s="3">
-        <v>23434</v>
-      </c>
-      <c r="O17" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="P17" s="3">
-        <v>3.1303800000000002</v>
-      </c>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="5">
-        <v>29944</v>
-      </c>
-      <c r="T17" s="3">
-        <v>3.1413449999999998</v>
-      </c>
-      <c r="U17" s="3">
-        <v>3.1303800000000002</v>
-      </c>
-      <c r="V17" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="W17" s="3">
-        <f>T17-U17</f>
         <v>1.0964999999999669E-2</v>
       </c>
       <c r="Y17" t="s">
@@ -8943,70 +8877,67 @@
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>31940</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>6.28531</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>1.0006200000000001</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18">
         <v>7.6021700000000003E-6</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18">
         <v>6.2263900000000003E-4</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18">
         <v>7.6021700000000003E-6</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>3.142655</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>-2.1199999999996777E-3</v>
+      </c>
+      <c r="J18">
+        <v>-1.12915E-3</v>
+      </c>
+      <c r="K18">
+        <v>-3.4332300000000003E-5</v>
+      </c>
+      <c r="M18" s="3">
+        <v>31940</v>
+      </c>
+      <c r="N18">
+        <v>25144</v>
+      </c>
+      <c r="O18">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="P18">
+        <v>3.1488999999999998</v>
+      </c>
+      <c r="S18" s="3">
+        <v>31940</v>
+      </c>
+      <c r="T18">
+        <v>3.142655</v>
+      </c>
+      <c r="U18">
+        <v>3.1488999999999998</v>
+      </c>
+      <c r="V18">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W18">
         <f t="shared" si="0"/>
-        <v>3.142655</v>
-      </c>
-      <c r="I18" s="3">
-        <f t="shared" si="1"/>
-        <v>-2.1199999999996777E-3</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1.12915E-3</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-3.4332300000000003E-5</v>
-      </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="5">
-        <v>31940</v>
-      </c>
-      <c r="N18" s="3">
-        <v>25144</v>
-      </c>
-      <c r="O18" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="P18" s="3">
-        <v>3.1488999999999998</v>
-      </c>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="5">
-        <v>31940</v>
-      </c>
-      <c r="T18" s="3">
-        <v>3.142655</v>
-      </c>
-      <c r="U18" s="3">
-        <v>3.1488999999999998</v>
-      </c>
-      <c r="V18" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="W18" s="3">
-        <f>T18-U18</f>
         <v>-6.244999999999834E-3</v>
       </c>
       <c r="Y18" t="s">
@@ -9014,2315 +8945,2213 @@
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>33936</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
         <v>6.2831099999999998</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19">
         <v>1.00058</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19">
         <v>-2.2929000000000001E-6</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19">
         <v>5.8675600000000002E-4</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19">
         <v>-2.2929000000000001E-6</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>3.1415549999999999</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>8.0000000000524096E-5</v>
+      </c>
+      <c r="J19">
+        <v>-3.7765500000000002E-4</v>
+      </c>
+      <c r="K19">
+        <v>-6.8664600000000007E-5</v>
+      </c>
+      <c r="M19" s="3">
+        <v>33936</v>
+      </c>
+      <c r="N19">
+        <v>26725</v>
+      </c>
+      <c r="O19">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="P19">
+        <v>3.1500499999999998</v>
+      </c>
+      <c r="S19" s="3">
+        <v>33936</v>
+      </c>
+      <c r="T19">
+        <v>3.1415549999999999</v>
+      </c>
+      <c r="U19">
+        <v>3.1500499999999998</v>
+      </c>
+      <c r="V19">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W19">
         <f t="shared" si="0"/>
-        <v>3.1415549999999999</v>
-      </c>
-      <c r="I19" s="3">
-        <f t="shared" si="1"/>
-        <v>8.0000000000524096E-5</v>
-      </c>
-      <c r="J19" s="3">
-        <v>-3.7765500000000002E-4</v>
-      </c>
-      <c r="K19" s="3">
-        <v>-6.8664600000000007E-5</v>
-      </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="5">
-        <v>33936</v>
-      </c>
-      <c r="N19" s="3">
-        <v>26725</v>
-      </c>
-      <c r="O19" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="P19" s="3">
-        <v>3.1500499999999998</v>
-      </c>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="5">
-        <v>33936</v>
-      </c>
-      <c r="T19" s="3">
-        <v>3.1415549999999999</v>
-      </c>
-      <c r="U19" s="3">
-        <v>3.1500499999999998</v>
-      </c>
-      <c r="V19" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="W19" s="3">
-        <f>T19-U19</f>
         <v>-8.4949999999999193E-3</v>
       </c>
       <c r="AE19" s="1"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>35932</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20">
         <v>6.2865099999999998</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20">
         <v>1.0005500000000001</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20">
         <v>-2.69308E-6</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20">
         <v>5.4021400000000002E-4</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20">
         <v>-2.69308E-6</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>3.1432549999999999</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>-3.3199999999995455E-3</v>
+      </c>
+      <c r="J20">
+        <v>1.7547600000000001E-4</v>
+      </c>
+      <c r="K20">
+        <v>-8.0108600000000001E-5</v>
+      </c>
+      <c r="M20" s="3">
+        <v>35932</v>
+      </c>
+      <c r="N20">
+        <v>28183</v>
+      </c>
+      <c r="O20">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="P20">
+        <v>3.1373700000000002</v>
+      </c>
+      <c r="S20" s="3">
+        <v>35932</v>
+      </c>
+      <c r="T20">
+        <v>3.1432549999999999</v>
+      </c>
+      <c r="U20">
+        <v>3.1373700000000002</v>
+      </c>
+      <c r="V20">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W20">
         <f t="shared" si="0"/>
-        <v>3.1432549999999999</v>
-      </c>
-      <c r="I20" s="3">
-        <f t="shared" si="1"/>
-        <v>-3.3199999999995455E-3</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1.7547600000000001E-4</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-8.0108600000000001E-5</v>
-      </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="5">
-        <v>35932</v>
-      </c>
-      <c r="N20" s="3">
-        <v>28183</v>
-      </c>
-      <c r="O20" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="P20" s="3">
-        <v>3.1373700000000002</v>
-      </c>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="5">
-        <v>35932</v>
-      </c>
-      <c r="T20" s="3">
-        <v>3.1432549999999999</v>
-      </c>
-      <c r="U20" s="3">
-        <v>3.1373700000000002</v>
-      </c>
-      <c r="V20" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="W20" s="3">
-        <f>T20-U20</f>
         <v>5.884999999999696E-3</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>37928</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21">
         <v>6.2876399999999997</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21">
         <v>1.0005200000000001</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21">
         <v>1.3872299999999999E-7</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21">
         <v>5.1409399999999999E-4</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21">
         <v>1.3872299999999999E-7</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>3.1438199999999998</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>-4.4499999999993989E-3</v>
+      </c>
+      <c r="J21">
+        <v>6.2560999999999997E-4</v>
+      </c>
+      <c r="K21">
+        <v>-8.3923299999999997E-5</v>
+      </c>
+      <c r="M21" s="3">
+        <v>37928</v>
+      </c>
+      <c r="N21">
+        <v>29724</v>
+      </c>
+      <c r="O21">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="P21">
+        <v>3.1347800000000001</v>
+      </c>
+      <c r="S21" s="3">
+        <v>37928</v>
+      </c>
+      <c r="T21">
+        <v>3.1438199999999998</v>
+      </c>
+      <c r="U21">
+        <v>3.1347800000000001</v>
+      </c>
+      <c r="V21">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W21">
         <f t="shared" si="0"/>
-        <v>3.1438199999999998</v>
-      </c>
-      <c r="I21" s="3">
-        <f t="shared" si="1"/>
-        <v>-4.4499999999993989E-3</v>
-      </c>
-      <c r="J21" s="3">
-        <v>6.2560999999999997E-4</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-8.3923299999999997E-5</v>
-      </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="5">
-        <v>37928</v>
-      </c>
-      <c r="N21" s="3">
-        <v>29724</v>
-      </c>
-      <c r="O21" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="P21" s="3">
-        <v>3.1347800000000001</v>
-      </c>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="5">
-        <v>37928</v>
-      </c>
-      <c r="T21" s="3">
-        <v>3.1438199999999998</v>
-      </c>
-      <c r="U21" s="3">
-        <v>3.1347800000000001</v>
-      </c>
-      <c r="V21" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="W21" s="3">
-        <f>T21-U21</f>
         <v>9.0399999999997149E-3</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>39924</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22">
         <v>6.2823799999999999</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22">
         <v>1.0004999999999999</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22">
         <v>-1.6773E-6</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22">
         <v>5.0215199999999996E-4</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22">
         <v>-1.6773E-6</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>3.1411899999999999</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>8.1000000000042149E-4</v>
+      </c>
+      <c r="J22">
+        <v>1.0528600000000001E-3</v>
+      </c>
+      <c r="K22">
+        <v>-8.0108600000000001E-5</v>
+      </c>
+      <c r="M22" s="3">
+        <v>39924</v>
+      </c>
+      <c r="N22">
+        <v>31384</v>
+      </c>
+      <c r="O22">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="P22">
+        <v>3.1443699999999999</v>
+      </c>
+      <c r="S22" s="3">
+        <v>39924</v>
+      </c>
+      <c r="T22">
+        <v>3.1411899999999999</v>
+      </c>
+      <c r="U22">
+        <v>3.1443699999999999</v>
+      </c>
+      <c r="V22">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W22">
         <f t="shared" si="0"/>
-        <v>3.1411899999999999</v>
-      </c>
-      <c r="I22" s="3">
-        <f t="shared" si="1"/>
-        <v>8.1000000000042149E-4</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1.0528600000000001E-3</v>
-      </c>
-      <c r="K22" s="3">
-        <v>-8.0108600000000001E-5</v>
-      </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="5">
-        <v>39924</v>
-      </c>
-      <c r="N22" s="3">
-        <v>31384</v>
-      </c>
-      <c r="O22" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="P22" s="3">
-        <v>3.1443699999999999</v>
-      </c>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="5">
-        <v>39924</v>
-      </c>
-      <c r="T22" s="3">
-        <v>3.1411899999999999</v>
-      </c>
-      <c r="U22" s="3">
-        <v>3.1443699999999999</v>
-      </c>
-      <c r="V22" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="W22" s="3">
-        <f>T22-U22</f>
         <v>-3.1799999999999606E-3</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>41920</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23">
         <v>6.2816200000000002</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23">
         <v>1.00047</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23">
         <v>-3.61231E-6</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23">
         <v>4.7470699999999999E-4</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23">
         <v>-3.61231E-6</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>3.1408100000000001</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>1.5700000000000713E-3</v>
+      </c>
+      <c r="J23">
+        <v>1.4457700000000001E-3</v>
+      </c>
+      <c r="K23">
+        <v>-7.6293900000000005E-5</v>
+      </c>
+      <c r="M23" s="3">
+        <v>41920</v>
+      </c>
+      <c r="N23">
+        <v>32841</v>
+      </c>
+      <c r="O23">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="P23">
+        <v>3.13368</v>
+      </c>
+      <c r="S23" s="3">
+        <v>41920</v>
+      </c>
+      <c r="T23">
+        <v>3.1408100000000001</v>
+      </c>
+      <c r="U23">
+        <v>3.13368</v>
+      </c>
+      <c r="V23">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W23">
         <f t="shared" si="0"/>
-        <v>3.1408100000000001</v>
-      </c>
-      <c r="I23" s="3">
-        <f t="shared" si="1"/>
-        <v>1.5700000000000713E-3</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1.4457700000000001E-3</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-7.6293900000000005E-5</v>
-      </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="5">
-        <v>41920</v>
-      </c>
-      <c r="N23" s="3">
-        <v>32841</v>
-      </c>
-      <c r="O23" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="P23" s="3">
-        <v>3.13368</v>
-      </c>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="5">
-        <v>41920</v>
-      </c>
-      <c r="T23" s="3">
-        <v>3.1408100000000001</v>
-      </c>
-      <c r="U23" s="3">
-        <v>3.13368</v>
-      </c>
-      <c r="V23" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="W23" s="3">
-        <f>T23-U23</f>
         <v>7.1300000000000807E-3</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>43916</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24">
         <v>6.2822800000000001</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24">
         <v>1.0004500000000001</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24">
         <v>1.30059E-6</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24">
         <v>4.52111E-4</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24">
         <v>1.30059E-6</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>3.14114</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>9.1000000000018844E-4</v>
+      </c>
+      <c r="J24">
+        <v>2.2697400000000001E-3</v>
+      </c>
+      <c r="K24">
+        <v>-1.6403199999999999E-4</v>
+      </c>
+      <c r="M24" s="3">
+        <v>43916</v>
+      </c>
+      <c r="N24">
+        <v>34543</v>
+      </c>
+      <c r="O24">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="P24">
+        <v>3.14628</v>
+      </c>
+      <c r="S24" s="3">
+        <v>43916</v>
+      </c>
+      <c r="T24">
+        <v>3.14114</v>
+      </c>
+      <c r="U24">
+        <v>3.14628</v>
+      </c>
+      <c r="V24">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W24">
         <f t="shared" si="0"/>
-        <v>3.14114</v>
-      </c>
-      <c r="I24" s="3">
-        <f t="shared" si="1"/>
-        <v>9.1000000000018844E-4</v>
-      </c>
-      <c r="J24" s="3">
-        <v>2.2697400000000001E-3</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-1.6403199999999999E-4</v>
-      </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="5">
-        <v>43916</v>
-      </c>
-      <c r="N24" s="3">
-        <v>34543</v>
-      </c>
-      <c r="O24" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="P24" s="3">
-        <v>3.14628</v>
-      </c>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="5">
-        <v>43916</v>
-      </c>
-      <c r="T24" s="3">
-        <v>3.14114</v>
-      </c>
-      <c r="U24" s="3">
-        <v>3.14628</v>
-      </c>
-      <c r="V24" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="W24" s="3">
-        <f>T24-U24</f>
         <v>-5.1399999999999224E-3</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <v>45912</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25">
         <v>6.2830199999999996</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25">
         <v>1.0004299999999999</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25">
         <v>-2.8753100000000001E-6</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25">
         <v>4.2474500000000003E-4</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25">
         <v>-2.8753100000000001E-6</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>3.1415099999999998</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>1.7000000000066962E-4</v>
+      </c>
+      <c r="J25">
+        <v>2.6817299999999998E-3</v>
+      </c>
+      <c r="K25">
+        <v>-1.4495799999999999E-4</v>
+      </c>
+      <c r="M25" s="3">
+        <v>45912</v>
+      </c>
+      <c r="N25">
+        <v>36061</v>
+      </c>
+      <c r="O25">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="P25">
+        <v>3.14175</v>
+      </c>
+      <c r="S25" s="3">
+        <v>45912</v>
+      </c>
+      <c r="T25">
+        <v>3.1415099999999998</v>
+      </c>
+      <c r="U25">
+        <v>3.14175</v>
+      </c>
+      <c r="V25">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W25">
         <f t="shared" si="0"/>
-        <v>3.1415099999999998</v>
-      </c>
-      <c r="I25" s="3">
-        <f t="shared" si="1"/>
-        <v>1.7000000000066962E-4</v>
-      </c>
-      <c r="J25" s="3">
-        <v>2.6817299999999998E-3</v>
-      </c>
-      <c r="K25" s="3">
-        <v>-1.4495799999999999E-4</v>
-      </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="5">
-        <v>45912</v>
-      </c>
-      <c r="N25" s="3">
-        <v>36061</v>
-      </c>
-      <c r="O25" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="P25" s="3">
-        <v>3.14175</v>
-      </c>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="5">
-        <v>45912</v>
-      </c>
-      <c r="T25" s="3">
-        <v>3.1415099999999998</v>
-      </c>
-      <c r="U25" s="3">
-        <v>3.14175</v>
-      </c>
-      <c r="V25" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="W25" s="3">
-        <f>T25-U25</f>
         <v>-2.4000000000024002E-4</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="A26" s="3">
         <v>47908</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26">
         <v>6.2821600000000002</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26">
         <v>1.00041</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26">
         <v>-2.1577600000000001E-6</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26">
         <v>4.1385400000000001E-4</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26">
         <v>-2.1577600000000001E-6</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>3.1410800000000001</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>1.0300000000000864E-3</v>
+      </c>
+      <c r="J26">
+        <v>3.0136099999999999E-3</v>
+      </c>
+      <c r="K26">
+        <v>-1.37329E-4</v>
+      </c>
+      <c r="M26" s="3">
+        <v>47908</v>
+      </c>
+      <c r="N26">
+        <v>37621</v>
+      </c>
+      <c r="O26">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="P26">
+        <v>3.1410999999999998</v>
+      </c>
+      <c r="S26" s="3">
+        <v>47908</v>
+      </c>
+      <c r="T26">
+        <v>3.1410800000000001</v>
+      </c>
+      <c r="U26">
+        <v>3.1410999999999998</v>
+      </c>
+      <c r="V26">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W26">
         <f t="shared" si="0"/>
-        <v>3.1410800000000001</v>
-      </c>
-      <c r="I26" s="3">
-        <f t="shared" si="1"/>
-        <v>1.0300000000000864E-3</v>
-      </c>
-      <c r="J26" s="3">
-        <v>3.0136099999999999E-3</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-1.37329E-4</v>
-      </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="5">
-        <v>47908</v>
-      </c>
-      <c r="N26" s="3">
-        <v>37621</v>
-      </c>
-      <c r="O26" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="P26" s="3">
-        <v>3.1410999999999998</v>
-      </c>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="5">
-        <v>47908</v>
-      </c>
-      <c r="T26" s="3">
-        <v>3.1410800000000001</v>
-      </c>
-      <c r="U26" s="3">
-        <v>3.1410999999999998</v>
-      </c>
-      <c r="V26" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="W26" s="3">
-        <f>T26-U26</f>
         <v>-1.9999999999686935E-5</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>49904</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27">
         <v>6.2821400000000001</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27">
         <v>1.0004</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27">
         <v>1.8626500000000001E-7</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27">
         <v>3.9437499999999998E-4</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27">
         <v>1.8626500000000001E-7</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>3.14107</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>1.0500000000002174E-3</v>
+      </c>
+      <c r="J27">
+        <v>3.3836399999999998E-3</v>
+      </c>
+      <c r="K27">
+        <v>-1.2970000000000001E-4</v>
+      </c>
+      <c r="M27" s="3">
+        <v>49904</v>
+      </c>
+      <c r="N27">
+        <v>39122</v>
+      </c>
+      <c r="O27">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="P27">
+        <v>3.13578</v>
+      </c>
+      <c r="S27" s="3">
+        <v>49904</v>
+      </c>
+      <c r="T27">
+        <v>3.14107</v>
+      </c>
+      <c r="U27">
+        <v>3.13578</v>
+      </c>
+      <c r="V27">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W27">
         <f t="shared" si="0"/>
-        <v>3.14107</v>
-      </c>
-      <c r="I27" s="3">
-        <f t="shared" si="1"/>
-        <v>1.0500000000002174E-3</v>
-      </c>
-      <c r="J27" s="3">
-        <v>3.3836399999999998E-3</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-1.2970000000000001E-4</v>
-      </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="5">
-        <v>49904</v>
-      </c>
-      <c r="N27" s="3">
-        <v>39122</v>
-      </c>
-      <c r="O27" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="P27" s="3">
-        <v>3.13578</v>
-      </c>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="5">
-        <v>49904</v>
-      </c>
-      <c r="T27" s="3">
-        <v>3.14107</v>
-      </c>
-      <c r="U27" s="3">
-        <v>3.13578</v>
-      </c>
-      <c r="V27" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="W27" s="3">
-        <f>T27-U27</f>
         <v>5.2900000000000169E-3</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="A28" s="3">
         <v>51900</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28">
         <v>6.2853599999999998</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28">
         <v>1.00038</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28">
         <v>1.6412400000000001E-6</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28">
         <v>3.8168300000000001E-4</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28">
         <v>1.6412400000000001E-6</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>3.1426799999999999</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>-2.1699999999995612E-3</v>
+      </c>
+      <c r="J28">
+        <v>3.7536599999999998E-3</v>
+      </c>
+      <c r="K28">
+        <v>-1.2588500000000001E-4</v>
+      </c>
+      <c r="M28" s="3">
+        <v>51900</v>
+      </c>
+      <c r="N28">
+        <v>40841</v>
+      </c>
+      <c r="O28">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="P28">
+        <v>3.1476700000000002</v>
+      </c>
+      <c r="S28" s="3">
+        <v>51900</v>
+      </c>
+      <c r="T28">
+        <v>3.1426799999999999</v>
+      </c>
+      <c r="U28">
+        <v>3.1476700000000002</v>
+      </c>
+      <c r="V28">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W28">
         <f t="shared" si="0"/>
-        <v>3.1426799999999999</v>
-      </c>
-      <c r="I28" s="3">
-        <f t="shared" si="1"/>
-        <v>-2.1699999999995612E-3</v>
-      </c>
-      <c r="J28" s="3">
-        <v>3.7536599999999998E-3</v>
-      </c>
-      <c r="K28" s="3">
-        <v>-1.2588500000000001E-4</v>
-      </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="5">
-        <v>51900</v>
-      </c>
-      <c r="N28" s="3">
-        <v>40841</v>
-      </c>
-      <c r="O28" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="P28" s="3">
-        <v>3.1476700000000002</v>
-      </c>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="5">
-        <v>51900</v>
-      </c>
-      <c r="T28" s="3">
-        <v>3.1426799999999999</v>
-      </c>
-      <c r="U28" s="3">
-        <v>3.1476700000000002</v>
-      </c>
-      <c r="V28" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="W28" s="3">
-        <f>T28-U28</f>
         <v>-4.990000000000272E-3</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="A29" s="3">
         <v>53896</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29">
         <v>6.2881</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29">
         <v>1.00037</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29">
         <v>8.2925499999999997E-7</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29">
         <v>3.5952500000000002E-4</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29">
         <v>8.2925499999999997E-7</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>3.14405</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>-4.9099999999997479E-3</v>
+      </c>
+      <c r="J29">
+        <v>4.2381299999999997E-3</v>
+      </c>
+      <c r="K29">
+        <v>-1.33514E-4</v>
+      </c>
+      <c r="M29" s="3">
+        <v>53896</v>
+      </c>
+      <c r="N29">
+        <v>42483</v>
+      </c>
+      <c r="O29">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="P29">
+        <v>3.1529600000000002</v>
+      </c>
+      <c r="S29" s="3">
+        <v>53896</v>
+      </c>
+      <c r="T29">
+        <v>3.14405</v>
+      </c>
+      <c r="U29">
+        <v>3.1529600000000002</v>
+      </c>
+      <c r="V29">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W29">
         <f t="shared" si="0"/>
-        <v>3.14405</v>
-      </c>
-      <c r="I29" s="3">
-        <f t="shared" si="1"/>
-        <v>-4.9099999999997479E-3</v>
-      </c>
-      <c r="J29" s="3">
-        <v>4.2381299999999997E-3</v>
-      </c>
-      <c r="K29" s="3">
-        <v>-1.33514E-4</v>
-      </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="5">
-        <v>53896</v>
-      </c>
-      <c r="N29" s="3">
-        <v>42483</v>
-      </c>
-      <c r="O29" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="P29" s="3">
-        <v>3.1529600000000002</v>
-      </c>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="5">
-        <v>53896</v>
-      </c>
-      <c r="T29" s="3">
-        <v>3.14405</v>
-      </c>
-      <c r="U29" s="3">
-        <v>3.1529600000000002</v>
-      </c>
-      <c r="V29" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="W29" s="3">
-        <f>T29-U29</f>
         <v>-8.9100000000001955E-3</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="A30" s="3">
         <v>55892</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30">
         <v>6.28749</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30">
         <v>1.0003500000000001</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30">
         <v>2.2538599999999999E-6</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30">
         <v>3.4879300000000002E-4</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30">
         <v>2.2538599999999999E-6</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>3.143745</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>-4.2999999999997485E-3</v>
+      </c>
+      <c r="J30">
+        <v>4.5280499999999996E-3</v>
+      </c>
+      <c r="K30">
+        <v>-1.2207E-4</v>
+      </c>
+      <c r="M30" s="3">
+        <v>55892</v>
+      </c>
+      <c r="N30">
+        <v>43856</v>
+      </c>
+      <c r="O30">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="P30">
+        <v>3.13862</v>
+      </c>
+      <c r="S30" s="3">
+        <v>55892</v>
+      </c>
+      <c r="T30">
+        <v>3.143745</v>
+      </c>
+      <c r="U30">
+        <v>3.13862</v>
+      </c>
+      <c r="V30">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W30">
         <f t="shared" si="0"/>
-        <v>3.143745</v>
-      </c>
-      <c r="I30" s="3">
-        <f t="shared" si="1"/>
-        <v>-4.2999999999997485E-3</v>
-      </c>
-      <c r="J30" s="3">
-        <v>4.5280499999999996E-3</v>
-      </c>
-      <c r="K30" s="3">
-        <v>-1.2207E-4</v>
-      </c>
-      <c r="L30" s="3"/>
-      <c r="M30" s="5">
-        <v>55892</v>
-      </c>
-      <c r="N30" s="3">
-        <v>43856</v>
-      </c>
-      <c r="O30" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="P30" s="3">
-        <v>3.13862</v>
-      </c>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="5">
-        <v>55892</v>
-      </c>
-      <c r="T30" s="3">
-        <v>3.143745</v>
-      </c>
-      <c r="U30" s="3">
-        <v>3.13862</v>
-      </c>
-      <c r="V30" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="W30" s="3">
-        <f>T30-U30</f>
         <v>5.1250000000000462E-3</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+      <c r="A31" s="3">
         <v>57888</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31">
         <v>6.28627</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31">
         <v>1.00034</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31">
         <v>2.7855299999999998E-6</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31">
         <v>3.4409399999999998E-4</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31">
         <v>2.7855299999999998E-6</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>3.143135</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>-3.0799999999997496E-3</v>
+      </c>
+      <c r="J31">
+        <v>4.8255900000000003E-3</v>
+      </c>
+      <c r="K31">
+        <v>-1.33514E-4</v>
+      </c>
+      <c r="M31" s="3">
+        <v>57888</v>
+      </c>
+      <c r="N31">
+        <v>45680</v>
+      </c>
+      <c r="O31">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="P31">
+        <v>3.1564399999999999</v>
+      </c>
+      <c r="S31" s="3">
+        <v>57888</v>
+      </c>
+      <c r="T31">
+        <v>3.143135</v>
+      </c>
+      <c r="U31">
+        <v>3.1564399999999999</v>
+      </c>
+      <c r="V31">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W31">
         <f t="shared" si="0"/>
-        <v>3.143135</v>
-      </c>
-      <c r="I31" s="3">
-        <f t="shared" si="1"/>
-        <v>-3.0799999999997496E-3</v>
-      </c>
-      <c r="J31" s="3">
-        <v>4.8255900000000003E-3</v>
-      </c>
-      <c r="K31" s="3">
-        <v>-1.33514E-4</v>
-      </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="5">
-        <v>57888</v>
-      </c>
-      <c r="N31" s="3">
-        <v>45680</v>
-      </c>
-      <c r="O31" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="P31" s="3">
-        <v>3.1564399999999999</v>
-      </c>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="5">
-        <v>57888</v>
-      </c>
-      <c r="T31" s="3">
-        <v>3.143135</v>
-      </c>
-      <c r="U31" s="3">
-        <v>3.1564399999999999</v>
-      </c>
-      <c r="V31" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="W31" s="3">
-        <f>T31-U31</f>
         <v>-1.33049999999999E-2</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+      <c r="A32" s="3">
         <v>59884</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32">
         <v>6.2820900000000002</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32">
         <v>1.0003299999999999</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32">
         <v>-7.8360599999999996E-7</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32">
         <v>3.31405E-4</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32">
         <v>-7.8360599999999996E-7</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>3.1410450000000001</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>1.1000000000001009E-3</v>
+      </c>
+      <c r="J32">
+        <v>5.5618300000000002E-3</v>
+      </c>
+      <c r="K32">
+        <v>-2.02179E-4</v>
+      </c>
+      <c r="M32" s="3">
+        <v>59884</v>
+      </c>
+      <c r="N32">
+        <v>47013</v>
+      </c>
+      <c r="O32">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="P32">
+        <v>3.1402700000000001</v>
+      </c>
+      <c r="S32" s="3">
+        <v>59884</v>
+      </c>
+      <c r="T32">
+        <v>3.1410450000000001</v>
+      </c>
+      <c r="U32">
+        <v>3.1402700000000001</v>
+      </c>
+      <c r="V32">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W32">
         <f t="shared" si="0"/>
-        <v>3.1410450000000001</v>
-      </c>
-      <c r="I32" s="3">
-        <f t="shared" si="1"/>
-        <v>1.1000000000001009E-3</v>
-      </c>
-      <c r="J32" s="3">
-        <v>5.5618300000000002E-3</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-2.02179E-4</v>
-      </c>
-      <c r="L32" s="3"/>
-      <c r="M32" s="5">
-        <v>59884</v>
-      </c>
-      <c r="N32" s="3">
-        <v>47013</v>
-      </c>
-      <c r="O32" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="P32" s="3">
-        <v>3.1402700000000001</v>
-      </c>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="5">
-        <v>59884</v>
-      </c>
-      <c r="T32" s="3">
-        <v>3.1410450000000001</v>
-      </c>
-      <c r="U32" s="3">
-        <v>3.1402700000000001</v>
-      </c>
-      <c r="V32" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="W32" s="3">
-        <f>T32-U32</f>
         <v>7.7499999999997016E-4</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+      <c r="A33" s="3">
         <v>61880</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33">
         <v>6.2846799999999998</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33">
         <v>1.0003200000000001</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33">
         <v>-1.7043600000000001E-6</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33">
         <v>3.1897300000000001E-4</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33">
         <v>-1.7043600000000001E-6</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>3.1423399999999999</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>-1.4899999999995472E-3</v>
+      </c>
+      <c r="J33">
+        <v>5.9318499999999998E-3</v>
+      </c>
+      <c r="K33">
+        <v>-2.2125199999999999E-4</v>
+      </c>
+      <c r="M33" s="3">
+        <v>61880</v>
+      </c>
+      <c r="N33">
+        <v>48649</v>
+      </c>
+      <c r="O33">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="P33">
+        <v>3.14473</v>
+      </c>
+      <c r="S33" s="3">
+        <v>61880</v>
+      </c>
+      <c r="T33">
+        <v>3.1423399999999999</v>
+      </c>
+      <c r="U33">
+        <v>3.14473</v>
+      </c>
+      <c r="V33">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="W33">
         <f t="shared" si="0"/>
-        <v>3.1423399999999999</v>
-      </c>
-      <c r="I33" s="3">
-        <f t="shared" si="1"/>
-        <v>-1.4899999999995472E-3</v>
-      </c>
-      <c r="J33" s="3">
-        <v>5.9318499999999998E-3</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-2.2125199999999999E-4</v>
-      </c>
-      <c r="L33" s="3"/>
-      <c r="M33" s="5">
-        <v>61880</v>
-      </c>
-      <c r="N33" s="3">
-        <v>48649</v>
-      </c>
-      <c r="O33" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="P33" s="3">
-        <v>3.14473</v>
-      </c>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="5">
-        <v>61880</v>
-      </c>
-      <c r="T33" s="3">
-        <v>3.1423399999999999</v>
-      </c>
-      <c r="U33" s="3">
-        <v>3.14473</v>
-      </c>
-      <c r="V33" s="3">
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="W33" s="3">
-        <f>T33-U33</f>
         <v>-2.3900000000001143E-3</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+      <c r="A34" s="3">
         <v>63876</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34">
         <v>6.2817299999999996</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34">
         <v>1.00031</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34">
         <v>4.4136399999999998E-6</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34">
         <v>3.0676800000000001E-4</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34">
         <v>4.4136399999999998E-6</v>
       </c>
-      <c r="H34" s="3">
-        <f t="shared" si="0"/>
+      <c r="H34">
+        <f t="shared" si="1"/>
         <v>3.1408649999999998</v>
       </c>
-      <c r="I34" s="3">
-        <f t="shared" si="1"/>
+      <c r="I34">
+        <f t="shared" si="2"/>
         <v>1.460000000000683E-3</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34">
         <v>6.3095099999999999E-3</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34">
         <v>-2.2888199999999999E-4</v>
       </c>
-      <c r="L34" s="3"/>
-      <c r="M34" s="5">
+      <c r="M34" s="3">
         <v>63876</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N34">
         <v>50228</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O34">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P34" s="3">
+      <c r="P34">
         <v>3.14534</v>
       </c>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="5">
+      <c r="S34" s="3">
         <v>63876</v>
       </c>
-      <c r="T34" s="3">
+      <c r="T34">
         <v>3.1408649999999998</v>
       </c>
-      <c r="U34" s="3">
+      <c r="U34">
         <v>3.14534</v>
       </c>
-      <c r="V34" s="3">
+      <c r="V34">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W34" s="3">
-        <f>T34-U34</f>
+      <c r="W34">
+        <f t="shared" ref="W34:W52" si="3">T34-U34</f>
         <v>-4.4750000000002288E-3</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+      <c r="A35" s="3">
         <v>65872</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35">
         <v>6.28207</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35">
         <v>1.0003</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35">
         <v>-9.8602299999999996E-7</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35">
         <v>2.9760799999999999E-4</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35">
         <v>-9.8602299999999996E-7</v>
       </c>
-      <c r="H35" s="3">
-        <f t="shared" si="0"/>
+      <c r="H35">
+        <f t="shared" si="1"/>
         <v>3.141035</v>
       </c>
-      <c r="I35" s="3">
-        <f t="shared" si="1"/>
+      <c r="I35">
+        <f t="shared" si="2"/>
         <v>1.1200000000002319E-3</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35">
         <v>7.46155E-3</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35">
         <v>-3.4332299999999998E-4</v>
       </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="5">
+      <c r="M35" s="3">
         <v>65872</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35">
         <v>51650</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35">
         <v>3.13639</v>
       </c>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="5">
+      <c r="S35" s="3">
         <v>65872</v>
       </c>
-      <c r="T35" s="3">
+      <c r="T35">
         <v>3.141035</v>
       </c>
-      <c r="U35" s="3">
+      <c r="U35">
         <v>3.13639</v>
       </c>
-      <c r="V35" s="3">
+      <c r="V35">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W35" s="3">
-        <f>T35-U35</f>
+      <c r="W35">
+        <f t="shared" si="3"/>
         <v>4.6450000000000102E-3</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+      <c r="A36" s="3">
         <v>67868</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36">
         <v>6.2801600000000004</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36">
         <v>1.0002899999999999</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36">
         <v>2.6113400000000001E-7</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36">
         <v>2.9270300000000001E-4</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36">
         <v>2.6113400000000001E-7</v>
       </c>
-      <c r="H36" s="3">
-        <f t="shared" si="0"/>
+      <c r="H36">
+        <f t="shared" si="1"/>
         <v>3.1400800000000002</v>
       </c>
-      <c r="I36" s="3">
-        <f t="shared" si="1"/>
+      <c r="I36">
+        <f t="shared" si="2"/>
         <v>3.0299999999998661E-3</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36">
         <v>7.7133200000000001E-3</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36">
         <v>-3.2806399999999998E-4</v>
       </c>
-      <c r="L36" s="3"/>
-      <c r="M36" s="5">
+      <c r="M36" s="3">
         <v>67868</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N36">
         <v>53380</v>
       </c>
-      <c r="O36" s="3">
+      <c r="O36">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P36" s="3">
+      <c r="P36">
         <v>3.1461100000000002</v>
       </c>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="5">
+      <c r="S36" s="3">
         <v>67868</v>
       </c>
-      <c r="T36" s="3">
+      <c r="T36">
         <v>3.1400800000000002</v>
       </c>
-      <c r="U36" s="3">
+      <c r="U36">
         <v>3.1461100000000002</v>
       </c>
-      <c r="V36" s="3">
+      <c r="V36">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W36" s="3">
-        <f>T36-U36</f>
+      <c r="W36">
+        <f t="shared" si="3"/>
         <v>-6.0299999999999798E-3</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+      <c r="A37" s="3">
         <v>69864</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37">
         <v>6.2862299999999998</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37">
         <v>1.0002899999999999</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37">
         <v>-2.5676900000000001E-7</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37">
         <v>2.9816400000000001E-4</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37">
         <v>-2.5676900000000001E-7</v>
       </c>
-      <c r="H37" s="3">
-        <f t="shared" si="0"/>
+      <c r="H37">
+        <f t="shared" si="1"/>
         <v>3.1431149999999999</v>
       </c>
-      <c r="I37" s="3">
-        <f t="shared" si="1"/>
+      <c r="I37">
+        <f t="shared" si="2"/>
         <v>-3.0399999999994876E-3</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37">
         <v>7.9956100000000002E-3</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37">
         <v>-3.3569300000000003E-4</v>
       </c>
-      <c r="L37" s="3"/>
-      <c r="M37" s="5">
+      <c r="M37" s="3">
         <v>69864</v>
       </c>
-      <c r="N37" s="3">
+      <c r="N37">
         <v>54733</v>
       </c>
-      <c r="O37" s="3">
+      <c r="O37">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P37" s="3">
+      <c r="P37">
         <v>3.1336900000000001</v>
       </c>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="5">
+      <c r="S37" s="3">
         <v>69864</v>
       </c>
-      <c r="T37" s="3">
+      <c r="T37">
         <v>3.1431149999999999</v>
       </c>
-      <c r="U37" s="3">
+      <c r="U37">
         <v>3.1336900000000001</v>
       </c>
-      <c r="V37" s="3">
+      <c r="V37">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W37" s="3">
-        <f>T37-U37</f>
+      <c r="W37">
+        <f t="shared" si="3"/>
         <v>9.4249999999997947E-3</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+      <c r="A38" s="3">
         <v>71860</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38">
         <v>6.2807199999999996</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38">
         <v>1.0002800000000001</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38">
         <v>-4.1162999999999999E-7</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38">
         <v>2.80673E-4</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38">
         <v>-4.1162999999999999E-7</v>
       </c>
-      <c r="H38" s="3">
-        <f t="shared" si="0"/>
+      <c r="H38">
+        <f t="shared" si="1"/>
         <v>3.1403599999999998</v>
       </c>
-      <c r="I38" s="3">
-        <f t="shared" si="1"/>
+      <c r="I38">
+        <f t="shared" si="2"/>
         <v>2.4700000000006384E-3</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38">
         <v>8.2015999999999999E-3</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38">
         <v>-3.0517599999999999E-4</v>
       </c>
-      <c r="L38" s="3"/>
-      <c r="M38" s="5">
+      <c r="M38" s="3">
         <v>71860</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N38">
         <v>56194</v>
       </c>
-      <c r="O38" s="3">
+      <c r="O38">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P38" s="3">
+      <c r="P38">
         <v>3.1279699999999999</v>
       </c>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="5">
+      <c r="S38" s="3">
         <v>71860</v>
       </c>
-      <c r="T38" s="3">
+      <c r="T38">
         <v>3.1403599999999998</v>
       </c>
-      <c r="U38" s="3">
+      <c r="U38">
         <v>3.1279699999999999</v>
       </c>
-      <c r="V38" s="3">
+      <c r="V38">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W38" s="3">
-        <f>T38-U38</f>
+      <c r="W38">
+        <f t="shared" si="3"/>
         <v>1.2389999999999901E-2</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+      <c r="A39" s="3">
         <v>73856</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39">
         <v>6.2792300000000001</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39">
         <v>1.00027</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39">
         <v>4.109E-6</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39">
         <v>2.74238E-4</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39">
         <v>4.109E-6</v>
       </c>
-      <c r="H39" s="3">
-        <f t="shared" si="0"/>
+      <c r="H39">
+        <f t="shared" si="1"/>
         <v>3.139615</v>
       </c>
-      <c r="I39" s="3">
-        <f t="shared" si="1"/>
+      <c r="I39">
+        <f t="shared" si="2"/>
         <v>3.9600000000001856E-3</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39">
         <v>8.3923299999999999E-3</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39">
         <v>-3.0517599999999999E-4</v>
       </c>
-      <c r="L39" s="3"/>
-      <c r="M39" s="5">
+      <c r="M39" s="3">
         <v>73856</v>
       </c>
-      <c r="N39" s="3">
+      <c r="N39">
         <v>58072</v>
       </c>
-      <c r="O39" s="3">
+      <c r="O39">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P39" s="3">
+      <c r="P39">
         <v>3.1451500000000001</v>
       </c>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="5">
+      <c r="S39" s="3">
         <v>73856</v>
       </c>
-      <c r="T39" s="3">
+      <c r="T39">
         <v>3.139615</v>
       </c>
-      <c r="U39" s="3">
+      <c r="U39">
         <v>3.1451500000000001</v>
       </c>
-      <c r="V39" s="3">
+      <c r="V39">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W39" s="3">
-        <f>T39-U39</f>
+      <c r="W39">
+        <f t="shared" si="3"/>
         <v>-5.5350000000000676E-3</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+      <c r="A40" s="3">
         <v>75852</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40">
         <v>6.2846500000000001</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40">
         <v>1.0002599999999999</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40">
         <v>-2.0037599999999999E-6</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40">
         <v>2.5681400000000001E-4</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40">
         <v>-2.0037599999999999E-6</v>
       </c>
-      <c r="H40" s="3">
-        <f t="shared" si="0"/>
+      <c r="H40">
+        <f t="shared" si="1"/>
         <v>3.142325</v>
       </c>
-      <c r="I40" s="3">
-        <f t="shared" si="1"/>
+      <c r="I40">
+        <f t="shared" si="2"/>
         <v>-1.4599999999997948E-3</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40">
         <v>8.6364700000000003E-3</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40">
         <v>-3.1280499999999998E-4</v>
       </c>
-      <c r="L40" s="3"/>
-      <c r="M40" s="5">
+      <c r="M40" s="3">
         <v>75852</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N40">
         <v>59375</v>
       </c>
-      <c r="O40" s="3">
+      <c r="O40">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P40" s="3">
+      <c r="P40">
         <v>3.1311</v>
       </c>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="5">
+      <c r="S40" s="3">
         <v>75852</v>
       </c>
-      <c r="T40" s="3">
+      <c r="T40">
         <v>3.142325</v>
       </c>
-      <c r="U40" s="3">
+      <c r="U40">
         <v>3.1311</v>
       </c>
-      <c r="V40" s="3">
+      <c r="V40">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W40" s="3">
-        <f>T40-U40</f>
+      <c r="W40">
+        <f t="shared" si="3"/>
         <v>1.1225000000000041E-2</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+      <c r="A41" s="3">
         <v>77848</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41">
         <v>6.2821999999999996</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41">
         <v>1.0002500000000001</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41">
         <v>-1.5392100000000001E-6</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41">
         <v>2.4485099999999998E-4</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41">
         <v>-1.5392100000000001E-6</v>
       </c>
-      <c r="H41" s="3">
-        <f t="shared" si="0"/>
+      <c r="H41">
+        <f t="shared" si="1"/>
         <v>3.1410999999999998</v>
       </c>
-      <c r="I41" s="3">
-        <f t="shared" si="1"/>
+      <c r="I41">
+        <f t="shared" si="2"/>
         <v>9.9000000000071253E-4</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41">
         <v>8.9797999999999996E-3</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41">
         <v>-3.0517599999999999E-4</v>
       </c>
-      <c r="L41" s="3"/>
-      <c r="M41" s="5">
+      <c r="M41" s="3">
         <v>77848</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41">
         <v>61222</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41">
         <v>3.1457199999999998</v>
       </c>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="5">
+      <c r="S41" s="3">
         <v>77848</v>
       </c>
-      <c r="T41" s="3">
+      <c r="T41">
         <v>3.1410999999999998</v>
       </c>
-      <c r="U41" s="3">
+      <c r="U41">
         <v>3.1457199999999998</v>
       </c>
-      <c r="V41" s="3">
+      <c r="V41">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W41" s="3">
-        <f>T41-U41</f>
+      <c r="W41">
+        <f t="shared" si="3"/>
         <v>-4.6200000000000685E-3</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+      <c r="A42" s="3">
         <v>79844</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42">
         <v>6.2820400000000003</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42">
         <v>1.0002500000000001</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42">
         <v>-2.7804800000000002E-6</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42">
         <v>2.3855600000000001E-4</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42">
         <v>-2.7804800000000002E-6</v>
       </c>
-      <c r="H42" s="3">
-        <f t="shared" si="0"/>
+      <c r="H42">
+        <f t="shared" si="1"/>
         <v>3.1410200000000001</v>
       </c>
-      <c r="I42" s="3">
-        <f t="shared" si="1"/>
+      <c r="I42">
+        <f t="shared" si="2"/>
         <v>1.1499999999999844E-3</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42">
         <v>9.1323900000000006E-3</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42">
         <v>-3.1280499999999998E-4</v>
       </c>
-      <c r="L42" s="3"/>
-      <c r="M42" s="5">
+      <c r="M42" s="3">
         <v>79844</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42">
         <v>62600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42">
         <v>3.13612</v>
       </c>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="5">
+      <c r="S42" s="3">
         <v>79844</v>
       </c>
-      <c r="T42" s="3">
+      <c r="T42">
         <v>3.1410200000000001</v>
       </c>
-      <c r="U42" s="3">
+      <c r="U42">
         <v>3.13612</v>
       </c>
-      <c r="V42" s="3">
+      <c r="V42">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W42" s="3">
-        <f>T42-U42</f>
+      <c r="W42">
+        <f t="shared" si="3"/>
         <v>4.9000000000001265E-3</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
+      <c r="A43" s="3">
         <v>81840</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43">
         <v>6.2828499999999998</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43">
         <v>1.00024</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="1">
         <v>-1.5600399999999999E-6</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43">
         <v>2.3490300000000001E-4</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43">
         <v>-1.5600399999999999E-6</v>
       </c>
-      <c r="H43" s="3">
-        <f t="shared" si="0"/>
+      <c r="H43">
+        <f t="shared" si="1"/>
         <v>3.1414249999999999</v>
       </c>
-      <c r="I43" s="3">
-        <f t="shared" si="1"/>
+      <c r="I43">
+        <f t="shared" si="2"/>
         <v>3.4000000000045105E-4</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43">
         <v>9.3231200000000007E-3</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43">
         <v>-3.1280499999999998E-4</v>
       </c>
-      <c r="L43" s="3"/>
-      <c r="M43" s="5">
+      <c r="M43" s="3">
         <v>81840</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43">
         <v>64401</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P43" s="3">
+      <c r="P43">
         <v>3.1476500000000001</v>
       </c>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="5">
+      <c r="S43" s="3">
         <v>81840</v>
       </c>
-      <c r="T43" s="3">
+      <c r="T43">
         <v>3.1414249999999999</v>
       </c>
-      <c r="U43" s="3">
+      <c r="U43">
         <v>3.1476500000000001</v>
       </c>
-      <c r="V43" s="3">
+      <c r="V43">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W43" s="3">
-        <f>T43-U43</f>
+      <c r="W43">
+        <f t="shared" si="3"/>
         <v>-6.2250000000001471E-3</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
+      <c r="A44" s="3">
         <v>83836</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44">
         <v>6.2787499999999996</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44">
         <v>1.00024</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="1">
         <v>1.4569200000000001E-6</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44">
         <v>2.43689E-4</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44">
         <v>1.4569200000000001E-6</v>
       </c>
-      <c r="H44" s="3">
-        <f t="shared" si="0"/>
+      <c r="H44">
+        <f t="shared" si="1"/>
         <v>3.1393749999999998</v>
       </c>
-      <c r="I44" s="3">
-        <f t="shared" si="1"/>
+      <c r="I44">
+        <f t="shared" si="2"/>
         <v>4.4400000000006656E-3</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44">
         <v>9.5596299999999995E-3</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44">
         <v>-3.0517599999999999E-4</v>
       </c>
-      <c r="L44" s="3"/>
-      <c r="M44" s="5">
+      <c r="M44" s="3">
         <v>83836</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44">
         <v>65653</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44">
         <v>3.13245</v>
       </c>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="5">
+      <c r="S44" s="3">
         <v>83836</v>
       </c>
-      <c r="T44" s="3">
+      <c r="T44">
         <v>3.1393749999999998</v>
       </c>
-      <c r="U44" s="3">
+      <c r="U44">
         <v>3.13245</v>
       </c>
-      <c r="V44" s="3">
+      <c r="V44">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W44" s="3">
-        <f>T44-U44</f>
+      <c r="W44">
+        <f t="shared" si="3"/>
         <v>6.9249999999998479E-3</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
+      <c r="A45" s="3">
         <v>85832</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45">
         <v>6.2898300000000003</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45">
         <v>1.00023</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="1">
         <v>1.9251E-6</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45">
         <v>2.2261899999999999E-4</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45">
         <v>1.9251E-6</v>
       </c>
-      <c r="H45" s="3">
-        <f t="shared" si="0"/>
+      <c r="H45">
+        <f t="shared" si="1"/>
         <v>3.1449150000000001</v>
       </c>
-      <c r="I45" s="3">
-        <f t="shared" si="1"/>
+      <c r="I45">
+        <f t="shared" si="2"/>
         <v>-6.6399999999999793E-3</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45">
         <v>9.8724399999999997E-3</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45">
         <v>-2.89917E-4</v>
       </c>
-      <c r="L45" s="3"/>
-      <c r="M45" s="5">
+      <c r="M45" s="3">
         <v>85832</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45">
         <v>67522</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45">
         <v>3.1467100000000001</v>
       </c>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="5">
+      <c r="S45" s="3">
         <v>85832</v>
       </c>
-      <c r="T45" s="3">
+      <c r="T45">
         <v>3.1449150000000001</v>
       </c>
-      <c r="U45" s="3">
+      <c r="U45">
         <v>3.1467100000000001</v>
       </c>
-      <c r="V45" s="3">
+      <c r="V45">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W45" s="3">
-        <f>T45-U45</f>
+      <c r="W45">
+        <f t="shared" si="3"/>
         <v>-1.794999999999991E-3</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
+      <c r="A46" s="3">
         <v>87828</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46">
         <v>6.2820099999999996</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46">
         <v>1.0002200000000001</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="1">
         <v>-1.14513E-6</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46">
         <v>2.1862199999999999E-4</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46">
         <v>-1.14513E-6</v>
       </c>
-      <c r="H46" s="3">
-        <f t="shared" si="0"/>
+      <c r="H46">
+        <f t="shared" si="1"/>
         <v>3.1410049999999998</v>
       </c>
-      <c r="I46" s="3">
-        <f t="shared" si="1"/>
+      <c r="I46">
+        <f t="shared" si="2"/>
         <v>1.180000000000625E-3</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46">
         <v>1.0024999999999999E-2</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46">
         <v>-2.89917E-4</v>
       </c>
-      <c r="L46" s="3"/>
-      <c r="M46" s="5">
+      <c r="M46" s="3">
         <v>87828</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46">
         <v>69271</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46">
         <v>3.1548500000000002</v>
       </c>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="5">
+      <c r="S46" s="3">
         <v>87828</v>
       </c>
-      <c r="T46" s="3">
+      <c r="T46">
         <v>3.1410049999999998</v>
       </c>
-      <c r="U46" s="3">
+      <c r="U46">
         <v>3.1548500000000002</v>
       </c>
-      <c r="V46" s="3">
+      <c r="V46">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W46" s="3">
-        <f>T46-U46</f>
+      <c r="W46">
+        <f t="shared" si="3"/>
         <v>-1.3845000000000329E-2</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
+      <c r="A47" s="3">
         <v>89824</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47">
         <v>6.2857099999999999</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47">
         <v>1.0002200000000001</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="1">
         <v>-4.1570499999999998E-7</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47">
         <v>2.2159400000000001E-4</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47">
         <v>-4.1570499999999998E-7</v>
       </c>
-      <c r="H47" s="3">
-        <f t="shared" si="0"/>
+      <c r="H47">
+        <f t="shared" si="1"/>
         <v>3.142855</v>
       </c>
-      <c r="I47" s="3">
-        <f t="shared" si="1"/>
+      <c r="I47">
+        <f t="shared" si="2"/>
         <v>-2.5199999999996336E-3</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47">
         <v>1.0200499999999999E-2</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47">
         <v>-2.74658E-4</v>
       </c>
-      <c r="L47" s="3"/>
-      <c r="M47" s="5">
+      <c r="M47" s="3">
         <v>89824</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47">
         <v>70638</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P47">
         <v>3.1456200000000001</v>
       </c>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="5">
+      <c r="S47" s="3">
         <v>89824</v>
       </c>
-      <c r="T47" s="3">
+      <c r="T47">
         <v>3.142855</v>
       </c>
-      <c r="U47" s="3">
+      <c r="U47">
         <v>3.1456200000000001</v>
       </c>
-      <c r="V47" s="3">
+      <c r="V47">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W47" s="3">
-        <f>T47-U47</f>
+      <c r="W47">
+        <f t="shared" si="3"/>
         <v>-2.7650000000001285E-3</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
+      <c r="A48" s="3">
         <v>91820</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48">
         <v>6.2907799999999998</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48">
         <v>1.0002200000000001</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="1">
         <v>1.27779E-6</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48">
         <v>2.12389E-4</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48">
         <v>1.27779E-6</v>
       </c>
-      <c r="H48" s="3">
-        <f t="shared" si="0"/>
+      <c r="H48">
+        <f t="shared" si="1"/>
         <v>3.1453899999999999</v>
       </c>
-      <c r="I48" s="3">
-        <f t="shared" si="1"/>
+      <c r="I48">
+        <f t="shared" si="2"/>
         <v>-7.5899999999995416E-3</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48">
         <v>1.03836E-2</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48">
         <v>-2.6702900000000001E-4</v>
       </c>
-      <c r="L48" s="3"/>
-      <c r="M48" s="5">
+      <c r="M48" s="3">
         <v>91820</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48">
         <v>72122</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48">
         <v>3.1418900000000001</v>
       </c>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="5">
+      <c r="S48" s="3">
         <v>91820</v>
       </c>
-      <c r="T48" s="3">
+      <c r="T48">
         <v>3.1453899999999999</v>
       </c>
-      <c r="U48" s="3">
+      <c r="U48">
         <v>3.1418900000000001</v>
       </c>
-      <c r="V48" s="3">
+      <c r="V48">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W48" s="3">
-        <f>T48-U48</f>
+      <c r="W48">
+        <f t="shared" si="3"/>
         <v>3.4999999999998366E-3</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
+      <c r="A49" s="3">
         <v>93816</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49">
         <v>6.2768800000000002</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49">
         <v>1.00021</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="1">
         <v>-4.1021099999999999E-6</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49">
         <v>2.0679300000000001E-4</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49">
         <v>-4.1021099999999999E-6</v>
       </c>
-      <c r="H49" s="3">
-        <f t="shared" si="0"/>
+      <c r="H49">
+        <f t="shared" si="1"/>
         <v>3.1384400000000001</v>
       </c>
-      <c r="I49" s="3">
-        <f t="shared" si="1"/>
+      <c r="I49">
+        <f t="shared" si="2"/>
         <v>6.3100000000000378E-3</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49">
         <v>1.0589599999999999E-2</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49">
         <v>-2.74658E-4</v>
       </c>
-      <c r="L49" s="3"/>
-      <c r="M49" s="5">
+      <c r="M49" s="3">
         <v>93816</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49">
         <v>73577</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49">
         <v>3.1370800000000001</v>
       </c>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="5">
+      <c r="S49" s="3">
         <v>93816</v>
       </c>
-      <c r="T49" s="3">
+      <c r="T49">
         <v>3.1384400000000001</v>
       </c>
-      <c r="U49" s="3">
+      <c r="U49">
         <v>3.1370800000000001</v>
       </c>
-      <c r="V49" s="3">
+      <c r="V49">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W49" s="3">
-        <f>T49-U49</f>
+      <c r="W49">
+        <f t="shared" si="3"/>
         <v>1.3600000000000279E-3</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
+      <c r="A50" s="3">
         <v>95812</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50">
         <v>6.2902100000000001</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50">
         <v>1.0002</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="1">
         <v>-1.5900400000000001E-6</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50">
         <v>2.0009699999999999E-4</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50">
         <v>-1.5900400000000001E-6</v>
       </c>
-      <c r="H50" s="3">
-        <f t="shared" si="0"/>
+      <c r="H50">
+        <f t="shared" si="1"/>
         <v>3.145105</v>
       </c>
-      <c r="I50" s="3">
-        <f t="shared" si="1"/>
+      <c r="I50">
+        <f t="shared" si="2"/>
         <v>-7.0199999999998042E-3</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50">
         <v>1.08795E-2</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50">
         <v>-2.74658E-4</v>
       </c>
-      <c r="L50" s="3"/>
-      <c r="M50" s="5">
+      <c r="M50" s="3">
         <v>95812</v>
       </c>
-      <c r="N50" s="3">
+      <c r="N50">
         <v>75234</v>
       </c>
-      <c r="O50" s="3">
+      <c r="O50">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P50" s="3">
+      <c r="P50">
         <v>3.1408999999999998</v>
       </c>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="5">
+      <c r="S50" s="3">
         <v>95812</v>
       </c>
-      <c r="T50" s="3">
+      <c r="T50">
         <v>3.145105</v>
       </c>
-      <c r="U50" s="3">
+      <c r="U50">
         <v>3.1408999999999998</v>
       </c>
-      <c r="V50" s="3">
+      <c r="V50">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W50" s="3">
-        <f>T50-U50</f>
+      <c r="W50">
+        <f t="shared" si="3"/>
         <v>4.2050000000002363E-3</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
+      <c r="A51" s="3">
         <v>97808</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51">
         <v>6.2849300000000001</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51">
         <v>1.0002</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="1">
         <v>3.1227799999999999E-6</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51">
         <v>1.9968899999999999E-4</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51">
         <v>3.1227799999999999E-6</v>
       </c>
-      <c r="H51" s="3">
-        <f t="shared" si="0"/>
+      <c r="H51">
+        <f t="shared" si="1"/>
         <v>3.1424650000000001</v>
       </c>
-      <c r="I51" s="3">
-        <f t="shared" si="1"/>
+      <c r="I51">
+        <f t="shared" si="2"/>
         <v>-1.7399999999998528E-3</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51">
         <v>1.10168E-2</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51">
         <v>-2.74658E-4</v>
       </c>
-      <c r="L51" s="3"/>
-      <c r="M51" s="5">
+      <c r="M51" s="3">
         <v>97808</v>
       </c>
-      <c r="N51" s="3">
+      <c r="N51">
         <v>76952</v>
       </c>
-      <c r="O51" s="3">
+      <c r="O51">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P51" s="3">
+      <c r="P51">
         <v>3.1470600000000002</v>
       </c>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="5">
+      <c r="S51" s="3">
         <v>97808</v>
       </c>
-      <c r="T51" s="3">
+      <c r="T51">
         <v>3.1424650000000001</v>
       </c>
-      <c r="U51" s="3">
+      <c r="U51">
         <v>3.1470600000000002</v>
       </c>
-      <c r="V51" s="3">
+      <c r="V51">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W51" s="3">
-        <f>T51-U51</f>
+      <c r="W51">
+        <f t="shared" si="3"/>
         <v>-4.5950000000001268E-3</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
+      <c r="A52" s="3">
         <v>99804</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52">
         <v>6.2819099999999999</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52">
         <v>1.0002</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="1">
         <v>2.4971100000000001E-8</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52">
         <v>1.93461E-4</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52">
         <v>2.4971100000000001E-8</v>
       </c>
-      <c r="H52" s="3">
-        <f t="shared" si="0"/>
+      <c r="H52">
+        <f t="shared" si="1"/>
         <v>3.1409549999999999</v>
       </c>
-      <c r="I52" s="3">
-        <f t="shared" si="1"/>
+      <c r="I52">
+        <f t="shared" si="2"/>
         <v>1.2800000000003919E-3</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52">
         <v>1.1184700000000001E-2</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52">
         <v>-2.8228800000000001E-4</v>
       </c>
-      <c r="L52" s="3"/>
-      <c r="M52" s="5">
+      <c r="M52" s="3">
         <v>99804</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52">
         <v>78287</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52">
         <v>3.1376300000000001</v>
       </c>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="5">
+      <c r="S52" s="3">
         <v>99804</v>
       </c>
-      <c r="T52" s="3">
+      <c r="T52">
         <v>3.1409549999999999</v>
       </c>
-      <c r="U52" s="3">
+      <c r="U52">
         <v>3.1376300000000001</v>
       </c>
-      <c r="V52" s="3">
+      <c r="V52">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W52" s="3">
-        <f>T52-U52</f>
+      <c r="W52">
+        <f t="shared" si="3"/>
         <v>3.3249999999998003E-3</v>
       </c>
     </row>

--- a/Projekt1/Hipotezy.xlsx
+++ b/Projekt1/Hipotezy.xlsx
@@ -8,21 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/safurynm/Desktop/StudiaUG/AlgNum/Algorytmy-Numeryczne/Projekt1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC406A6-FB2A-A34F-8909-980DAE0E7C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29204FF0-CC78-B649-8AC2-3FB581CDA70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20300" xr2:uid="{856EA640-2464-1B47-824C-F5A41D343910}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{856EA640-2464-1B47-824C-F5A41D343910}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="monte_carlo" localSheetId="0">Arkusz1!$L$3:$N$22</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Arkusz1!$N$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Arkusz1!$N$2:$N$52</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Arkusz1!$O$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Arkusz1!$O$2:$O$52</definedName>
+    <definedName name="monte_carlo" localSheetId="0">Arkusz1!$L$3:$R$22</definedName>
     <definedName name="pkt_konc" localSheetId="0">Arkusz1!$G$2:$H$34</definedName>
     <definedName name="test" localSheetId="0">Arkusz1!$A$2:$C$52</definedName>
     <definedName name="test_1" localSheetId="0">Arkusz1!$D$2:$E$52</definedName>
     <definedName name="test_2" localSheetId="0">Arkusz1!$F$2:$G$52</definedName>
     <definedName name="test_3" localSheetId="0">Arkusz1!$J$2:$K$52</definedName>
-    <definedName name="test_4" localSheetId="0">Arkusz1!$M$2:$P$52</definedName>
+    <definedName name="test_4" localSheetId="0">Arkusz1!$Q$2:$T$52</definedName>
+    <definedName name="test_5" localSheetId="0">Arkusz1!$L$2:$M$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -111,11 +116,19 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="8" xr16:uid="{8C6E9C37-4C24-C34F-9C4D-318045E45925}" name="test5" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/safurynm/Desktop/StudiaUG/AlgNum/Algorytmy-Numeryczne/Projekt1/test.txt" decimal="," thousands=" " semicolon="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>n</t>
   </si>
@@ -177,9 +190,6 @@
     <t>H3</t>
   </si>
   <si>
-    <t>Tak jest blizsze 0 niż H2</t>
-  </si>
-  <si>
     <t>Różnica</t>
   </si>
   <si>
@@ -187,6 +197,21 @@
   </si>
   <si>
     <t>Czyli TAK jest mniej efektywne</t>
+  </si>
+  <si>
+    <t>SX_Sort</t>
+  </si>
+  <si>
+    <t>SY_Sort</t>
+  </si>
+  <si>
+    <t>Diff_SX</t>
+  </si>
+  <si>
+    <t>Diff_SY</t>
+  </si>
+  <si>
+    <t>roznica jest dość spora blędy nieposortowane sa wieksze niż nieposortowane czyli posortowane daja lepsze wyniki blizsze oczekiwanym</t>
   </si>
 </sst>
 </file>
@@ -263,11 +288,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Dobry" xfId="2" builtinId="26"/>
@@ -1974,641 +2000,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Arkusz1!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SX</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Arkusz1!$J$2:$J$55</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
-                <c:pt idx="0">
-                  <c:v>-2.3841900000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.64645E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.0347400000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.15395E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-7.82013E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-5.1498400000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7642999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.6784699999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-2.4795500000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-6.9999700000000005E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1.52206E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2.6779199999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-3.96919E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-3.2310500000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2.54631E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-1.9035300000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-1.12915E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-3.7765500000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.7547600000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.2560999999999997E-4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.0528600000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.4457700000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.2697400000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.6817299999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.0136099999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.3836399999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.7536599999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.2381299999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.5280499999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.8255900000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.5618300000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.9318499999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6.3095099999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.46155E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>7.7133200000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7.9956100000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>8.2015999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8.3923299999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>8.6364700000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.9797999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9.1323900000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>9.3231200000000007E-3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9.5596299999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>9.8724399999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.0024999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.0200499999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.03836E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.0589599999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.08795E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.10168E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.1184700000000001E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FAD8-EB46-A3F3-8FE9F4FE2217}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Arkusz1!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SY</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Arkusz1!$K$2:$K$55</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
-                <c:pt idx="0">
-                  <c:v>1.1920900000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.76837E-7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.3841900000000001E-6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.8610199999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-5.7220499999999997E-6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2.8610199999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-8.5830700000000005E-6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.6212500000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-7.6293900000000003E-6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2.2888199999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-3.6239599999999998E-5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-7.4386600000000004E-5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-1.90735E-6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-1.1444099999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2.8610199999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-3.0517600000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-3.4332300000000003E-5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-6.8664600000000007E-5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-8.0108600000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-8.3923299999999997E-5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-8.0108600000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-7.6293900000000005E-5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-1.6403199999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-1.4495799999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-1.37329E-4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-1.2970000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-1.2588500000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-1.33514E-4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-1.2207E-4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-1.33514E-4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-2.02179E-4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-2.2125199999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-2.2888199999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-3.4332299999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-3.2806399999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-3.3569300000000003E-4</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-3.0517599999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-3.0517599999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-3.1280499999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-3.0517599999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-3.1280499999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-3.1280499999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-3.0517599999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-2.89917E-4</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-2.89917E-4</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-2.74658E-4</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-2.6702900000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-2.74658E-4</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-2.74658E-4</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-2.74658E-4</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-2.8228800000000001E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FAD8-EB46-A3F3-8FE9F4FE2217}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="186426927"/>
-        <c:axId val="186428655"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="186426927"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="186428655"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="186428655"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="186426927"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3110,7 +2501,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
@@ -3165,7 +2556,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$T$1</c:f>
+              <c:f>Arkusz1!$X$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3188,7 +2579,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Arkusz1!$S$2:$S$52</c:f>
+              <c:f>Arkusz1!$W$2:$W$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -3350,7 +2741,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$T$2:$T$52</c:f>
+              <c:f>Arkusz1!$X$2:$X$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -3522,7 +2913,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$U$1</c:f>
+              <c:f>Arkusz1!$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3545,7 +2936,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Arkusz1!$S$2:$S$52</c:f>
+              <c:f>Arkusz1!$W$2:$W$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -3707,7 +3098,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$U$2:$U$52</c:f>
+              <c:f>Arkusz1!$Y$2:$Y$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -3879,7 +3270,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$V$1</c:f>
+              <c:f>Arkusz1!$Z$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3902,7 +3293,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Arkusz1!$S$2:$S$52</c:f>
+              <c:f>Arkusz1!$W$2:$W$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -4064,7 +3455,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$V$2:$V$52</c:f>
+              <c:f>Arkusz1!$Z$2:$Z$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -4351,6 +3742,641 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.01"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diff_SX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$N$2:$N$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3850000000000119E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5400000000000476E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7700000000000238E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.289000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.2887999999999988E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.2888000000000015E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.2887999999999988E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.289000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.289000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.6700000000000161E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.6699999999999727E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.6699999999999727E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.6709999999999668E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.6699999999999727E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.6699999999999294E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.6709999999999234E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.6700000000000161E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.6700000000000161E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.6700000000000161E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.7547999999999956E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.7547999999999956E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.7548000000000043E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.7548000000000043E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.7548000000000043E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.7547000000000049E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.7547000000000049E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.7548000000000043E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.7548000000000043E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.7548000000000043E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.7546999999999875E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.7548000000000043E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.7544999999999887E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.7550000000000031E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.7550000000000031E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.7549999999999857E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.7550000000000031E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.754000000000009E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.6790000000000034E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-29EA-254B-A8B5-4AD74FC2B89D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diff_SY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$O$2:$O$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.3841799999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5366999999999988E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5368000000000016E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5367999999999931E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5366999999999988E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5368000000000016E-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.5370000000000071E-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.8147099999999991E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.9073000000000012E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.9074000000000014E-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.9073000000000012E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.8146999999999992E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.8147000000000009E-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.9074000000000014E-6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.9073000000000012E-6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.4332300000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.4332399999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.4332399999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.4332700000000004E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.4332399999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.4332099999999989E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.4332000000000009E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.4332999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.4332000000000009E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.0516999999999979E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.0517999999999995E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.0517999999999995E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3.0517999999999995E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3.0517999999999995E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-3.0517999999999995E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-3.0518000000000022E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-4.6539299999999993E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-4.6539300000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-4.6539300000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-4.6539299999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-4.6539300000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-4.6539300000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-4.6539300000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-4.6539300000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-4.6539300000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-4.6539300000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-4.6539300000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-4.6539300000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-4.6539300000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-4.6539300000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-4.6539300000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-4.6539300000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-4.6539300000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-4.6539300000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-4.6539300000000003E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-29EA-254B-A8B5-4AD74FC2B89D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="780474031"/>
+        <c:axId val="780475743"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="780474031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="780475743"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="780475743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="780474031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -7284,42 +7310,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>779860</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>126603</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>13892</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>91678</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Wykres 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97B670A5-ADDC-2512-D640-7B1D2B8346EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>10160</xdr:colOff>
       <xdr:row>54</xdr:row>
@@ -7348,6 +7338,42 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>828009</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>116336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>489925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>17409</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Wykres 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68A73B99-D499-C550-D2A6-29A834AA7360}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
@@ -7356,23 +7382,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>814641</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9388</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>140367</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>139032</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>409714</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>110988</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>975894</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>133683</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Wykres 8">
+        <xdr:cNvPr id="2" name="Wykres 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68A73B99-D499-C550-D2A6-29A834AA7360}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F388DC7-657A-76C4-34D8-69541236C028}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7394,31 +7420,35 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_5" connectionId="8" xr16:uid="{D8C5E8C6-2D8D-2349-BEA1-7976B658F386}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="pkt_konc" connectionId="2" xr16:uid="{CAA4F7F9-5C8B-F347-BA87-D5B657132048}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test" connectionId="3" xr16:uid="{8B62D681-966C-5549-8945-8D5D805837D4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="monte_carlo" connectionId="1" xr16:uid="{CE64FFCE-2E2B-734B-BEE2-84FCDAE7B753}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_4" connectionId="7" xr16:uid="{8B2ADFA5-5EA0-FF43-AB0B-0863C1D612F7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_2" connectionId="5" xr16:uid="{E83F0B21-BF21-2B4B-BE95-329F74AB2E36}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_3" connectionId="6" xr16:uid="{DA59792E-8EE7-824C-8032-13B401A10CE5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_1" connectionId="4" xr16:uid="{717306AC-2797-B54C-A69F-D4681AF5D7B6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test" connectionId="3" xr16:uid="{8B62D681-966C-5549-8945-8D5D805837D4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_4" connectionId="7" xr16:uid="{8B2ADFA5-5EA0-FF43-AB0B-0863C1D612F7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7740,8 +7770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6287C271-BA6E-5246-853E-184B17EA6509}">
   <dimension ref="A1:AE87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AB24" sqref="AB24"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="95" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7757,18 +7787,19 @@
     <col min="9" max="9" width="21" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1"/>
-    <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" customWidth="1"/>
-    <col min="16" max="16" width="13.83203125" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" customWidth="1"/>
-    <col min="20" max="20" width="14.6640625" customWidth="1"/>
-    <col min="21" max="21" width="11.6640625" customWidth="1"/>
-    <col min="22" max="22" width="11.83203125" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.83203125" customWidth="1"/>
+    <col min="22" max="22" width="14.6640625" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" customWidth="1"/>
+    <col min="24" max="24" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7797,43 +7828,55 @@
         <v>11</v>
       </c>
       <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
         <v>0</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>0</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>8</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>10</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>5</v>
       </c>
-      <c r="W1" t="s">
-        <v>21</v>
+      <c r="AA1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>4</v>
       </c>
@@ -7869,36 +7912,50 @@
       <c r="K2">
         <v>1.1920900000000001E-7</v>
       </c>
-      <c r="M2" s="3">
+      <c r="L2" s="4">
+        <v>-2.3841900000000001E-7</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1.1920900000000001E-7</v>
+      </c>
+      <c r="N2" s="4">
+        <f>L2-J2</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <f>M2-K2</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3">
         <v>4</v>
       </c>
-      <c r="N2">
+      <c r="R2">
         <v>3</v>
       </c>
-      <c r="O2">
+      <c r="S2">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P2">
+      <c r="T2">
         <v>3</v>
       </c>
-      <c r="S2" s="3">
+      <c r="W2" s="3">
         <v>4</v>
       </c>
-      <c r="T2">
+      <c r="X2">
         <v>2.1213199999999999</v>
       </c>
-      <c r="U2">
+      <c r="Y2">
         <v>3</v>
       </c>
-      <c r="V2">
+      <c r="Z2">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W2">
-        <f t="shared" ref="W2:W33" si="0">T2-U2</f>
+      <c r="AA2">
+        <f t="shared" ref="AA2:AA33" si="0">X2-Y2</f>
         <v>-0.87868000000000013</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2000</v>
       </c>
@@ -7934,36 +7991,50 @@
       <c r="K3">
         <v>4.76837E-7</v>
       </c>
-      <c r="M3" s="3">
+      <c r="L3" s="4">
+        <v>-2.6225999999999999E-5</v>
+      </c>
+      <c r="M3" s="4">
+        <v>2.3841900000000001E-7</v>
+      </c>
+      <c r="N3" s="4">
+        <f t="shared" ref="N3:N52" si="3">L3-J3</f>
+        <v>2.3850000000000119E-7</v>
+      </c>
+      <c r="O3" s="4">
+        <f t="shared" ref="O3:O52" si="4">M3-K3</f>
+        <v>-2.3841799999999998E-7</v>
+      </c>
+      <c r="Q3" s="3">
         <v>2000</v>
       </c>
-      <c r="N3">
+      <c r="R3">
         <v>1577</v>
       </c>
-      <c r="O3">
+      <c r="S3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P3">
+      <c r="T3">
         <v>3.1539999999999999</v>
       </c>
-      <c r="S3" s="3">
+      <c r="W3" s="3">
         <v>2000</v>
       </c>
-      <c r="T3">
+      <c r="X3">
         <v>3.1399550000000001</v>
       </c>
-      <c r="U3">
+      <c r="Y3">
         <v>3.1539999999999999</v>
       </c>
-      <c r="V3">
+      <c r="Z3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W3">
+      <c r="AA3">
         <f t="shared" si="0"/>
         <v>-1.4044999999999863E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3996</v>
       </c>
@@ -7999,36 +8070,50 @@
       <c r="K4">
         <v>2.3841900000000001E-6</v>
       </c>
-      <c r="M4" s="3">
+      <c r="L4">
+        <v>-1.0252E-4</v>
+      </c>
+      <c r="M4" s="4">
+        <v>3.33786E-6</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" si="3"/>
+        <v>9.5400000000000476E-7</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" si="4"/>
+        <v>9.5366999999999988E-7</v>
+      </c>
+      <c r="Q4" s="3">
         <v>3996</v>
       </c>
-      <c r="N4">
+      <c r="R4">
         <v>3128</v>
       </c>
-      <c r="O4">
+      <c r="S4">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P4">
+      <c r="T4">
         <v>3.1311300000000002</v>
       </c>
-      <c r="S4" s="3">
+      <c r="W4" s="3">
         <v>3996</v>
       </c>
-      <c r="T4">
+      <c r="X4">
         <v>3.1406350000000001</v>
       </c>
-      <c r="U4">
+      <c r="Y4">
         <v>3.1311300000000002</v>
       </c>
-      <c r="V4">
+      <c r="Z4">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W4">
+      <c r="AA4">
         <f t="shared" si="0"/>
         <v>9.5049999999998747E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>5992</v>
       </c>
@@ -8064,36 +8149,50 @@
       <c r="K5">
         <v>2.8610199999999999E-6</v>
       </c>
-      <c r="M5" s="3">
+      <c r="L5">
+        <v>-1.14918E-4</v>
+      </c>
+      <c r="M5" s="4">
+        <v>3.8147000000000001E-6</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="3"/>
+        <v>4.7700000000000238E-7</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" si="4"/>
+        <v>9.5368000000000016E-7</v>
+      </c>
+      <c r="Q5" s="3">
         <v>5992</v>
       </c>
-      <c r="N5">
+      <c r="R5">
         <v>4685</v>
       </c>
-      <c r="O5">
+      <c r="S5">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P5">
+      <c r="T5">
         <v>3.1274999999999999</v>
       </c>
-      <c r="S5" s="3">
+      <c r="W5" s="3">
         <v>5992</v>
       </c>
-      <c r="T5">
+      <c r="X5">
         <v>3.1409850000000001</v>
       </c>
-      <c r="U5">
+      <c r="Y5">
         <v>3.1274999999999999</v>
       </c>
-      <c r="V5">
+      <c r="Z5">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W5">
+      <c r="AA5">
         <f t="shared" si="0"/>
         <v>1.3485000000000191E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>7988</v>
       </c>
@@ -8129,36 +8228,50 @@
       <c r="K6">
         <v>-5.7220499999999997E-6</v>
       </c>
-      <c r="M6" s="3">
+      <c r="L6" s="4">
+        <v>-7.82013E-5</v>
+      </c>
+      <c r="M6" s="4">
+        <v>-4.7683700000000004E-6</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="4"/>
+        <v>9.5367999999999931E-7</v>
+      </c>
+      <c r="Q6" s="3">
         <v>7988</v>
       </c>
-      <c r="N6">
+      <c r="R6">
         <v>6230</v>
       </c>
-      <c r="O6">
+      <c r="S6">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P6">
+      <c r="T6">
         <v>3.1196799999999998</v>
       </c>
-      <c r="S6" s="3">
+      <c r="W6" s="3">
         <v>7988</v>
       </c>
-      <c r="T6">
+      <c r="X6">
         <v>3.141435</v>
       </c>
-      <c r="U6">
+      <c r="Y6">
         <v>3.1196799999999998</v>
       </c>
-      <c r="V6">
+      <c r="Z6">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W6">
+      <c r="AA6">
         <f t="shared" si="0"/>
         <v>2.1755000000000191E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>9984</v>
       </c>
@@ -8194,36 +8307,50 @@
       <c r="K7">
         <v>-2.8610199999999999E-6</v>
       </c>
-      <c r="M7" s="3">
+      <c r="L7" s="4">
+        <v>-5.1498400000000001E-5</v>
+      </c>
+      <c r="M7" s="4">
+        <v>-1.90735E-6</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="4"/>
+        <v>9.5366999999999988E-7</v>
+      </c>
+      <c r="Q7" s="3">
         <v>9984</v>
       </c>
-      <c r="N7">
+      <c r="R7">
         <v>7830</v>
       </c>
-      <c r="O7">
+      <c r="S7">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P7">
+      <c r="T7">
         <v>3.1370200000000001</v>
       </c>
-      <c r="S7" s="3">
+      <c r="W7" s="3">
         <v>9984</v>
       </c>
-      <c r="T7">
+      <c r="X7">
         <v>3.1415950000000001</v>
       </c>
-      <c r="U7">
+      <c r="Y7">
         <v>3.1370200000000001</v>
       </c>
-      <c r="V7">
+      <c r="Z7">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W7">
+      <c r="AA7">
         <f t="shared" si="0"/>
         <v>4.5749999999999957E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>11980</v>
       </c>
@@ -8259,36 +8386,50 @@
       <c r="K8">
         <v>-8.5830700000000005E-6</v>
       </c>
-      <c r="M8" s="3">
+      <c r="L8">
+        <v>1.7642999999999999E-4</v>
+      </c>
+      <c r="M8" s="4">
+        <v>-7.6293900000000003E-6</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="4"/>
+        <v>9.5368000000000016E-7</v>
+      </c>
+      <c r="Q8" s="3">
         <v>11980</v>
       </c>
-      <c r="N8">
+      <c r="R8">
         <v>9310</v>
       </c>
-      <c r="O8">
+      <c r="S8">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P8">
+      <c r="T8">
         <v>3.1085099999999999</v>
       </c>
-      <c r="S8" s="3">
+      <c r="W8" s="3">
         <v>11980</v>
       </c>
-      <c r="T8">
+      <c r="X8">
         <v>3.1415700000000002</v>
       </c>
-      <c r="U8">
+      <c r="Y8">
         <v>3.1085099999999999</v>
       </c>
-      <c r="V8">
+      <c r="Z8">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W8">
+      <c r="AA8">
         <f t="shared" si="0"/>
         <v>3.3060000000000311E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>13976</v>
       </c>
@@ -8324,36 +8465,50 @@
       <c r="K9">
         <v>-1.6212500000000001E-5</v>
       </c>
-      <c r="M9" s="3">
+      <c r="L9">
+        <v>-1.6784699999999999E-4</v>
+      </c>
+      <c r="M9" s="4">
+        <v>-1.52588E-5</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="4"/>
+        <v>9.5370000000000071E-7</v>
+      </c>
+      <c r="Q9" s="3">
         <v>13976</v>
       </c>
-      <c r="N9">
+      <c r="R9">
         <v>10961</v>
       </c>
-      <c r="O9">
+      <c r="S9">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P9">
+      <c r="T9">
         <v>3.1370900000000002</v>
       </c>
-      <c r="S9" s="3">
+      <c r="W9" s="3">
         <v>13976</v>
       </c>
-      <c r="T9">
+      <c r="X9">
         <v>3.1410800000000001</v>
       </c>
-      <c r="U9">
+      <c r="Y9">
         <v>3.1370900000000002</v>
       </c>
-      <c r="V9">
+      <c r="Z9">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W9">
+      <c r="AA9">
         <f t="shared" si="0"/>
         <v>3.989999999999938E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>15972</v>
       </c>
@@ -8389,36 +8544,50 @@
       <c r="K10">
         <v>-7.6293900000000003E-6</v>
       </c>
-      <c r="M10" s="3">
+      <c r="L10">
+        <v>-2.4795500000000001E-4</v>
+      </c>
+      <c r="M10" s="4">
+        <v>-1.1444099999999999E-5</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="4"/>
+        <v>-3.8147099999999991E-6</v>
+      </c>
+      <c r="Q10" s="3">
         <v>15972</v>
       </c>
-      <c r="N10">
+      <c r="R10">
         <v>12477</v>
       </c>
-      <c r="O10">
+      <c r="S10">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P10">
+      <c r="T10">
         <v>3.1247199999999999</v>
       </c>
-      <c r="S10" s="3">
+      <c r="W10" s="3">
         <v>15972</v>
       </c>
-      <c r="T10">
+      <c r="X10">
         <v>3.1414200000000001</v>
       </c>
-      <c r="U10">
+      <c r="Y10">
         <v>3.1247199999999999</v>
       </c>
-      <c r="V10">
+      <c r="Z10">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W10">
+      <c r="AA10">
         <f t="shared" si="0"/>
         <v>1.6700000000000159E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>17968</v>
       </c>
@@ -8454,36 +8623,50 @@
       <c r="K11">
         <v>-2.2888199999999999E-5</v>
       </c>
-      <c r="M11" s="3">
+      <c r="L11">
+        <v>-6.9999700000000005E-4</v>
+      </c>
+      <c r="M11" s="4">
+        <v>-2.47955E-5</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="4"/>
+        <v>-1.9073000000000012E-6</v>
+      </c>
+      <c r="Q11" s="3">
         <v>17968</v>
       </c>
-      <c r="N11">
+      <c r="R11">
         <v>14089</v>
       </c>
-      <c r="O11">
+      <c r="S11">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P11">
+      <c r="T11">
         <v>3.13646</v>
       </c>
-      <c r="S11" s="3">
+      <c r="W11" s="3">
         <v>17968</v>
       </c>
-      <c r="T11">
+      <c r="X11">
         <v>3.1403050000000001</v>
       </c>
-      <c r="U11">
+      <c r="Y11">
         <v>3.13646</v>
       </c>
-      <c r="V11">
+      <c r="Z11">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W11">
+      <c r="AA11">
         <f t="shared" si="0"/>
         <v>3.8450000000000983E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>19964</v>
       </c>
@@ -8519,36 +8702,50 @@
       <c r="K12">
         <v>-3.6239599999999998E-5</v>
       </c>
-      <c r="M12" s="3">
+      <c r="L12">
+        <v>-1.52206E-3</v>
+      </c>
+      <c r="M12" s="4">
+        <v>-3.8146999999999999E-5</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="4"/>
+        <v>-1.9074000000000014E-6</v>
+      </c>
+      <c r="Q12" s="3">
         <v>19964</v>
       </c>
-      <c r="N12">
+      <c r="R12">
         <v>15683</v>
       </c>
-      <c r="O12">
+      <c r="S12">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P12">
+      <c r="T12">
         <v>3.1422599999999998</v>
       </c>
-      <c r="S12" s="3">
+      <c r="W12" s="3">
         <v>19964</v>
       </c>
-      <c r="T12">
+      <c r="X12">
         <v>3.140485</v>
       </c>
-      <c r="U12">
+      <c r="Y12">
         <v>3.1422599999999998</v>
       </c>
-      <c r="V12">
+      <c r="Z12">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W12">
+      <c r="AA12">
         <f t="shared" si="0"/>
         <v>-1.77499999999986E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>21960</v>
       </c>
@@ -8584,36 +8781,50 @@
       <c r="K13">
         <v>-7.4386600000000004E-5</v>
       </c>
-      <c r="M13" s="3">
+      <c r="L13">
+        <v>-2.6779199999999999E-3</v>
+      </c>
+      <c r="M13" s="4">
+        <v>-7.6293900000000005E-5</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" si="4"/>
+        <v>-1.9073000000000012E-6</v>
+      </c>
+      <c r="Q13" s="3">
         <v>21960</v>
       </c>
-      <c r="N13">
+      <c r="R13">
         <v>17332</v>
       </c>
-      <c r="O13">
+      <c r="S13">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P13">
+      <c r="T13">
         <v>3.1570100000000001</v>
       </c>
-      <c r="S13" s="3">
+      <c r="W13" s="3">
         <v>21960</v>
       </c>
-      <c r="T13">
+      <c r="X13">
         <v>3.139275</v>
       </c>
-      <c r="U13">
+      <c r="Y13">
         <v>3.1570100000000001</v>
       </c>
-      <c r="V13">
+      <c r="Z13">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W13">
+      <c r="AA13">
         <f t="shared" si="0"/>
         <v>-1.7735000000000056E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>23956</v>
       </c>
@@ -8649,36 +8860,50 @@
       <c r="K14">
         <v>-1.90735E-6</v>
       </c>
-      <c r="M14" s="3">
+      <c r="L14">
+        <v>-3.96919E-3</v>
+      </c>
+      <c r="M14" s="4">
+        <v>-5.7220499999999997E-6</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="4"/>
+        <v>-3.8146999999999992E-6</v>
+      </c>
+      <c r="Q14" s="3">
         <v>23956</v>
       </c>
-      <c r="N14">
+      <c r="R14">
         <v>18774</v>
       </c>
-      <c r="O14">
+      <c r="S14">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P14">
+      <c r="T14">
         <v>3.1347499999999999</v>
       </c>
-      <c r="S14" s="3">
+      <c r="W14" s="3">
         <v>23956</v>
       </c>
-      <c r="T14">
+      <c r="X14">
         <v>3.13883</v>
       </c>
-      <c r="U14">
+      <c r="Y14">
         <v>3.1347499999999999</v>
       </c>
-      <c r="V14">
+      <c r="Z14">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W14">
+      <c r="AA14">
         <f t="shared" si="0"/>
         <v>4.0800000000000836E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>25952</v>
       </c>
@@ -8714,36 +8939,50 @@
       <c r="K15">
         <v>-1.1444099999999999E-5</v>
       </c>
-      <c r="M15" s="3">
+      <c r="L15">
+        <v>-3.2310500000000001E-3</v>
+      </c>
+      <c r="M15" s="4">
+        <v>-1.52588E-5</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" si="4"/>
+        <v>-3.8147000000000009E-6</v>
+      </c>
+      <c r="Q15" s="3">
         <v>25952</v>
       </c>
-      <c r="N15">
+      <c r="R15">
         <v>20288</v>
       </c>
-      <c r="O15">
+      <c r="S15">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P15">
+      <c r="T15">
         <v>3.1269999999999998</v>
       </c>
-      <c r="S15" s="3">
+      <c r="W15" s="3">
         <v>25952</v>
       </c>
-      <c r="T15">
+      <c r="X15">
         <v>3.1426050000000001</v>
       </c>
-      <c r="U15">
+      <c r="Y15">
         <v>3.1269999999999998</v>
       </c>
-      <c r="V15">
+      <c r="Z15">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W15">
+      <c r="AA15">
         <f t="shared" si="0"/>
         <v>1.5605000000000313E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>27948</v>
       </c>
@@ -8779,31 +9018,45 @@
       <c r="K16">
         <v>-2.8610199999999999E-5</v>
       </c>
-      <c r="M16" s="3">
+      <c r="L16">
+        <v>-2.54631E-3</v>
+      </c>
+      <c r="M16" s="4">
+        <v>-3.0517600000000001E-5</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" si="4"/>
+        <v>-1.9074000000000014E-6</v>
+      </c>
+      <c r="Q16" s="3">
         <v>27948</v>
       </c>
-      <c r="N16">
+      <c r="R16">
         <v>21817</v>
       </c>
-      <c r="O16">
+      <c r="S16">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P16">
+      <c r="T16">
         <v>3.1225100000000001</v>
       </c>
-      <c r="S16" s="3">
+      <c r="W16" s="3">
         <v>27948</v>
       </c>
-      <c r="T16">
+      <c r="X16">
         <v>3.1428500000000001</v>
       </c>
-      <c r="U16">
+      <c r="Y16">
         <v>3.1225100000000001</v>
       </c>
-      <c r="V16">
+      <c r="Z16">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W16">
+      <c r="AA16">
         <f t="shared" si="0"/>
         <v>2.0340000000000025E-2</v>
       </c>
@@ -8844,36 +9097,50 @@
       <c r="K17">
         <v>-3.0517600000000001E-5</v>
       </c>
-      <c r="M17" s="3">
+      <c r="L17">
+        <v>-1.9035300000000001E-3</v>
+      </c>
+      <c r="M17" s="4">
+        <v>-3.2424900000000002E-5</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="4"/>
+        <v>-1.9073000000000012E-6</v>
+      </c>
+      <c r="Q17" s="3">
         <v>29944</v>
       </c>
-      <c r="N17">
+      <c r="R17">
         <v>23434</v>
       </c>
-      <c r="O17">
+      <c r="S17">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P17">
+      <c r="T17">
         <v>3.1303800000000002</v>
       </c>
-      <c r="S17" s="3">
+      <c r="W17" s="3">
         <v>29944</v>
       </c>
-      <c r="T17">
+      <c r="X17">
         <v>3.1413449999999998</v>
       </c>
-      <c r="U17">
+      <c r="Y17">
         <v>3.1303800000000002</v>
       </c>
-      <c r="V17">
+      <c r="Z17">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W17">
+      <c r="AA17">
         <f t="shared" si="0"/>
         <v>1.0964999999999669E-2</v>
       </c>
-      <c r="Y17" t="s">
-        <v>22</v>
+      <c r="AC17" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
@@ -8912,36 +9179,50 @@
       <c r="K18">
         <v>-3.4332300000000003E-5</v>
       </c>
-      <c r="M18" s="3">
+      <c r="L18">
+        <v>-1.15204E-3</v>
+      </c>
+      <c r="M18" s="4">
+        <v>-6.8664600000000007E-5</v>
+      </c>
+      <c r="N18" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.289000000000002E-5</v>
+      </c>
+      <c r="O18" s="4">
+        <f t="shared" si="4"/>
+        <v>-3.4332300000000003E-5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>31940</v>
       </c>
-      <c r="N18">
+      <c r="R18">
         <v>25144</v>
       </c>
-      <c r="O18">
+      <c r="S18">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P18">
+      <c r="T18">
         <v>3.1488999999999998</v>
       </c>
-      <c r="S18" s="3">
+      <c r="W18" s="3">
         <v>31940</v>
       </c>
-      <c r="T18">
+      <c r="X18">
         <v>3.142655</v>
       </c>
-      <c r="U18">
+      <c r="Y18">
         <v>3.1488999999999998</v>
       </c>
-      <c r="V18">
+      <c r="Z18">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W18">
+      <c r="AA18">
         <f t="shared" si="0"/>
         <v>-6.244999999999834E-3</v>
       </c>
-      <c r="Y18" t="s">
-        <v>23</v>
+      <c r="AC18" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
@@ -8980,31 +9261,45 @@
       <c r="K19">
         <v>-6.8664600000000007E-5</v>
       </c>
-      <c r="M19" s="3">
+      <c r="L19">
+        <v>-4.00543E-4</v>
+      </c>
+      <c r="M19">
+        <v>-1.02997E-4</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.2887999999999988E-5</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" si="4"/>
+        <v>-3.4332399999999997E-5</v>
+      </c>
+      <c r="Q19" s="3">
         <v>33936</v>
       </c>
-      <c r="N19">
+      <c r="R19">
         <v>26725</v>
       </c>
-      <c r="O19">
+      <c r="S19">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P19">
+      <c r="T19">
         <v>3.1500499999999998</v>
       </c>
-      <c r="S19" s="3">
+      <c r="W19" s="3">
         <v>33936</v>
       </c>
-      <c r="T19">
+      <c r="X19">
         <v>3.1415549999999999</v>
       </c>
-      <c r="U19">
+      <c r="Y19">
         <v>3.1500499999999998</v>
       </c>
-      <c r="V19">
+      <c r="Z19">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W19">
+      <c r="AA19">
         <f t="shared" si="0"/>
         <v>-8.4949999999999193E-3</v>
       </c>
@@ -9046,31 +9341,45 @@
       <c r="K20">
         <v>-8.0108600000000001E-5</v>
       </c>
-      <c r="M20" s="3">
+      <c r="L20">
+        <v>1.52588E-4</v>
+      </c>
+      <c r="M20">
+        <v>-1.14441E-4</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.2888000000000015E-5</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" si="4"/>
+        <v>-3.4332399999999997E-5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>35932</v>
       </c>
-      <c r="N20">
+      <c r="R20">
         <v>28183</v>
       </c>
-      <c r="O20">
+      <c r="S20">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P20">
+      <c r="T20">
         <v>3.1373700000000002</v>
       </c>
-      <c r="S20" s="3">
+      <c r="W20" s="3">
         <v>35932</v>
       </c>
-      <c r="T20">
+      <c r="X20">
         <v>3.1432549999999999</v>
       </c>
-      <c r="U20">
+      <c r="Y20">
         <v>3.1373700000000002</v>
       </c>
-      <c r="V20">
+      <c r="Z20">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W20">
+      <c r="AA20">
         <f t="shared" si="0"/>
         <v>5.884999999999696E-3</v>
       </c>
@@ -9111,31 +9420,45 @@
       <c r="K21">
         <v>-8.3923299999999997E-5</v>
       </c>
-      <c r="M21" s="3">
+      <c r="L21">
+        <v>6.0272199999999998E-4</v>
+      </c>
+      <c r="M21">
+        <v>-1.18256E-4</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.2887999999999988E-5</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" si="4"/>
+        <v>-3.4332700000000004E-5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>37928</v>
       </c>
-      <c r="N21">
+      <c r="R21">
         <v>29724</v>
       </c>
-      <c r="O21">
+      <c r="S21">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P21">
+      <c r="T21">
         <v>3.1347800000000001</v>
       </c>
-      <c r="S21" s="3">
+      <c r="W21" s="3">
         <v>37928</v>
       </c>
-      <c r="T21">
+      <c r="X21">
         <v>3.1438199999999998</v>
       </c>
-      <c r="U21">
+      <c r="Y21">
         <v>3.1347800000000001</v>
       </c>
-      <c r="V21">
+      <c r="Z21">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W21">
+      <c r="AA21">
         <f t="shared" si="0"/>
         <v>9.0399999999997149E-3</v>
       </c>
@@ -9176,31 +9499,45 @@
       <c r="K22">
         <v>-8.0108600000000001E-5</v>
       </c>
-      <c r="M22" s="3">
+      <c r="L22">
+        <v>1.0299700000000001E-3</v>
+      </c>
+      <c r="M22">
+        <v>-1.14441E-4</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.289000000000002E-5</v>
+      </c>
+      <c r="O22" s="4">
+        <f t="shared" si="4"/>
+        <v>-3.4332399999999997E-5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>39924</v>
       </c>
-      <c r="N22">
+      <c r="R22">
         <v>31384</v>
       </c>
-      <c r="O22">
+      <c r="S22">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P22">
+      <c r="T22">
         <v>3.1443699999999999</v>
       </c>
-      <c r="S22" s="3">
+      <c r="W22" s="3">
         <v>39924</v>
       </c>
-      <c r="T22">
+      <c r="X22">
         <v>3.1411899999999999</v>
       </c>
-      <c r="U22">
+      <c r="Y22">
         <v>3.1443699999999999</v>
       </c>
-      <c r="V22">
+      <c r="Z22">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W22">
+      <c r="AA22">
         <f t="shared" si="0"/>
         <v>-3.1799999999999606E-3</v>
       </c>
@@ -9241,31 +9578,45 @@
       <c r="K23">
         <v>-7.6293900000000005E-5</v>
       </c>
-      <c r="M23" s="3">
+      <c r="L23">
+        <v>1.4228800000000001E-3</v>
+      </c>
+      <c r="M23">
+        <v>-1.1062599999999999E-4</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.289000000000002E-5</v>
+      </c>
+      <c r="O23" s="4">
+        <f t="shared" si="4"/>
+        <v>-3.4332099999999989E-5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>41920</v>
       </c>
-      <c r="N23">
+      <c r="R23">
         <v>32841</v>
       </c>
-      <c r="O23">
+      <c r="S23">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P23">
+      <c r="T23">
         <v>3.13368</v>
       </c>
-      <c r="S23" s="3">
+      <c r="W23" s="3">
         <v>41920</v>
       </c>
-      <c r="T23">
+      <c r="X23">
         <v>3.1408100000000001</v>
       </c>
-      <c r="U23">
+      <c r="Y23">
         <v>3.13368</v>
       </c>
-      <c r="V23">
+      <c r="Z23">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W23">
+      <c r="AA23">
         <f t="shared" si="0"/>
         <v>7.1300000000000807E-3</v>
       </c>
@@ -9306,31 +9657,45 @@
       <c r="K24">
         <v>-1.6403199999999999E-4</v>
       </c>
-      <c r="M24" s="3">
+      <c r="L24">
+        <v>2.24304E-3</v>
+      </c>
+      <c r="M24">
+        <v>-1.98364E-4</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.6700000000000161E-5</v>
+      </c>
+      <c r="O24" s="4">
+        <f t="shared" si="4"/>
+        <v>-3.4332000000000009E-5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>43916</v>
       </c>
-      <c r="N24">
+      <c r="R24">
         <v>34543</v>
       </c>
-      <c r="O24">
+      <c r="S24">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P24">
+      <c r="T24">
         <v>3.14628</v>
       </c>
-      <c r="S24" s="3">
+      <c r="W24" s="3">
         <v>43916</v>
       </c>
-      <c r="T24">
+      <c r="X24">
         <v>3.14114</v>
       </c>
-      <c r="U24">
+      <c r="Y24">
         <v>3.14628</v>
       </c>
-      <c r="V24">
+      <c r="Z24">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W24">
+      <c r="AA24">
         <f t="shared" si="0"/>
         <v>-5.1399999999999224E-3</v>
       </c>
@@ -9371,31 +9736,45 @@
       <c r="K25">
         <v>-1.4495799999999999E-4</v>
       </c>
-      <c r="M25" s="3">
+      <c r="L25">
+        <v>2.6550300000000001E-3</v>
+      </c>
+      <c r="M25">
+        <v>-1.7929099999999999E-4</v>
+      </c>
+      <c r="N25" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.6699999999999727E-5</v>
+      </c>
+      <c r="O25" s="4">
+        <f t="shared" si="4"/>
+        <v>-3.4332999999999998E-5</v>
+      </c>
+      <c r="Q25" s="3">
         <v>45912</v>
       </c>
-      <c r="N25">
+      <c r="R25">
         <v>36061</v>
       </c>
-      <c r="O25">
+      <c r="S25">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P25">
+      <c r="T25">
         <v>3.14175</v>
       </c>
-      <c r="S25" s="3">
+      <c r="W25" s="3">
         <v>45912</v>
       </c>
-      <c r="T25">
+      <c r="X25">
         <v>3.1415099999999998</v>
       </c>
-      <c r="U25">
+      <c r="Y25">
         <v>3.14175</v>
       </c>
-      <c r="V25">
+      <c r="Z25">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W25">
+      <c r="AA25">
         <f t="shared" si="0"/>
         <v>-2.4000000000024002E-4</v>
       </c>
@@ -9436,31 +9815,45 @@
       <c r="K26">
         <v>-1.37329E-4</v>
       </c>
-      <c r="M26" s="3">
+      <c r="L26">
+        <v>2.9869100000000002E-3</v>
+      </c>
+      <c r="M26">
+        <v>-1.7166100000000001E-4</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.6699999999999727E-5</v>
+      </c>
+      <c r="O26" s="4">
+        <f t="shared" si="4"/>
+        <v>-3.4332000000000009E-5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>47908</v>
       </c>
-      <c r="N26">
+      <c r="R26">
         <v>37621</v>
       </c>
-      <c r="O26">
+      <c r="S26">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P26">
+      <c r="T26">
         <v>3.1410999999999998</v>
       </c>
-      <c r="S26" s="3">
+      <c r="W26" s="3">
         <v>47908</v>
       </c>
-      <c r="T26">
+      <c r="X26">
         <v>3.1410800000000001</v>
       </c>
-      <c r="U26">
+      <c r="Y26">
         <v>3.1410999999999998</v>
       </c>
-      <c r="V26">
+      <c r="Z26">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W26">
+      <c r="AA26">
         <f t="shared" si="0"/>
         <v>-1.9999999999686935E-5</v>
       </c>
@@ -9501,31 +9894,45 @@
       <c r="K27">
         <v>-1.2970000000000001E-4</v>
       </c>
-      <c r="M27" s="3">
+      <c r="L27">
+        <v>3.3569300000000002E-3</v>
+      </c>
+      <c r="M27">
+        <v>-1.6021699999999999E-4</v>
+      </c>
+      <c r="N27" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.6709999999999668E-5</v>
+      </c>
+      <c r="O27" s="4">
+        <f t="shared" si="4"/>
+        <v>-3.0516999999999979E-5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>49904</v>
       </c>
-      <c r="N27">
+      <c r="R27">
         <v>39122</v>
       </c>
-      <c r="O27">
+      <c r="S27">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P27">
+      <c r="T27">
         <v>3.13578</v>
       </c>
-      <c r="S27" s="3">
+      <c r="W27" s="3">
         <v>49904</v>
       </c>
-      <c r="T27">
+      <c r="X27">
         <v>3.14107</v>
       </c>
-      <c r="U27">
+      <c r="Y27">
         <v>3.13578</v>
       </c>
-      <c r="V27">
+      <c r="Z27">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W27">
+      <c r="AA27">
         <f t="shared" si="0"/>
         <v>5.2900000000000169E-3</v>
       </c>
@@ -9566,31 +9973,45 @@
       <c r="K28">
         <v>-1.2588500000000001E-4</v>
       </c>
-      <c r="M28" s="3">
+      <c r="L28">
+        <v>3.7269600000000001E-3</v>
+      </c>
+      <c r="M28">
+        <v>-1.56403E-4</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.6699999999999727E-5</v>
+      </c>
+      <c r="O28" s="4">
+        <f t="shared" si="4"/>
+        <v>-3.0517999999999995E-5</v>
+      </c>
+      <c r="Q28" s="3">
         <v>51900</v>
       </c>
-      <c r="N28">
+      <c r="R28">
         <v>40841</v>
       </c>
-      <c r="O28">
+      <c r="S28">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P28">
+      <c r="T28">
         <v>3.1476700000000002</v>
       </c>
-      <c r="S28" s="3">
+      <c r="W28" s="3">
         <v>51900</v>
       </c>
-      <c r="T28">
+      <c r="X28">
         <v>3.1426799999999999</v>
       </c>
-      <c r="U28">
+      <c r="Y28">
         <v>3.1476700000000002</v>
       </c>
-      <c r="V28">
+      <c r="Z28">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W28">
+      <c r="AA28">
         <f t="shared" si="0"/>
         <v>-4.990000000000272E-3</v>
       </c>
@@ -9631,31 +10052,45 @@
       <c r="K29">
         <v>-1.33514E-4</v>
       </c>
-      <c r="M29" s="3">
+      <c r="L29">
+        <v>4.2114300000000004E-3</v>
+      </c>
+      <c r="M29">
+        <v>-1.6403199999999999E-4</v>
+      </c>
+      <c r="N29" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.6699999999999294E-5</v>
+      </c>
+      <c r="O29" s="4">
+        <f t="shared" si="4"/>
+        <v>-3.0517999999999995E-5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>53896</v>
       </c>
-      <c r="N29">
+      <c r="R29">
         <v>42483</v>
       </c>
-      <c r="O29">
+      <c r="S29">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P29">
+      <c r="T29">
         <v>3.1529600000000002</v>
       </c>
-      <c r="S29" s="3">
+      <c r="W29" s="3">
         <v>53896</v>
       </c>
-      <c r="T29">
+      <c r="X29">
         <v>3.14405</v>
       </c>
-      <c r="U29">
+      <c r="Y29">
         <v>3.1529600000000002</v>
       </c>
-      <c r="V29">
+      <c r="Z29">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W29">
+      <c r="AA29">
         <f t="shared" si="0"/>
         <v>-8.9100000000001955E-3</v>
       </c>
@@ -9696,31 +10131,45 @@
       <c r="K30">
         <v>-1.2207E-4</v>
       </c>
-      <c r="M30" s="3">
+      <c r="L30">
+        <v>4.5013400000000004E-3</v>
+      </c>
+      <c r="M30">
+        <v>-1.52588E-4</v>
+      </c>
+      <c r="N30" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.6709999999999234E-5</v>
+      </c>
+      <c r="O30" s="4">
+        <f t="shared" si="4"/>
+        <v>-3.0517999999999995E-5</v>
+      </c>
+      <c r="Q30" s="3">
         <v>55892</v>
       </c>
-      <c r="N30">
+      <c r="R30">
         <v>43856</v>
       </c>
-      <c r="O30">
+      <c r="S30">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P30">
+      <c r="T30">
         <v>3.13862</v>
       </c>
-      <c r="S30" s="3">
+      <c r="W30" s="3">
         <v>55892</v>
       </c>
-      <c r="T30">
+      <c r="X30">
         <v>3.143745</v>
       </c>
-      <c r="U30">
+      <c r="Y30">
         <v>3.13862</v>
       </c>
-      <c r="V30">
+      <c r="Z30">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W30">
+      <c r="AA30">
         <f t="shared" si="0"/>
         <v>5.1250000000000462E-3</v>
       </c>
@@ -9761,31 +10210,45 @@
       <c r="K31">
         <v>-1.33514E-4</v>
       </c>
-      <c r="M31" s="3">
+      <c r="L31">
+        <v>4.7988900000000001E-3</v>
+      </c>
+      <c r="M31">
+        <v>-1.6403199999999999E-4</v>
+      </c>
+      <c r="N31" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.6700000000000161E-5</v>
+      </c>
+      <c r="O31" s="4">
+        <f t="shared" si="4"/>
+        <v>-3.0517999999999995E-5</v>
+      </c>
+      <c r="Q31" s="3">
         <v>57888</v>
       </c>
-      <c r="N31">
+      <c r="R31">
         <v>45680</v>
       </c>
-      <c r="O31">
+      <c r="S31">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P31">
+      <c r="T31">
         <v>3.1564399999999999</v>
       </c>
-      <c r="S31" s="3">
+      <c r="W31" s="3">
         <v>57888</v>
       </c>
-      <c r="T31">
+      <c r="X31">
         <v>3.143135</v>
       </c>
-      <c r="U31">
+      <c r="Y31">
         <v>3.1564399999999999</v>
       </c>
-      <c r="V31">
+      <c r="Z31">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W31">
+      <c r="AA31">
         <f t="shared" si="0"/>
         <v>-1.33049999999999E-2</v>
       </c>
@@ -9826,36 +10289,50 @@
       <c r="K32">
         <v>-2.02179E-4</v>
       </c>
-      <c r="M32" s="3">
+      <c r="L32">
+        <v>5.5351300000000001E-3</v>
+      </c>
+      <c r="M32">
+        <v>-2.32697E-4</v>
+      </c>
+      <c r="N32" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.6700000000000161E-5</v>
+      </c>
+      <c r="O32" s="4">
+        <f t="shared" si="4"/>
+        <v>-3.0517999999999995E-5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>59884</v>
       </c>
-      <c r="N32">
+      <c r="R32">
         <v>47013</v>
       </c>
-      <c r="O32">
+      <c r="S32">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P32">
+      <c r="T32">
         <v>3.1402700000000001</v>
       </c>
-      <c r="S32" s="3">
+      <c r="W32" s="3">
         <v>59884</v>
       </c>
-      <c r="T32">
+      <c r="X32">
         <v>3.1410450000000001</v>
       </c>
-      <c r="U32">
+      <c r="Y32">
         <v>3.1402700000000001</v>
       </c>
-      <c r="V32">
+      <c r="Z32">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W32">
+      <c r="AA32">
         <f t="shared" si="0"/>
         <v>7.7499999999997016E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>61880</v>
       </c>
@@ -9891,36 +10368,50 @@
       <c r="K33">
         <v>-2.2125199999999999E-4</v>
       </c>
-      <c r="M33" s="3">
+      <c r="L33">
+        <v>5.9051499999999996E-3</v>
+      </c>
+      <c r="M33">
+        <v>-2.5177000000000001E-4</v>
+      </c>
+      <c r="N33" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.6700000000000161E-5</v>
+      </c>
+      <c r="O33" s="4">
+        <f t="shared" si="4"/>
+        <v>-3.0518000000000022E-5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>61880</v>
       </c>
-      <c r="N33">
+      <c r="R33">
         <v>48649</v>
       </c>
-      <c r="O33">
+      <c r="S33">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P33">
+      <c r="T33">
         <v>3.14473</v>
       </c>
-      <c r="S33" s="3">
+      <c r="W33" s="3">
         <v>61880</v>
       </c>
-      <c r="T33">
+      <c r="X33">
         <v>3.1423399999999999</v>
       </c>
-      <c r="U33">
+      <c r="Y33">
         <v>3.14473</v>
       </c>
-      <c r="V33">
+      <c r="Z33">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W33">
+      <c r="AA33">
         <f t="shared" si="0"/>
         <v>-2.3900000000001143E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>63876</v>
       </c>
@@ -9956,36 +10447,50 @@
       <c r="K34">
         <v>-2.2888199999999999E-4</v>
       </c>
-      <c r="M34" s="3">
+      <c r="L34">
+        <v>6.1340300000000004E-3</v>
+      </c>
+      <c r="M34">
+        <v>-6.9427499999999995E-4</v>
+      </c>
+      <c r="N34" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.7547999999999956E-4</v>
+      </c>
+      <c r="O34" s="4">
+        <f t="shared" si="4"/>
+        <v>-4.6539299999999993E-4</v>
+      </c>
+      <c r="Q34" s="3">
         <v>63876</v>
       </c>
-      <c r="N34">
+      <c r="R34">
         <v>50228</v>
       </c>
-      <c r="O34">
+      <c r="S34">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P34">
+      <c r="T34">
         <v>3.14534</v>
       </c>
-      <c r="S34" s="3">
+      <c r="W34" s="3">
         <v>63876</v>
       </c>
-      <c r="T34">
+      <c r="X34">
         <v>3.1408649999999998</v>
       </c>
-      <c r="U34">
+      <c r="Y34">
         <v>3.14534</v>
       </c>
-      <c r="V34">
+      <c r="Z34">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W34">
-        <f t="shared" ref="W34:W52" si="3">T34-U34</f>
+      <c r="AA34">
+        <f t="shared" ref="AA34:AA52" si="5">X34-Y34</f>
         <v>-4.4750000000002288E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>65872</v>
       </c>
@@ -10021,36 +10526,50 @@
       <c r="K35">
         <v>-3.4332299999999998E-4</v>
       </c>
-      <c r="M35" s="3">
+      <c r="L35">
+        <v>7.2860700000000004E-3</v>
+      </c>
+      <c r="M35">
+        <v>-8.0871600000000001E-4</v>
+      </c>
+      <c r="N35" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.7547999999999956E-4</v>
+      </c>
+      <c r="O35" s="4">
+        <f t="shared" si="4"/>
+        <v>-4.6539300000000003E-4</v>
+      </c>
+      <c r="Q35" s="3">
         <v>65872</v>
       </c>
-      <c r="N35">
+      <c r="R35">
         <v>51650</v>
       </c>
-      <c r="O35">
+      <c r="S35">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P35">
+      <c r="T35">
         <v>3.13639</v>
       </c>
-      <c r="S35" s="3">
+      <c r="W35" s="3">
         <v>65872</v>
       </c>
-      <c r="T35">
+      <c r="X35">
         <v>3.141035</v>
       </c>
-      <c r="U35">
+      <c r="Y35">
         <v>3.13639</v>
       </c>
-      <c r="V35">
+      <c r="Z35">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W35">
-        <f t="shared" si="3"/>
+      <c r="AA35">
+        <f t="shared" si="5"/>
         <v>4.6450000000000102E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>67868</v>
       </c>
@@ -10086,36 +10605,50 @@
       <c r="K36">
         <v>-3.2806399999999998E-4</v>
       </c>
-      <c r="M36" s="3">
+      <c r="L36">
+        <v>7.5378399999999996E-3</v>
+      </c>
+      <c r="M36">
+        <v>-7.9345700000000002E-4</v>
+      </c>
+      <c r="N36" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.7548000000000043E-4</v>
+      </c>
+      <c r="O36" s="4">
+        <f t="shared" si="4"/>
+        <v>-4.6539300000000003E-4</v>
+      </c>
+      <c r="Q36" s="3">
         <v>67868</v>
       </c>
-      <c r="N36">
+      <c r="R36">
         <v>53380</v>
       </c>
-      <c r="O36">
+      <c r="S36">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P36">
+      <c r="T36">
         <v>3.1461100000000002</v>
       </c>
-      <c r="S36" s="3">
+      <c r="W36" s="3">
         <v>67868</v>
       </c>
-      <c r="T36">
+      <c r="X36">
         <v>3.1400800000000002</v>
       </c>
-      <c r="U36">
+      <c r="Y36">
         <v>3.1461100000000002</v>
       </c>
-      <c r="V36">
+      <c r="Z36">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W36">
-        <f t="shared" si="3"/>
+      <c r="AA36">
+        <f t="shared" si="5"/>
         <v>-6.0299999999999798E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>69864</v>
       </c>
@@ -10151,36 +10684,50 @@
       <c r="K37">
         <v>-3.3569300000000003E-4</v>
       </c>
-      <c r="M37" s="3">
+      <c r="L37">
+        <v>7.8201299999999998E-3</v>
+      </c>
+      <c r="M37">
+        <v>-8.0108600000000001E-4</v>
+      </c>
+      <c r="N37" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.7548000000000043E-4</v>
+      </c>
+      <c r="O37" s="4">
+        <f t="shared" si="4"/>
+        <v>-4.6539299999999998E-4</v>
+      </c>
+      <c r="Q37" s="3">
         <v>69864</v>
       </c>
-      <c r="N37">
+      <c r="R37">
         <v>54733</v>
       </c>
-      <c r="O37">
+      <c r="S37">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P37">
+      <c r="T37">
         <v>3.1336900000000001</v>
       </c>
-      <c r="S37" s="3">
+      <c r="W37" s="3">
         <v>69864</v>
       </c>
-      <c r="T37">
+      <c r="X37">
         <v>3.1431149999999999</v>
       </c>
-      <c r="U37">
+      <c r="Y37">
         <v>3.1336900000000001</v>
       </c>
-      <c r="V37">
+      <c r="Z37">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W37">
-        <f t="shared" si="3"/>
+      <c r="AA37">
+        <f t="shared" si="5"/>
         <v>9.4249999999997947E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>71860</v>
       </c>
@@ -10216,36 +10763,50 @@
       <c r="K38">
         <v>-3.0517599999999999E-4</v>
       </c>
-      <c r="M38" s="3">
+      <c r="L38">
+        <v>8.0261199999999994E-3</v>
+      </c>
+      <c r="M38">
+        <v>-7.7056900000000003E-4</v>
+      </c>
+      <c r="N38" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.7548000000000043E-4</v>
+      </c>
+      <c r="O38" s="4">
+        <f t="shared" si="4"/>
+        <v>-4.6539300000000003E-4</v>
+      </c>
+      <c r="Q38" s="3">
         <v>71860</v>
       </c>
-      <c r="N38">
+      <c r="R38">
         <v>56194</v>
       </c>
-      <c r="O38">
+      <c r="S38">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P38">
+      <c r="T38">
         <v>3.1279699999999999</v>
       </c>
-      <c r="S38" s="3">
+      <c r="W38" s="3">
         <v>71860</v>
       </c>
-      <c r="T38">
+      <c r="X38">
         <v>3.1403599999999998</v>
       </c>
-      <c r="U38">
+      <c r="Y38">
         <v>3.1279699999999999</v>
       </c>
-      <c r="V38">
+      <c r="Z38">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W38">
-        <f t="shared" si="3"/>
+      <c r="AA38">
+        <f t="shared" si="5"/>
         <v>1.2389999999999901E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>73856</v>
       </c>
@@ -10281,36 +10842,50 @@
       <c r="K39">
         <v>-3.0517599999999999E-4</v>
       </c>
-      <c r="M39" s="3">
+      <c r="L39">
+        <v>8.2168599999999994E-3</v>
+      </c>
+      <c r="M39">
+        <v>-7.7056900000000003E-4</v>
+      </c>
+      <c r="N39" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.7547000000000049E-4</v>
+      </c>
+      <c r="O39" s="4">
+        <f t="shared" si="4"/>
+        <v>-4.6539300000000003E-4</v>
+      </c>
+      <c r="Q39" s="3">
         <v>73856</v>
       </c>
-      <c r="N39">
+      <c r="R39">
         <v>58072</v>
       </c>
-      <c r="O39">
+      <c r="S39">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P39">
+      <c r="T39">
         <v>3.1451500000000001</v>
       </c>
-      <c r="S39" s="3">
+      <c r="W39" s="3">
         <v>73856</v>
       </c>
-      <c r="T39">
+      <c r="X39">
         <v>3.139615</v>
       </c>
-      <c r="U39">
+      <c r="Y39">
         <v>3.1451500000000001</v>
       </c>
-      <c r="V39">
+      <c r="Z39">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W39">
-        <f t="shared" si="3"/>
+      <c r="AA39">
+        <f t="shared" si="5"/>
         <v>-5.5350000000000676E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>75852</v>
       </c>
@@ -10346,36 +10921,50 @@
       <c r="K40">
         <v>-3.1280499999999998E-4</v>
       </c>
-      <c r="M40" s="3">
+      <c r="L40">
+        <v>8.4609999999999998E-3</v>
+      </c>
+      <c r="M40">
+        <v>-7.7819800000000002E-4</v>
+      </c>
+      <c r="N40" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.7547000000000049E-4</v>
+      </c>
+      <c r="O40" s="4">
+        <f t="shared" si="4"/>
+        <v>-4.6539300000000003E-4</v>
+      </c>
+      <c r="Q40" s="3">
         <v>75852</v>
       </c>
-      <c r="N40">
+      <c r="R40">
         <v>59375</v>
       </c>
-      <c r="O40">
+      <c r="S40">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P40">
+      <c r="T40">
         <v>3.1311</v>
       </c>
-      <c r="S40" s="3">
+      <c r="W40" s="3">
         <v>75852</v>
       </c>
-      <c r="T40">
+      <c r="X40">
         <v>3.142325</v>
       </c>
-      <c r="U40">
+      <c r="Y40">
         <v>3.1311</v>
       </c>
-      <c r="V40">
+      <c r="Z40">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W40">
-        <f t="shared" si="3"/>
+      <c r="AA40">
+        <f t="shared" si="5"/>
         <v>1.1225000000000041E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>77848</v>
       </c>
@@ -10411,36 +11000,50 @@
       <c r="K41">
         <v>-3.0517599999999999E-4</v>
       </c>
-      <c r="M41" s="3">
+      <c r="L41">
+        <v>8.8043199999999992E-3</v>
+      </c>
+      <c r="M41">
+        <v>-7.7056900000000003E-4</v>
+      </c>
+      <c r="N41" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.7548000000000043E-4</v>
+      </c>
+      <c r="O41" s="4">
+        <f t="shared" si="4"/>
+        <v>-4.6539300000000003E-4</v>
+      </c>
+      <c r="Q41" s="3">
         <v>77848</v>
       </c>
-      <c r="N41">
+      <c r="R41">
         <v>61222</v>
       </c>
-      <c r="O41">
+      <c r="S41">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P41">
+      <c r="T41">
         <v>3.1457199999999998</v>
       </c>
-      <c r="S41" s="3">
+      <c r="W41" s="3">
         <v>77848</v>
       </c>
-      <c r="T41">
+      <c r="X41">
         <v>3.1410999999999998</v>
       </c>
-      <c r="U41">
+      <c r="Y41">
         <v>3.1457199999999998</v>
       </c>
-      <c r="V41">
+      <c r="Z41">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W41">
-        <f t="shared" si="3"/>
+      <c r="AA41">
+        <f t="shared" si="5"/>
         <v>-4.6200000000000685E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>79844</v>
       </c>
@@ -10476,36 +11079,50 @@
       <c r="K42">
         <v>-3.1280499999999998E-4</v>
       </c>
-      <c r="M42" s="3">
+      <c r="L42">
+        <v>8.9569100000000002E-3</v>
+      </c>
+      <c r="M42">
+        <v>-7.7819800000000002E-4</v>
+      </c>
+      <c r="N42" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.7548000000000043E-4</v>
+      </c>
+      <c r="O42" s="4">
+        <f t="shared" si="4"/>
+        <v>-4.6539300000000003E-4</v>
+      </c>
+      <c r="Q42" s="3">
         <v>79844</v>
       </c>
-      <c r="N42">
+      <c r="R42">
         <v>62600</v>
       </c>
-      <c r="O42">
+      <c r="S42">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P42">
+      <c r="T42">
         <v>3.13612</v>
       </c>
-      <c r="S42" s="3">
+      <c r="W42" s="3">
         <v>79844</v>
       </c>
-      <c r="T42">
+      <c r="X42">
         <v>3.1410200000000001</v>
       </c>
-      <c r="U42">
+      <c r="Y42">
         <v>3.13612</v>
       </c>
-      <c r="V42">
+      <c r="Z42">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W42">
-        <f t="shared" si="3"/>
+      <c r="AA42">
+        <f t="shared" si="5"/>
         <v>4.9000000000001265E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>81840</v>
       </c>
@@ -10541,36 +11158,50 @@
       <c r="K43">
         <v>-3.1280499999999998E-4</v>
       </c>
-      <c r="M43" s="3">
+      <c r="L43">
+        <v>9.1476400000000003E-3</v>
+      </c>
+      <c r="M43">
+        <v>-7.7819800000000002E-4</v>
+      </c>
+      <c r="N43" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.7548000000000043E-4</v>
+      </c>
+      <c r="O43" s="4">
+        <f t="shared" si="4"/>
+        <v>-4.6539300000000003E-4</v>
+      </c>
+      <c r="Q43" s="3">
         <v>81840</v>
       </c>
-      <c r="N43">
+      <c r="R43">
         <v>64401</v>
       </c>
-      <c r="O43">
+      <c r="S43">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P43">
+      <c r="T43">
         <v>3.1476500000000001</v>
       </c>
-      <c r="S43" s="3">
+      <c r="W43" s="3">
         <v>81840</v>
       </c>
-      <c r="T43">
+      <c r="X43">
         <v>3.1414249999999999</v>
       </c>
-      <c r="U43">
+      <c r="Y43">
         <v>3.1476500000000001</v>
       </c>
-      <c r="V43">
+      <c r="Z43">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W43">
-        <f t="shared" si="3"/>
+      <c r="AA43">
+        <f t="shared" si="5"/>
         <v>-6.2250000000001471E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>83836</v>
       </c>
@@ -10606,36 +11237,50 @@
       <c r="K44">
         <v>-3.0517599999999999E-4</v>
       </c>
-      <c r="M44" s="3">
+      <c r="L44">
+        <v>9.3841600000000008E-3</v>
+      </c>
+      <c r="M44">
+        <v>-7.7056900000000003E-4</v>
+      </c>
+      <c r="N44" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.7546999999999875E-4</v>
+      </c>
+      <c r="O44" s="4">
+        <f t="shared" si="4"/>
+        <v>-4.6539300000000003E-4</v>
+      </c>
+      <c r="Q44" s="3">
         <v>83836</v>
       </c>
-      <c r="N44">
+      <c r="R44">
         <v>65653</v>
       </c>
-      <c r="O44">
+      <c r="S44">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P44">
+      <c r="T44">
         <v>3.13245</v>
       </c>
-      <c r="S44" s="3">
+      <c r="W44" s="3">
         <v>83836</v>
       </c>
-      <c r="T44">
+      <c r="X44">
         <v>3.1393749999999998</v>
       </c>
-      <c r="U44">
+      <c r="Y44">
         <v>3.13245</v>
       </c>
-      <c r="V44">
+      <c r="Z44">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W44">
-        <f t="shared" si="3"/>
+      <c r="AA44">
+        <f t="shared" si="5"/>
         <v>6.9249999999998479E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>85832</v>
       </c>
@@ -10671,36 +11316,50 @@
       <c r="K45">
         <v>-2.89917E-4</v>
       </c>
-      <c r="M45" s="3">
+      <c r="L45">
+        <v>9.6969599999999993E-3</v>
+      </c>
+      <c r="M45">
+        <v>-7.5531000000000003E-4</v>
+      </c>
+      <c r="N45" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.7548000000000043E-4</v>
+      </c>
+      <c r="O45" s="4">
+        <f t="shared" si="4"/>
+        <v>-4.6539300000000003E-4</v>
+      </c>
+      <c r="Q45" s="3">
         <v>85832</v>
       </c>
-      <c r="N45">
+      <c r="R45">
         <v>67522</v>
       </c>
-      <c r="O45">
+      <c r="S45">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P45">
+      <c r="T45">
         <v>3.1467100000000001</v>
       </c>
-      <c r="S45" s="3">
+      <c r="W45" s="3">
         <v>85832</v>
       </c>
-      <c r="T45">
+      <c r="X45">
         <v>3.1449150000000001</v>
       </c>
-      <c r="U45">
+      <c r="Y45">
         <v>3.1467100000000001</v>
       </c>
-      <c r="V45">
+      <c r="Z45">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W45">
-        <f t="shared" si="3"/>
+      <c r="AA45">
+        <f t="shared" si="5"/>
         <v>-1.794999999999991E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>87828</v>
       </c>
@@ -10736,36 +11395,50 @@
       <c r="K46">
         <v>-2.89917E-4</v>
       </c>
-      <c r="M46" s="3">
+      <c r="L46">
+        <v>9.8495500000000003E-3</v>
+      </c>
+      <c r="M46">
+        <v>-7.5531000000000003E-4</v>
+      </c>
+      <c r="N46" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.7544999999999887E-4</v>
+      </c>
+      <c r="O46" s="4">
+        <f t="shared" si="4"/>
+        <v>-4.6539300000000003E-4</v>
+      </c>
+      <c r="Q46" s="3">
         <v>87828</v>
       </c>
-      <c r="N46">
+      <c r="R46">
         <v>69271</v>
       </c>
-      <c r="O46">
+      <c r="S46">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P46">
+      <c r="T46">
         <v>3.1548500000000002</v>
       </c>
-      <c r="S46" s="3">
+      <c r="W46" s="3">
         <v>87828</v>
       </c>
-      <c r="T46">
+      <c r="X46">
         <v>3.1410049999999998</v>
       </c>
-      <c r="U46">
+      <c r="Y46">
         <v>3.1548500000000002</v>
       </c>
-      <c r="V46">
+      <c r="Z46">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W46">
-        <f t="shared" si="3"/>
+      <c r="AA46">
+        <f t="shared" si="5"/>
         <v>-1.3845000000000329E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>89824</v>
       </c>
@@ -10801,36 +11474,50 @@
       <c r="K47">
         <v>-2.74658E-4</v>
       </c>
-      <c r="M47" s="3">
+      <c r="L47">
+        <v>1.0024999999999999E-2</v>
+      </c>
+      <c r="M47">
+        <v>-7.4005100000000003E-4</v>
+      </c>
+      <c r="N47" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.7550000000000031E-4</v>
+      </c>
+      <c r="O47" s="4">
+        <f t="shared" si="4"/>
+        <v>-4.6539300000000003E-4</v>
+      </c>
+      <c r="Q47" s="3">
         <v>89824</v>
       </c>
-      <c r="N47">
+      <c r="R47">
         <v>70638</v>
       </c>
-      <c r="O47">
+      <c r="S47">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P47">
+      <c r="T47">
         <v>3.1456200000000001</v>
       </c>
-      <c r="S47" s="3">
+      <c r="W47" s="3">
         <v>89824</v>
       </c>
-      <c r="T47">
+      <c r="X47">
         <v>3.142855</v>
       </c>
-      <c r="U47">
+      <c r="Y47">
         <v>3.1456200000000001</v>
       </c>
-      <c r="V47">
+      <c r="Z47">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W47">
-        <f t="shared" si="3"/>
+      <c r="AA47">
+        <f t="shared" si="5"/>
         <v>-2.7650000000001285E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>91820</v>
       </c>
@@ -10866,36 +11553,50 @@
       <c r="K48">
         <v>-2.6702900000000001E-4</v>
       </c>
-      <c r="M48" s="3">
+      <c r="L48">
+        <v>1.0208099999999999E-2</v>
+      </c>
+      <c r="M48">
+        <v>-7.3242200000000004E-4</v>
+      </c>
+      <c r="N48" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.7550000000000031E-4</v>
+      </c>
+      <c r="O48" s="4">
+        <f t="shared" si="4"/>
+        <v>-4.6539300000000003E-4</v>
+      </c>
+      <c r="Q48" s="3">
         <v>91820</v>
       </c>
-      <c r="N48">
+      <c r="R48">
         <v>72122</v>
       </c>
-      <c r="O48">
+      <c r="S48">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P48">
+      <c r="T48">
         <v>3.1418900000000001</v>
       </c>
-      <c r="S48" s="3">
+      <c r="W48" s="3">
         <v>91820</v>
       </c>
-      <c r="T48">
+      <c r="X48">
         <v>3.1453899999999999</v>
       </c>
-      <c r="U48">
+      <c r="Y48">
         <v>3.1418900000000001</v>
       </c>
-      <c r="V48">
+      <c r="Z48">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W48">
-        <f t="shared" si="3"/>
+      <c r="AA48">
+        <f t="shared" si="5"/>
         <v>3.4999999999998366E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>93816</v>
       </c>
@@ -10931,36 +11632,50 @@
       <c r="K49">
         <v>-2.74658E-4</v>
       </c>
-      <c r="M49" s="3">
+      <c r="L49">
+        <v>1.0414100000000001E-2</v>
+      </c>
+      <c r="M49">
+        <v>-7.4005100000000003E-4</v>
+      </c>
+      <c r="N49" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.7549999999999857E-4</v>
+      </c>
+      <c r="O49" s="4">
+        <f t="shared" si="4"/>
+        <v>-4.6539300000000003E-4</v>
+      </c>
+      <c r="Q49" s="3">
         <v>93816</v>
       </c>
-      <c r="N49">
+      <c r="R49">
         <v>73577</v>
       </c>
-      <c r="O49">
+      <c r="S49">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P49">
+      <c r="T49">
         <v>3.1370800000000001</v>
       </c>
-      <c r="S49" s="3">
+      <c r="W49" s="3">
         <v>93816</v>
       </c>
-      <c r="T49">
+      <c r="X49">
         <v>3.1384400000000001</v>
       </c>
-      <c r="U49">
+      <c r="Y49">
         <v>3.1370800000000001</v>
       </c>
-      <c r="V49">
+      <c r="Z49">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W49">
-        <f t="shared" si="3"/>
+      <c r="AA49">
+        <f t="shared" si="5"/>
         <v>1.3600000000000279E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>95812</v>
       </c>
@@ -10996,36 +11711,50 @@
       <c r="K50">
         <v>-2.74658E-4</v>
       </c>
-      <c r="M50" s="3">
+      <c r="L50">
+        <v>1.0704E-2</v>
+      </c>
+      <c r="M50">
+        <v>-7.4005100000000003E-4</v>
+      </c>
+      <c r="N50" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.7550000000000031E-4</v>
+      </c>
+      <c r="O50" s="4">
+        <f t="shared" si="4"/>
+        <v>-4.6539300000000003E-4</v>
+      </c>
+      <c r="Q50" s="3">
         <v>95812</v>
       </c>
-      <c r="N50">
+      <c r="R50">
         <v>75234</v>
       </c>
-      <c r="O50">
+      <c r="S50">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P50">
+      <c r="T50">
         <v>3.1408999999999998</v>
       </c>
-      <c r="S50" s="3">
+      <c r="W50" s="3">
         <v>95812</v>
       </c>
-      <c r="T50">
+      <c r="X50">
         <v>3.145105</v>
       </c>
-      <c r="U50">
+      <c r="Y50">
         <v>3.1408999999999998</v>
       </c>
-      <c r="V50">
+      <c r="Z50">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W50">
-        <f t="shared" si="3"/>
+      <c r="AA50">
+        <f t="shared" si="5"/>
         <v>4.2050000000002363E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>97808</v>
       </c>
@@ -11061,36 +11790,50 @@
       <c r="K51">
         <v>-2.74658E-4</v>
       </c>
-      <c r="M51" s="3">
+      <c r="L51">
+        <v>1.0841399999999999E-2</v>
+      </c>
+      <c r="M51">
+        <v>-7.4005100000000003E-4</v>
+      </c>
+      <c r="N51" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.754000000000009E-4</v>
+      </c>
+      <c r="O51" s="4">
+        <f t="shared" si="4"/>
+        <v>-4.6539300000000003E-4</v>
+      </c>
+      <c r="Q51" s="3">
         <v>97808</v>
       </c>
-      <c r="N51">
+      <c r="R51">
         <v>76952</v>
       </c>
-      <c r="O51">
+      <c r="S51">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P51">
+      <c r="T51">
         <v>3.1470600000000002</v>
       </c>
-      <c r="S51" s="3">
+      <c r="W51" s="3">
         <v>97808</v>
       </c>
-      <c r="T51">
+      <c r="X51">
         <v>3.1424650000000001</v>
       </c>
-      <c r="U51">
+      <c r="Y51">
         <v>3.1470600000000002</v>
       </c>
-      <c r="V51">
+      <c r="Z51">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W51">
-        <f t="shared" si="3"/>
+      <c r="AA51">
+        <f t="shared" si="5"/>
         <v>-4.5950000000001268E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>99804</v>
       </c>
@@ -11126,45 +11869,59 @@
       <c r="K52">
         <v>-2.8228800000000001E-4</v>
       </c>
-      <c r="M52" s="3">
+      <c r="L52">
+        <v>1.10168E-2</v>
+      </c>
+      <c r="M52">
+        <v>-7.4768100000000004E-4</v>
+      </c>
+      <c r="N52" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.6790000000000034E-4</v>
+      </c>
+      <c r="O52" s="4">
+        <f t="shared" si="4"/>
+        <v>-4.6539300000000003E-4</v>
+      </c>
+      <c r="Q52" s="3">
         <v>99804</v>
       </c>
-      <c r="N52">
+      <c r="R52">
         <v>78287</v>
       </c>
-      <c r="O52">
+      <c r="S52">
         <v>3.1415899999999999</v>
       </c>
-      <c r="P52">
+      <c r="T52">
         <v>3.1376300000000001</v>
       </c>
-      <c r="S52" s="3">
+      <c r="W52" s="3">
         <v>99804</v>
       </c>
-      <c r="T52">
+      <c r="X52">
         <v>3.1409549999999999</v>
       </c>
-      <c r="U52">
+      <c r="Y52">
         <v>3.1376300000000001</v>
       </c>
-      <c r="V52">
+      <c r="Z52">
         <v>3.1415899999999999</v>
       </c>
-      <c r="W52">
-        <f t="shared" si="3"/>
+      <c r="AA52">
+        <f t="shared" si="5"/>
         <v>3.3249999999998003E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -11173,7 +11930,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>17</v>
       </c>
@@ -11182,25 +11939,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="8:8" x14ac:dyDescent="0.2">
@@ -11232,7 +11989,7 @@
         <v>19</v>
       </c>
       <c r="D87" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Projekt1/Hipotezy.xlsx
+++ b/Projekt1/Hipotezy.xlsx
@@ -1,32 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/safurynm/Desktop/StudiaUG/AlgNum/Algorytmy-Numeryczne/Projekt1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/safurynm/Desktop/StudiaUG/AlgNum/Projekt1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29204FF0-CC78-B649-8AC2-3FB581CDA70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4005CDB6-01E9-1F4A-9778-876F2CC6A232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{856EA640-2464-1B47-824C-F5A41D343910}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14280" xr2:uid="{856EA640-2464-1B47-824C-F5A41D343910}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Arkusz1!$N$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Arkusz1!$N$2:$N$52</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Arkusz1!$O$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Arkusz1!$O$2:$O$52</definedName>
-    <definedName name="monte_carlo" localSheetId="0">Arkusz1!$L$3:$R$22</definedName>
+    <definedName name="monte_carlo" localSheetId="0">Arkusz1!$L$3:$T$22</definedName>
     <definedName name="pkt_konc" localSheetId="0">Arkusz1!$G$2:$H$34</definedName>
     <definedName name="test" localSheetId="0">Arkusz1!$A$2:$C$52</definedName>
     <definedName name="test_1" localSheetId="0">Arkusz1!$D$2:$E$52</definedName>
     <definedName name="test_2" localSheetId="0">Arkusz1!$F$2:$G$52</definedName>
     <definedName name="test_3" localSheetId="0">Arkusz1!$J$2:$K$52</definedName>
-    <definedName name="test_4" localSheetId="0">Arkusz1!$Q$2:$T$52</definedName>
+    <definedName name="test_4" localSheetId="0">Arkusz1!$S$2:$V$52</definedName>
     <definedName name="test_5" localSheetId="0">Arkusz1!$L$2:$M$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -128,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>n</t>
   </si>
@@ -212,6 +208,12 @@
   </si>
   <si>
     <t>roznica jest dość spora blędy nieposortowane sa wieksze niż nieposortowane czyli posortowane daja lepsze wyniki blizsze oczekiwanym</t>
+  </si>
+  <si>
+    <t>Wieksze SY</t>
+  </si>
+  <si>
+    <t>Wieksze SX</t>
   </si>
 </sst>
 </file>
@@ -2556,7 +2558,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$X$1</c:f>
+              <c:f>Arkusz1!$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2579,7 +2581,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Arkusz1!$W$2:$W$52</c:f>
+              <c:f>Arkusz1!$X$2:$X$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -2741,7 +2743,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$X$2:$X$52</c:f>
+              <c:f>Arkusz1!$Y$2:$Y$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -2913,7 +2915,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$Y$1</c:f>
+              <c:f>Arkusz1!$Z$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2936,7 +2938,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Arkusz1!$W$2:$W$52</c:f>
+              <c:f>Arkusz1!$X$2:$X$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -3098,7 +3100,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$Y$2:$Y$52</c:f>
+              <c:f>Arkusz1!$Z$2:$Z$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -3270,7 +3272,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$Z$1</c:f>
+              <c:f>Arkusz1!$AA$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3293,7 +3295,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Arkusz1!$W$2:$W$52</c:f>
+              <c:f>Arkusz1!$X$2:$X$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -3455,7 +3457,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$Z$2:$Z$52</c:f>
+              <c:f>Arkusz1!$AA$2:$AA$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -7420,35 +7422,35 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="monte_carlo" connectionId="1" xr16:uid="{CE64FFCE-2E2B-734B-BEE2-84FCDAE7B753}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_4" connectionId="7" xr16:uid="{8B2ADFA5-5EA0-FF43-AB0B-0863C1D612F7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_5" connectionId="8" xr16:uid="{D8C5E8C6-2D8D-2349-BEA1-7976B658F386}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_2" connectionId="5" xr16:uid="{E83F0B21-BF21-2B4B-BE95-329F74AB2E36}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="pkt_konc" connectionId="2" xr16:uid="{CAA4F7F9-5C8B-F347-BA87-D5B657132048}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test" connectionId="3" xr16:uid="{8B62D681-966C-5549-8945-8D5D805837D4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="monte_carlo" connectionId="1" xr16:uid="{CE64FFCE-2E2B-734B-BEE2-84FCDAE7B753}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_4" connectionId="7" xr16:uid="{8B2ADFA5-5EA0-FF43-AB0B-0863C1D612F7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_2" connectionId="5" xr16:uid="{E83F0B21-BF21-2B4B-BE95-329F74AB2E36}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_3" connectionId="6" xr16:uid="{DA59792E-8EE7-824C-8032-13B401A10CE5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_3" connectionId="6" xr16:uid="{DA59792E-8EE7-824C-8032-13B401A10CE5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_1" connectionId="4" xr16:uid="{717306AC-2797-B54C-A69F-D4681AF5D7B6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_1" connectionId="4" xr16:uid="{717306AC-2797-B54C-A69F-D4681AF5D7B6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test" connectionId="3" xr16:uid="{8B62D681-966C-5549-8945-8D5D805837D4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7770,8 +7772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6287C271-BA6E-5246-853E-184B17EA6509}">
   <dimension ref="A1:AE87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="95" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView tabSelected="1" zoomScale="43" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="S57" sqref="S57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7792,14 +7794,14 @@
     <col min="14" max="14" width="17.6640625" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
     <col min="16" max="16" width="10.33203125" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" customWidth="1"/>
-    <col min="18" max="18" width="13.83203125" customWidth="1"/>
-    <col min="22" max="22" width="14.6640625" customWidth="1"/>
-    <col min="23" max="23" width="11.6640625" customWidth="1"/>
-    <col min="24" max="24" width="11.83203125" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="13.83203125" customWidth="1"/>
+    <col min="23" max="23" width="14.6640625" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" customWidth="1"/>
+    <col min="25" max="25" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7845,38 +7847,44 @@
       <c r="O1" t="s">
         <v>26</v>
       </c>
+      <c r="P1" t="s">
+        <v>29</v>
+      </c>
       <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" t="s">
         <v>0</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>4</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>5</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>10</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>9</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>0</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>4</v>
       </c>
@@ -7926,36 +7934,44 @@
         <f>M2-K2</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="P2" t="str">
+        <f>IF(L2&gt;J2,"Sort","NieSort")</f>
+        <v>NieSort</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>IF(M2&gt;K2,"Sort","NieSort")</f>
+        <v>NieSort</v>
+      </c>
+      <c r="S2" s="3">
         <v>4</v>
-      </c>
-      <c r="R2">
-        <v>3</v>
-      </c>
-      <c r="S2">
-        <v>3.1415899999999999</v>
       </c>
       <c r="T2">
         <v>3</v>
       </c>
-      <c r="W2" s="3">
+      <c r="U2">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="X2" s="3">
         <v>4</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>2.1213199999999999</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>3</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA2">
-        <f t="shared" ref="AA2:AA33" si="0">X2-Y2</f>
+      <c r="AB2">
+        <f t="shared" ref="AB2:AB33" si="0">Y2-Z2</f>
         <v>-0.87868000000000013</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2000</v>
       </c>
@@ -8005,36 +8021,44 @@
         <f t="shared" ref="O3:O52" si="4">M3-K3</f>
         <v>-2.3841799999999998E-7</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P52" si="5">IF(L3&gt;J3,"Sort","NieSort")</f>
+        <v>Sort</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q52" si="6">IF(M3&gt;K3,"Sort","NieSort")</f>
+        <v>NieSort</v>
+      </c>
+      <c r="S3" s="3">
         <v>2000</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>1577</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>3.1539999999999999</v>
       </c>
-      <c r="W3" s="3">
+      <c r="X3" s="3">
         <v>2000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>3.1399550000000001</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>3.1539999999999999</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <f t="shared" si="0"/>
         <v>-1.4044999999999863E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3996</v>
       </c>
@@ -8084,36 +8108,44 @@
         <f t="shared" si="4"/>
         <v>9.5366999999999988E-7</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="P4" t="str">
+        <f t="shared" si="5"/>
+        <v>Sort</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="6"/>
+        <v>Sort</v>
+      </c>
+      <c r="S4" s="3">
         <v>3996</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>3128</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>3.1311300000000002</v>
       </c>
-      <c r="W4" s="3">
+      <c r="X4" s="3">
         <v>3996</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>3.1406350000000001</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>3.1311300000000002</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <f t="shared" si="0"/>
         <v>9.5049999999998747E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>5992</v>
       </c>
@@ -8163,36 +8195,44 @@
         <f t="shared" si="4"/>
         <v>9.5368000000000016E-7</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="P5" t="str">
+        <f t="shared" si="5"/>
+        <v>Sort</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="6"/>
+        <v>Sort</v>
+      </c>
+      <c r="S5" s="3">
         <v>5992</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>4685</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>3.1274999999999999</v>
       </c>
-      <c r="W5" s="3">
+      <c r="X5" s="3">
         <v>5992</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>3.1409850000000001</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>3.1274999999999999</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <f t="shared" si="0"/>
         <v>1.3485000000000191E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>7988</v>
       </c>
@@ -8242,36 +8282,44 @@
         <f t="shared" si="4"/>
         <v>9.5367999999999931E-7</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="P6" t="str">
+        <f>IF(L6&gt;J6,"Sort","NieSort")</f>
+        <v>NieSort</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="6"/>
+        <v>Sort</v>
+      </c>
+      <c r="S6" s="3">
         <v>7988</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>6230</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>3.1196799999999998</v>
       </c>
-      <c r="W6" s="3">
+      <c r="X6" s="3">
         <v>7988</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>3.141435</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>3.1196799999999998</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <f t="shared" si="0"/>
         <v>2.1755000000000191E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>9984</v>
       </c>
@@ -8321,36 +8369,44 @@
         <f t="shared" si="4"/>
         <v>9.5366999999999988E-7</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="P7" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="6"/>
+        <v>Sort</v>
+      </c>
+      <c r="S7" s="3">
         <v>9984</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>7830</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>3.1370200000000001</v>
       </c>
-      <c r="W7" s="3">
+      <c r="X7" s="3">
         <v>9984</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>3.1415950000000001</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>3.1370200000000001</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <f t="shared" si="0"/>
         <v>4.5749999999999957E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>11980</v>
       </c>
@@ -8400,36 +8456,44 @@
         <f t="shared" si="4"/>
         <v>9.5368000000000016E-7</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="P8" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="6"/>
+        <v>Sort</v>
+      </c>
+      <c r="S8" s="3">
         <v>11980</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>9310</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>3.1085099999999999</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11980</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>3.1415700000000002</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>3.1085099999999999</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <f t="shared" si="0"/>
         <v>3.3060000000000311E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>13976</v>
       </c>
@@ -8479,36 +8543,44 @@
         <f t="shared" si="4"/>
         <v>9.5370000000000071E-7</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="P9" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="6"/>
+        <v>Sort</v>
+      </c>
+      <c r="S9" s="3">
         <v>13976</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>10961</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>3.1370900000000002</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>13976</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>3.1410800000000001</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>3.1370900000000002</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <f t="shared" si="0"/>
         <v>3.989999999999938E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>15972</v>
       </c>
@@ -8558,36 +8630,44 @@
         <f t="shared" si="4"/>
         <v>-3.8147099999999991E-6</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="P10" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S10" s="3">
         <v>15972</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>12477</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>3.1247199999999999</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>15972</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>3.1414200000000001</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>3.1247199999999999</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <f t="shared" si="0"/>
         <v>1.6700000000000159E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>17968</v>
       </c>
@@ -8637,36 +8717,44 @@
         <f t="shared" si="4"/>
         <v>-1.9073000000000012E-6</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="P11" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S11" s="3">
         <v>17968</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>14089</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>3.13646</v>
       </c>
-      <c r="W11" s="3">
+      <c r="X11" s="3">
         <v>17968</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>3.1403050000000001</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>3.13646</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <f t="shared" si="0"/>
         <v>3.8450000000000983E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>19964</v>
       </c>
@@ -8716,36 +8804,44 @@
         <f t="shared" si="4"/>
         <v>-1.9074000000000014E-6</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="P12" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S12" s="3">
         <v>19964</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>15683</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>3.1422599999999998</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>19964</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>3.140485</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>3.1422599999999998</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <f t="shared" si="0"/>
         <v>-1.77499999999986E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>21960</v>
       </c>
@@ -8795,36 +8891,44 @@
         <f t="shared" si="4"/>
         <v>-1.9073000000000012E-6</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="P13" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S13" s="3">
         <v>21960</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>17332</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>3.1570100000000001</v>
       </c>
-      <c r="W13" s="3">
+      <c r="X13" s="3">
         <v>21960</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>3.139275</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>3.1570100000000001</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <f t="shared" si="0"/>
         <v>-1.7735000000000056E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>23956</v>
       </c>
@@ -8874,36 +8978,44 @@
         <f t="shared" si="4"/>
         <v>-3.8146999999999992E-6</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="P14" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S14" s="3">
         <v>23956</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>18774</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>3.1347499999999999</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>23956</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>3.13883</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>3.1347499999999999</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <f t="shared" si="0"/>
         <v>4.0800000000000836E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>25952</v>
       </c>
@@ -8953,36 +9065,44 @@
         <f t="shared" si="4"/>
         <v>-3.8147000000000009E-6</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="P15" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S15" s="3">
         <v>25952</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>20288</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>3.1269999999999998</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>25952</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>3.1426050000000001</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>3.1269999999999998</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <f t="shared" si="0"/>
         <v>1.5605000000000313E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>27948</v>
       </c>
@@ -9032,31 +9152,39 @@
         <f t="shared" si="4"/>
         <v>-1.9074000000000014E-6</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="P16" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S16" s="3">
         <v>27948</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>21817</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>3.1225100000000001</v>
       </c>
-      <c r="W16" s="3">
+      <c r="X16" s="3">
         <v>27948</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>3.1428500000000001</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>3.1225100000000001</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <f t="shared" si="0"/>
         <v>2.0340000000000025E-2</v>
       </c>
@@ -9111,31 +9239,39 @@
         <f t="shared" si="4"/>
         <v>-1.9073000000000012E-6</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="P17" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S17" s="3">
         <v>29944</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>23434</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>3.1303800000000002</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>29944</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>3.1413449999999998</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>3.1303800000000002</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <f t="shared" si="0"/>
         <v>1.0964999999999669E-2</v>
       </c>
@@ -9193,31 +9329,39 @@
         <f t="shared" si="4"/>
         <v>-3.4332300000000003E-5</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="P18" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S18" s="3">
         <v>31940</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <v>25144</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>3.1488999999999998</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>31940</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>3.142655</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>3.1488999999999998</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <f t="shared" si="0"/>
         <v>-6.244999999999834E-3</v>
       </c>
@@ -9275,31 +9419,39 @@
         <f t="shared" si="4"/>
         <v>-3.4332399999999997E-5</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="P19" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S19" s="3">
         <v>33936</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>26725</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>3.1500499999999998</v>
       </c>
-      <c r="W19" s="3">
+      <c r="X19" s="3">
         <v>33936</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>3.1415549999999999</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>3.1500499999999998</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <f t="shared" si="0"/>
         <v>-8.4949999999999193E-3</v>
       </c>
@@ -9355,31 +9507,39 @@
         <f t="shared" si="4"/>
         <v>-3.4332399999999997E-5</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="P20" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S20" s="3">
         <v>35932</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <v>28183</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>3.1373700000000002</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>35932</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>3.1432549999999999</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>3.1373700000000002</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <f t="shared" si="0"/>
         <v>5.884999999999696E-3</v>
       </c>
@@ -9434,31 +9594,39 @@
         <f t="shared" si="4"/>
         <v>-3.4332700000000004E-5</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="P21" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S21" s="3">
         <v>37928</v>
       </c>
-      <c r="R21">
+      <c r="T21">
         <v>29724</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>3.1347800000000001</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>37928</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>3.1438199999999998</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>3.1347800000000001</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <f t="shared" si="0"/>
         <v>9.0399999999997149E-3</v>
       </c>
@@ -9513,31 +9681,39 @@
         <f t="shared" si="4"/>
         <v>-3.4332399999999997E-5</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="P22" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S22" s="3">
         <v>39924</v>
       </c>
-      <c r="R22">
+      <c r="T22">
         <v>31384</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>3.1443699999999999</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>39924</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>3.1411899999999999</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>3.1443699999999999</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <f t="shared" si="0"/>
         <v>-3.1799999999999606E-3</v>
       </c>
@@ -9592,31 +9768,39 @@
         <f t="shared" si="4"/>
         <v>-3.4332099999999989E-5</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="P23" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S23" s="3">
         <v>41920</v>
       </c>
-      <c r="R23">
+      <c r="T23">
         <v>32841</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <v>3.13368</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>41920</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>3.1408100000000001</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>3.13368</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <f t="shared" si="0"/>
         <v>7.1300000000000807E-3</v>
       </c>
@@ -9671,31 +9855,39 @@
         <f t="shared" si="4"/>
         <v>-3.4332000000000009E-5</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="P24" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S24" s="3">
         <v>43916</v>
       </c>
-      <c r="R24">
+      <c r="T24">
         <v>34543</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <v>3.14628</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>43916</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>3.14114</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>3.14628</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <f t="shared" si="0"/>
         <v>-5.1399999999999224E-3</v>
       </c>
@@ -9750,31 +9942,39 @@
         <f t="shared" si="4"/>
         <v>-3.4332999999999998E-5</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="P25" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S25" s="3">
         <v>45912</v>
       </c>
-      <c r="R25">
+      <c r="T25">
         <v>36061</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>3.14175</v>
       </c>
-      <c r="W25" s="3">
+      <c r="X25" s="3">
         <v>45912</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>3.1415099999999998</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>3.14175</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <f t="shared" si="0"/>
         <v>-2.4000000000024002E-4</v>
       </c>
@@ -9829,31 +10029,39 @@
         <f t="shared" si="4"/>
         <v>-3.4332000000000009E-5</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="P26" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S26" s="3">
         <v>47908</v>
       </c>
-      <c r="R26">
+      <c r="T26">
         <v>37621</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <v>3.1410999999999998</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>47908</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>3.1410800000000001</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>3.1410999999999998</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <f t="shared" si="0"/>
         <v>-1.9999999999686935E-5</v>
       </c>
@@ -9908,31 +10116,39 @@
         <f t="shared" si="4"/>
         <v>-3.0516999999999979E-5</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="P27" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S27" s="3">
         <v>49904</v>
       </c>
-      <c r="R27">
+      <c r="T27">
         <v>39122</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>3.13578</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>49904</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>3.14107</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>3.13578</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <f t="shared" si="0"/>
         <v>5.2900000000000169E-3</v>
       </c>
@@ -9987,31 +10203,39 @@
         <f t="shared" si="4"/>
         <v>-3.0517999999999995E-5</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="P28" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S28" s="3">
         <v>51900</v>
       </c>
-      <c r="R28">
+      <c r="T28">
         <v>40841</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <v>3.1476700000000002</v>
       </c>
-      <c r="W28" s="3">
+      <c r="X28" s="3">
         <v>51900</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>3.1426799999999999</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>3.1476700000000002</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <f t="shared" si="0"/>
         <v>-4.990000000000272E-3</v>
       </c>
@@ -10066,31 +10290,39 @@
         <f t="shared" si="4"/>
         <v>-3.0517999999999995E-5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="P29" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S29" s="3">
         <v>53896</v>
       </c>
-      <c r="R29">
+      <c r="T29">
         <v>42483</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <v>3.1529600000000002</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>53896</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>3.14405</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>3.1529600000000002</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <f t="shared" si="0"/>
         <v>-8.9100000000001955E-3</v>
       </c>
@@ -10145,31 +10377,39 @@
         <f t="shared" si="4"/>
         <v>-3.0517999999999995E-5</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="P30" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S30" s="3">
         <v>55892</v>
       </c>
-      <c r="R30">
+      <c r="T30">
         <v>43856</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <v>3.13862</v>
       </c>
-      <c r="W30" s="3">
+      <c r="X30" s="3">
         <v>55892</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>3.143745</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>3.13862</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <f t="shared" si="0"/>
         <v>5.1250000000000462E-3</v>
       </c>
@@ -10224,31 +10464,39 @@
         <f t="shared" si="4"/>
         <v>-3.0517999999999995E-5</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="P31" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S31" s="3">
         <v>57888</v>
       </c>
-      <c r="R31">
+      <c r="T31">
         <v>45680</v>
       </c>
-      <c r="S31">
+      <c r="U31">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <v>3.1564399999999999</v>
       </c>
-      <c r="W31" s="3">
+      <c r="X31" s="3">
         <v>57888</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>3.143135</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>3.1564399999999999</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <f t="shared" si="0"/>
         <v>-1.33049999999999E-2</v>
       </c>
@@ -10303,36 +10551,44 @@
         <f t="shared" si="4"/>
         <v>-3.0517999999999995E-5</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="P32" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S32" s="3">
         <v>59884</v>
       </c>
-      <c r="R32">
+      <c r="T32">
         <v>47013</v>
       </c>
-      <c r="S32">
+      <c r="U32">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T32">
+      <c r="V32">
         <v>3.1402700000000001</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>59884</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>3.1410450000000001</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>3.1402700000000001</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <f t="shared" si="0"/>
         <v>7.7499999999997016E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>61880</v>
       </c>
@@ -10382,36 +10638,44 @@
         <f t="shared" si="4"/>
         <v>-3.0518000000000022E-5</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="P33" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S33" s="3">
         <v>61880</v>
       </c>
-      <c r="R33">
+      <c r="T33">
         <v>48649</v>
       </c>
-      <c r="S33">
+      <c r="U33">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T33">
+      <c r="V33">
         <v>3.14473</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>61880</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>3.1423399999999999</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>3.14473</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <f t="shared" si="0"/>
         <v>-2.3900000000001143E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>63876</v>
       </c>
@@ -10461,36 +10725,44 @@
         <f t="shared" si="4"/>
         <v>-4.6539299999999993E-4</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="P34" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S34" s="3">
         <v>63876</v>
       </c>
-      <c r="R34">
+      <c r="T34">
         <v>50228</v>
       </c>
-      <c r="S34">
+      <c r="U34">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T34">
+      <c r="V34">
         <v>3.14534</v>
       </c>
-      <c r="W34" s="3">
+      <c r="X34" s="3">
         <v>63876</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>3.1408649999999998</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>3.14534</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA34">
-        <f t="shared" ref="AA34:AA52" si="5">X34-Y34</f>
+      <c r="AB34">
+        <f t="shared" ref="AB34:AB52" si="7">Y34-Z34</f>
         <v>-4.4750000000002288E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>65872</v>
       </c>
@@ -10540,36 +10812,44 @@
         <f t="shared" si="4"/>
         <v>-4.6539300000000003E-4</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="P35" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S35" s="3">
         <v>65872</v>
       </c>
-      <c r="R35">
+      <c r="T35">
         <v>51650</v>
       </c>
-      <c r="S35">
+      <c r="U35">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T35">
+      <c r="V35">
         <v>3.13639</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>65872</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>3.141035</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>3.13639</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA35">
-        <f t="shared" si="5"/>
+      <c r="AB35">
+        <f t="shared" si="7"/>
         <v>4.6450000000000102E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>67868</v>
       </c>
@@ -10619,36 +10899,44 @@
         <f t="shared" si="4"/>
         <v>-4.6539300000000003E-4</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="P36" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S36" s="3">
         <v>67868</v>
       </c>
-      <c r="R36">
+      <c r="T36">
         <v>53380</v>
       </c>
-      <c r="S36">
+      <c r="U36">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T36">
+      <c r="V36">
         <v>3.1461100000000002</v>
       </c>
-      <c r="W36" s="3">
+      <c r="X36" s="3">
         <v>67868</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>3.1400800000000002</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>3.1461100000000002</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA36">
-        <f t="shared" si="5"/>
+      <c r="AB36">
+        <f t="shared" si="7"/>
         <v>-6.0299999999999798E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>69864</v>
       </c>
@@ -10698,36 +10986,44 @@
         <f t="shared" si="4"/>
         <v>-4.6539299999999998E-4</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="P37" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S37" s="3">
         <v>69864</v>
       </c>
-      <c r="R37">
+      <c r="T37">
         <v>54733</v>
       </c>
-      <c r="S37">
+      <c r="U37">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T37">
+      <c r="V37">
         <v>3.1336900000000001</v>
       </c>
-      <c r="W37" s="3">
+      <c r="X37" s="3">
         <v>69864</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>3.1431149999999999</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>3.1336900000000001</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA37">
-        <f t="shared" si="5"/>
+      <c r="AB37">
+        <f t="shared" si="7"/>
         <v>9.4249999999997947E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>71860</v>
       </c>
@@ -10777,36 +11073,44 @@
         <f t="shared" si="4"/>
         <v>-4.6539300000000003E-4</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="P38" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S38" s="3">
         <v>71860</v>
       </c>
-      <c r="R38">
+      <c r="T38">
         <v>56194</v>
       </c>
-      <c r="S38">
+      <c r="U38">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T38">
+      <c r="V38">
         <v>3.1279699999999999</v>
       </c>
-      <c r="W38" s="3">
+      <c r="X38" s="3">
         <v>71860</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>3.1403599999999998</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>3.1279699999999999</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA38">
-        <f t="shared" si="5"/>
+      <c r="AB38">
+        <f t="shared" si="7"/>
         <v>1.2389999999999901E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>73856</v>
       </c>
@@ -10856,36 +11160,44 @@
         <f t="shared" si="4"/>
         <v>-4.6539300000000003E-4</v>
       </c>
-      <c r="Q39" s="3">
+      <c r="P39" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S39" s="3">
         <v>73856</v>
       </c>
-      <c r="R39">
+      <c r="T39">
         <v>58072</v>
       </c>
-      <c r="S39">
+      <c r="U39">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T39">
+      <c r="V39">
         <v>3.1451500000000001</v>
       </c>
-      <c r="W39" s="3">
+      <c r="X39" s="3">
         <v>73856</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>3.139615</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>3.1451500000000001</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA39">
-        <f t="shared" si="5"/>
+      <c r="AB39">
+        <f t="shared" si="7"/>
         <v>-5.5350000000000676E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>75852</v>
       </c>
@@ -10935,36 +11247,44 @@
         <f t="shared" si="4"/>
         <v>-4.6539300000000003E-4</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="P40" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S40" s="3">
         <v>75852</v>
       </c>
-      <c r="R40">
+      <c r="T40">
         <v>59375</v>
       </c>
-      <c r="S40">
+      <c r="U40">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T40">
+      <c r="V40">
         <v>3.1311</v>
       </c>
-      <c r="W40" s="3">
+      <c r="X40" s="3">
         <v>75852</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <v>3.142325</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>3.1311</v>
       </c>
-      <c r="Z40">
+      <c r="AA40">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA40">
-        <f t="shared" si="5"/>
+      <c r="AB40">
+        <f t="shared" si="7"/>
         <v>1.1225000000000041E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>77848</v>
       </c>
@@ -11014,36 +11334,44 @@
         <f t="shared" si="4"/>
         <v>-4.6539300000000003E-4</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="P41" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S41" s="3">
         <v>77848</v>
       </c>
-      <c r="R41">
+      <c r="T41">
         <v>61222</v>
       </c>
-      <c r="S41">
+      <c r="U41">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T41">
+      <c r="V41">
         <v>3.1457199999999998</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>77848</v>
       </c>
-      <c r="X41">
+      <c r="Y41">
         <v>3.1410999999999998</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>3.1457199999999998</v>
       </c>
-      <c r="Z41">
+      <c r="AA41">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA41">
-        <f t="shared" si="5"/>
+      <c r="AB41">
+        <f t="shared" si="7"/>
         <v>-4.6200000000000685E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>79844</v>
       </c>
@@ -11093,36 +11421,44 @@
         <f t="shared" si="4"/>
         <v>-4.6539300000000003E-4</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="P42" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S42" s="3">
         <v>79844</v>
       </c>
-      <c r="R42">
+      <c r="T42">
         <v>62600</v>
       </c>
-      <c r="S42">
+      <c r="U42">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T42">
+      <c r="V42">
         <v>3.13612</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>79844</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <v>3.1410200000000001</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>3.13612</v>
       </c>
-      <c r="Z42">
+      <c r="AA42">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA42">
-        <f t="shared" si="5"/>
+      <c r="AB42">
+        <f t="shared" si="7"/>
         <v>4.9000000000001265E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>81840</v>
       </c>
@@ -11172,36 +11508,44 @@
         <f t="shared" si="4"/>
         <v>-4.6539300000000003E-4</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="P43" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S43" s="3">
         <v>81840</v>
       </c>
-      <c r="R43">
+      <c r="T43">
         <v>64401</v>
       </c>
-      <c r="S43">
+      <c r="U43">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T43">
+      <c r="V43">
         <v>3.1476500000000001</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>81840</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>3.1414249999999999</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>3.1476500000000001</v>
       </c>
-      <c r="Z43">
+      <c r="AA43">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA43">
-        <f t="shared" si="5"/>
+      <c r="AB43">
+        <f t="shared" si="7"/>
         <v>-6.2250000000001471E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>83836</v>
       </c>
@@ -11251,36 +11595,44 @@
         <f t="shared" si="4"/>
         <v>-4.6539300000000003E-4</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="P44" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S44" s="3">
         <v>83836</v>
       </c>
-      <c r="R44">
+      <c r="T44">
         <v>65653</v>
       </c>
-      <c r="S44">
+      <c r="U44">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T44">
+      <c r="V44">
         <v>3.13245</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>83836</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <v>3.1393749999999998</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <v>3.13245</v>
       </c>
-      <c r="Z44">
+      <c r="AA44">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA44">
-        <f t="shared" si="5"/>
+      <c r="AB44">
+        <f t="shared" si="7"/>
         <v>6.9249999999998479E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>85832</v>
       </c>
@@ -11330,36 +11682,44 @@
         <f t="shared" si="4"/>
         <v>-4.6539300000000003E-4</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="P45" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S45" s="3">
         <v>85832</v>
       </c>
-      <c r="R45">
+      <c r="T45">
         <v>67522</v>
       </c>
-      <c r="S45">
+      <c r="U45">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T45">
+      <c r="V45">
         <v>3.1467100000000001</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>85832</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <v>3.1449150000000001</v>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <v>3.1467100000000001</v>
       </c>
-      <c r="Z45">
+      <c r="AA45">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA45">
-        <f t="shared" si="5"/>
+      <c r="AB45">
+        <f t="shared" si="7"/>
         <v>-1.794999999999991E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>87828</v>
       </c>
@@ -11409,36 +11769,44 @@
         <f t="shared" si="4"/>
         <v>-4.6539300000000003E-4</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="P46" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S46" s="3">
         <v>87828</v>
       </c>
-      <c r="R46">
+      <c r="T46">
         <v>69271</v>
       </c>
-      <c r="S46">
+      <c r="U46">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T46">
+      <c r="V46">
         <v>3.1548500000000002</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>87828</v>
       </c>
-      <c r="X46">
+      <c r="Y46">
         <v>3.1410049999999998</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>3.1548500000000002</v>
       </c>
-      <c r="Z46">
+      <c r="AA46">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA46">
-        <f t="shared" si="5"/>
+      <c r="AB46">
+        <f t="shared" si="7"/>
         <v>-1.3845000000000329E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>89824</v>
       </c>
@@ -11488,36 +11856,44 @@
         <f t="shared" si="4"/>
         <v>-4.6539300000000003E-4</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="P47" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S47" s="3">
         <v>89824</v>
       </c>
-      <c r="R47">
+      <c r="T47">
         <v>70638</v>
       </c>
-      <c r="S47">
+      <c r="U47">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T47">
+      <c r="V47">
         <v>3.1456200000000001</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>89824</v>
       </c>
-      <c r="X47">
+      <c r="Y47">
         <v>3.142855</v>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <v>3.1456200000000001</v>
       </c>
-      <c r="Z47">
+      <c r="AA47">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA47">
-        <f t="shared" si="5"/>
+      <c r="AB47">
+        <f t="shared" si="7"/>
         <v>-2.7650000000001285E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>91820</v>
       </c>
@@ -11567,36 +11943,44 @@
         <f t="shared" si="4"/>
         <v>-4.6539300000000003E-4</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="P48" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S48" s="3">
         <v>91820</v>
       </c>
-      <c r="R48">
+      <c r="T48">
         <v>72122</v>
       </c>
-      <c r="S48">
+      <c r="U48">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T48">
+      <c r="V48">
         <v>3.1418900000000001</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>91820</v>
       </c>
-      <c r="X48">
+      <c r="Y48">
         <v>3.1453899999999999</v>
       </c>
-      <c r="Y48">
+      <c r="Z48">
         <v>3.1418900000000001</v>
       </c>
-      <c r="Z48">
+      <c r="AA48">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA48">
-        <f t="shared" si="5"/>
+      <c r="AB48">
+        <f t="shared" si="7"/>
         <v>3.4999999999998366E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>93816</v>
       </c>
@@ -11646,36 +12030,44 @@
         <f t="shared" si="4"/>
         <v>-4.6539300000000003E-4</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="P49" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q49" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S49" s="3">
         <v>93816</v>
       </c>
-      <c r="R49">
+      <c r="T49">
         <v>73577</v>
       </c>
-      <c r="S49">
+      <c r="U49">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T49">
+      <c r="V49">
         <v>3.1370800000000001</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>93816</v>
       </c>
-      <c r="X49">
+      <c r="Y49">
         <v>3.1384400000000001</v>
       </c>
-      <c r="Y49">
+      <c r="Z49">
         <v>3.1370800000000001</v>
       </c>
-      <c r="Z49">
+      <c r="AA49">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA49">
-        <f t="shared" si="5"/>
+      <c r="AB49">
+        <f t="shared" si="7"/>
         <v>1.3600000000000279E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>95812</v>
       </c>
@@ -11725,36 +12117,44 @@
         <f t="shared" si="4"/>
         <v>-4.6539300000000003E-4</v>
       </c>
-      <c r="Q50" s="3">
+      <c r="P50" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S50" s="3">
         <v>95812</v>
       </c>
-      <c r="R50">
+      <c r="T50">
         <v>75234</v>
       </c>
-      <c r="S50">
+      <c r="U50">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T50">
+      <c r="V50">
         <v>3.1408999999999998</v>
       </c>
-      <c r="W50" s="3">
+      <c r="X50" s="3">
         <v>95812</v>
       </c>
-      <c r="X50">
+      <c r="Y50">
         <v>3.145105</v>
       </c>
-      <c r="Y50">
+      <c r="Z50">
         <v>3.1408999999999998</v>
       </c>
-      <c r="Z50">
+      <c r="AA50">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA50">
-        <f t="shared" si="5"/>
+      <c r="AB50">
+        <f t="shared" si="7"/>
         <v>4.2050000000002363E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>97808</v>
       </c>
@@ -11804,36 +12204,44 @@
         <f t="shared" si="4"/>
         <v>-4.6539300000000003E-4</v>
       </c>
-      <c r="Q51" s="3">
+      <c r="P51" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S51" s="3">
         <v>97808</v>
       </c>
-      <c r="R51">
+      <c r="T51">
         <v>76952</v>
       </c>
-      <c r="S51">
+      <c r="U51">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T51">
+      <c r="V51">
         <v>3.1470600000000002</v>
       </c>
-      <c r="W51" s="3">
+      <c r="X51" s="3">
         <v>97808</v>
       </c>
-      <c r="X51">
+      <c r="Y51">
         <v>3.1424650000000001</v>
       </c>
-      <c r="Y51">
+      <c r="Z51">
         <v>3.1470600000000002</v>
       </c>
-      <c r="Z51">
+      <c r="AA51">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA51">
-        <f t="shared" si="5"/>
+      <c r="AB51">
+        <f t="shared" si="7"/>
         <v>-4.5950000000001268E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>99804</v>
       </c>
@@ -11883,45 +12291,53 @@
         <f t="shared" si="4"/>
         <v>-4.6539300000000003E-4</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="P52" t="str">
+        <f t="shared" si="5"/>
+        <v>NieSort</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" si="6"/>
+        <v>NieSort</v>
+      </c>
+      <c r="S52" s="3">
         <v>99804</v>
       </c>
-      <c r="R52">
+      <c r="T52">
         <v>78287</v>
       </c>
-      <c r="S52">
+      <c r="U52">
         <v>3.1415899999999999</v>
       </c>
-      <c r="T52">
+      <c r="V52">
         <v>3.1376300000000001</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>99804</v>
       </c>
-      <c r="X52">
+      <c r="Y52">
         <v>3.1409549999999999</v>
       </c>
-      <c r="Y52">
+      <c r="Z52">
         <v>3.1376300000000001</v>
       </c>
-      <c r="Z52">
+      <c r="AA52">
         <v>3.1415899999999999</v>
       </c>
-      <c r="AA52">
-        <f t="shared" si="5"/>
+      <c r="AB52">
+        <f t="shared" si="7"/>
         <v>3.3249999999998003E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -11930,7 +12346,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>17</v>
       </c>
@@ -11939,25 +12355,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="8:8" x14ac:dyDescent="0.2">
